--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -44,22 +44,46 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
     <t>5:4</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
     <t>12.0000</t>
   </si>
   <si>
-    <t>0:1</t>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -74,13 +98,25 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 9:56 AM</t>
+    <t>Thursday, 21 August, 2025 9:57 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -760,53 +796,152 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
         <v>21</v>
       </c>
-      <c t="s" r="Q8" s="12">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>14</v>
-      </c>
-      <c r="Q9" s="13"/>
-    </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
         <v>23</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
         <v>24</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
+      <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
         <v>25</v>
       </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>26</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>27</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>28</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>31</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>26</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>27</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>32</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>48.829999999999998</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>35</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>36</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>37</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -825,10 +960,25 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>BRONCHOPHANE 125ML SYRUP.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
     <t>3:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>65.00</t>
   </si>
   <si>
@@ -62,6 +77,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>KAPRON 500 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -74,6 +98,18 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -101,9 +137,6 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -113,10 +146,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>Thursday, 21 August, 2025 9:57 AM</t>
+    <t>Thursday, 21 August, 2025 10:22 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -807,7 +837,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -816,14 +846,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -840,7 +870,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -862,18 +892,18 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -882,66 +912,165 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>33</v>
       </c>
-      <c t="s" r="Q11" s="12">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>48.829999999999998</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>35</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
         <v>36</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c t="s" r="Q12" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
         <v>37</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>38</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>39</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>40</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>42</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>38</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>39</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>43</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>153.83000000000001</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>45</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>46</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>47</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -975,10 +1104,25 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>BRUFEN 400MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -74,9 +86,6 @@
     <t>13.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>KAPRON 500 MG 20 F.C.TABS.</t>
   </si>
   <si>
@@ -146,7 +155,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 10:22 AM</t>
+    <t>Thursday, 21 August, 2025 10:23 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -820,7 +829,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -830,14 +839,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -846,14 +855,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -870,7 +879,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -886,7 +895,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -896,14 +905,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -912,14 +921,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -929,14 +938,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -945,14 +954,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -962,14 +971,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -978,31 +987,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1011,20 +1020,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1035,42 +1044,75 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>45</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>41</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>42</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>46</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>153.83000000000001</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
-        <v>45</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
-        <v>46</v>
-      </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
-        <v>47</v>
-      </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>179.56999999999999</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>48</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>49</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>50</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1119,10 +1161,15 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -74,27 +74,6 @@
     <t>0:1</t>
   </si>
   <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>KAPRON 500 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -119,18 +98,6 @@
     <t>26.0000</t>
   </si>
   <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -143,19 +110,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>Thursday, 21 August, 2025 10:23 AM</t>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 21 August, 2025 10:45 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -895,7 +853,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -905,14 +863,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -921,198 +879,66 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
-      <c r="A12" s="7">
-        <v>6</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c t="s" r="C12" s="8">
-        <v>32</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c t="s" r="H12" s="9">
-        <v>33</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c t="s" r="L12" s="10">
-        <v>13</v>
-      </c>
-      <c r="M12" s="10"/>
-      <c t="s" r="N12" s="8">
+      <c r="P12" s="13">
+        <v>89.739999999999995</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
         <v>34</v>
       </c>
-      <c r="O12" s="8"/>
-      <c t="s" r="P12" s="11">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
         <v>35</v>
       </c>
-      <c t="s" r="Q12" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" ht="24.75" customHeight="1">
-      <c r="A13" s="7">
-        <v>7</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c t="s" r="C13" s="8">
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
         <v>36</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c t="s" r="H13" s="9">
-        <v>37</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c t="s" r="L13" s="10">
-        <v>13</v>
-      </c>
-      <c r="M13" s="10"/>
-      <c t="s" r="N13" s="8">
-        <v>38</v>
-      </c>
-      <c r="O13" s="8"/>
-      <c t="s" r="P13" s="11">
-        <v>39</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" ht="25.5" customHeight="1">
-      <c r="A14" s="7">
-        <v>8</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c t="s" r="C14" s="8">
-        <v>40</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c t="s" r="H14" s="9">
-        <v>41</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c t="s" r="L14" s="10">
-        <v>42</v>
-      </c>
-      <c r="M14" s="10"/>
-      <c t="s" r="N14" s="8">
-        <v>43</v>
-      </c>
-      <c r="O14" s="8"/>
-      <c t="s" r="P14" s="11">
-        <v>44</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" ht="24.75" customHeight="1">
-      <c r="A15" s="7">
-        <v>9</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c t="s" r="C15" s="8">
-        <v>45</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c t="s" r="H15" s="9">
-        <v>41</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c t="s" r="L15" s="10">
-        <v>42</v>
-      </c>
-      <c r="M15" s="10"/>
-      <c t="s" r="N15" s="8">
-        <v>46</v>
-      </c>
-      <c r="O15" s="8"/>
-      <c t="s" r="P15" s="11">
-        <v>47</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>179.56999999999999</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
-        <v>48</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
-        <v>49</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
-        <v>50</v>
-      </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1146,30 +972,10 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -74,6 +74,30 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -98,6 +122,18 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -110,10 +146,19 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>Thursday, 21 August, 2025 10:45 AM</t>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 21 August, 2025 10:47 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -870,7 +915,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -892,53 +937,185 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>33</v>
       </c>
-      <c t="s" r="Q11" s="12">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>34</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>35</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>89.739999999999995</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
-        <v>34</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
-        <v>35</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
-        <v>36</v>
-      </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>37</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>38</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>39</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>41</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>42</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>43</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>44</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>46</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>42</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>43</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>47</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>174.595</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>49</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>50</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>51</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -972,10 +1149,30 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -158,7 +158,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 10:47 AM</t>
+    <t>Thursday, 21 August, 2025 10:48 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -96,6 +96,18 @@
   </si>
   <si>
     <t>13.0000</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
   </si>
   <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
@@ -948,7 +960,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -981,7 +993,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1014,7 +1026,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1036,18 +1048,18 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1056,66 +1068,99 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>174.595</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
-        <v>49</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
         <v>50</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>46</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>47</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
         <v>51</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>226.595</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>53</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>54</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>55</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1169,10 +1214,15 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -170,7 +170,31 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 10:48 AM</t>
+    <t>فرشاة اطفال ريتش ديلي</t>
+  </si>
+  <si>
+    <t>28:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>معجون سيجنال 50 مل</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 21 August, 2025 11:00 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1129,38 +1153,104 @@
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>226.595</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>53</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
         <v>54</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>47</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
         <v>55</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>57</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>58</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>47</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>59</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>276.59500000000003</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>61</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>62</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>63</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1219,10 +1309,20 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -194,7 +194,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 11:00 AM</t>
+    <t>Thursday, 21 August, 2025 11:02 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>BACTICLOR 125MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>73.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>BRONCHOPHANE 125ML SYRUP.</t>
   </si>
   <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
     <t>24.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>BRUFEN 400MG 30 TAB</t>
   </si>
   <si>
@@ -122,6 +134,18 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -146,21 +170,33 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8382:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>ZYRTEC 10MG/ML ORAL DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -194,7 +230,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 11:02 AM</t>
+    <t>Thursday, 21 August, 2025 11:06 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -868,7 +904,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -878,14 +914,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -901,7 +937,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -911,14 +947,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>24</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -951,7 +987,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -984,7 +1020,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1017,7 +1053,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1050,7 +1086,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1083,7 +1119,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1105,18 +1141,18 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1125,20 +1161,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1149,7 +1185,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1171,7 +1207,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1182,7 +1218,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1198,59 +1234,191 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>276.59500000000003</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>60</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>12</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
         <v>61</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>55</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
         <v>62</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>12</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>61</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
         <v>63</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>65</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>66</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>61</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>67</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>69</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>70</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>61</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>71</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>415.59500000000003</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>73</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>74</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>75</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1319,10 +1487,30 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -230,7 +230,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 11:06 AM</t>
+    <t>Thursday, 21 August, 2025 11:07 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -182,6 +182,15 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>ZADOGLOBIN 20 CAPS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>67.5000</t>
+  </si>
+  <si>
     <t>ZYRTEC 10MG/ML ORAL DROPS 10 ML</t>
   </si>
   <si>
@@ -230,7 +239,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 11:07 AM</t>
+    <t>Thursday, 21 August, 2025 11:16 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1234,7 +1243,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1251,7 +1260,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1267,24 +1276,24 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1293,7 +1302,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1306,15 +1315,15 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>18</v>
@@ -1333,24 +1342,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1359,66 +1368,99 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>415.59500000000003</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>72</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
         <v>73</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>64</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
         <v>74</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
         <v>75</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c t="s" r="Q23" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>483.09500000000003</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>76</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>77</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>78</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1507,10 +1549,15 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -86,6 +86,27 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -134,18 +155,51 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>19.00</t>
   </si>
   <si>
     <t>19.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -239,7 +293,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 11:16 AM</t>
+    <t>Thursday, 21 August, 2025 11:18 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -996,7 +1050,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1012,7 +1066,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1022,11 +1076,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>24</v>
@@ -1038,14 +1092,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1055,14 +1109,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1071,14 +1125,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1088,11 +1142,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>24</v>
@@ -1104,14 +1158,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1121,11 +1175,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1137,14 +1191,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1154,14 +1208,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1170,14 +1224,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1187,14 +1241,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1203,14 +1257,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1220,14 +1274,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1236,14 +1290,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1253,14 +1307,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1269,14 +1323,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1286,11 +1340,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1302,31 +1356,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1335,31 +1389,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1368,31 +1422,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1401,66 +1455,264 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
         <v>75</v>
       </c>
-      <c t="s" r="Q23" s="12">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>483.09500000000003</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>13</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
         <v>76</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
         <v>77</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
+      <c t="s" r="Q24" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
         <v>78</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>41</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>13</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>79</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>81</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>12</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>82</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>73</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>83</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>12</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>82</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>84</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>86</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>87</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>82</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>88</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>90</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>91</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>82</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>92</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>762.09500000000003</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>94</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>95</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>96</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1554,10 +1806,40 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -293,7 +293,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 11:18 AM</t>
+    <t>Thursday, 21 August, 2025 11:19 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>BACTICLOR 125MG/5ML SUSP. 60ML</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>73.00</t>
   </si>
   <si>
@@ -77,15 +92,9 @@
     <t>BRUFEN 400MG 30 TAB</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>25.7400</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -260,13 +269,13 @@
     <t>0</t>
   </si>
   <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
     <t>3.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
   </si>
   <si>
     <t>فرشاة اطفال ريتش ديلي</t>
@@ -984,7 +993,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -993,14 +1002,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1010,14 +1019,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1026,14 +1035,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1043,11 +1052,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1059,14 +1068,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1083,7 +1092,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1099,7 +1108,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1109,14 +1118,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1125,14 +1134,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1142,14 +1151,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1158,14 +1167,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1175,11 +1184,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1191,14 +1200,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1208,14 +1217,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1224,14 +1233,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1241,11 +1250,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1257,14 +1266,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1274,14 +1283,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1290,14 +1299,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1307,14 +1316,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1330,7 +1339,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1340,14 +1349,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1356,14 +1365,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1380,7 +1389,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1396,7 +1405,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1406,14 +1415,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1422,14 +1431,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1439,14 +1448,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1455,14 +1464,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1472,14 +1481,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1488,14 +1497,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1512,7 +1521,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1528,7 +1537,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1561,24 +1570,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1587,31 +1596,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1620,20 +1629,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1641,10 +1650,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1653,66 +1662,99 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
         <v>93</v>
       </c>
-      <c t="s" r="Q29" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>762.09500000000003</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
         <v>94</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>85</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
         <v>95</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
         <v>96</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c t="s" r="Q30" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>776.57500000000005</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>97</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>98</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>99</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1836,10 +1878,15 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -302,7 +302,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 11:19 AM</t>
+    <t>Thursday, 21 August, 2025 11:24 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -62,6 +62,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>BACTICLOR 125MG/5ML SUSP. 60ML</t>
   </si>
   <si>
@@ -92,9 +101,6 @@
     <t>BRUFEN 400MG 30 TAB</t>
   </si>
   <si>
-    <t>25.7400</t>
-  </si>
-  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -143,9 +149,6 @@
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>52.00</t>
   </si>
   <si>
@@ -209,6 +212,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>57.7500</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -302,7 +314,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 11:24 AM</t>
+    <t>Thursday, 21 August, 2025 11:26 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -986,14 +998,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1002,14 +1014,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1019,14 +1031,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1035,14 +1047,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1052,14 +1064,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1068,14 +1080,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1085,14 +1097,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1101,14 +1113,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1118,14 +1130,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1134,14 +1146,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1151,11 +1163,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1167,14 +1179,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1184,11 +1196,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1200,14 +1212,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1217,14 +1229,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1233,14 +1245,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1250,14 +1262,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1266,14 +1278,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1283,14 +1295,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1299,14 +1311,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1316,14 +1328,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1339,7 +1351,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1349,14 +1361,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1365,14 +1377,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1382,14 +1394,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1398,14 +1410,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1415,14 +1427,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1431,14 +1443,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1448,14 +1460,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1464,14 +1476,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1481,11 +1493,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1497,14 +1509,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1514,14 +1526,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1530,14 +1542,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1547,11 +1559,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1563,14 +1575,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1580,14 +1592,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1596,31 +1608,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1629,7 +1641,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1642,18 +1654,18 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1662,31 +1674,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1695,66 +1707,132 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>93</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>94</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>89</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>95</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
         <v>96</v>
       </c>
-      <c t="s" r="Q30" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>776.57500000000005</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
+      <c t="s" r="Q31" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>97</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
         <v>98</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>89</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
         <v>99</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>860.06500000000005</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>101</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>102</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>103</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1883,10 +1961,20 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -314,7 +314,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 11:26 AM</t>
+    <t>Thursday, 21 August, 2025 11:42 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -290,6 +290,15 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>شامبو فاتيكا 180مل</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>فرشاة اطفال ريتش ديلي</t>
   </si>
   <si>
@@ -314,7 +323,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 11:42 AM</t>
+    <t>Thursday, 21 August, 2025 11:43 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1747,7 +1756,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1757,11 +1766,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>24</v>
@@ -1773,14 +1782,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1790,49 +1799,82 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>24</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>860.06500000000005</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>100</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
         <v>101</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>89</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
         <v>102</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
         <v>103</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c t="s" r="Q33" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>905.06500000000005</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>104</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>105</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>106</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1971,10 +2013,15 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -323,7 +323,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 11:43 AM</t>
+    <t>Thursday, 21 August, 2025 11:49 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -71,6 +71,21 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>ASPOCID PAEDIATRIC 75MG 30 CHEWABLE TAB.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>BACTICLOR 125MG/5ML SUSP. 60ML</t>
   </si>
   <si>
@@ -83,9 +98,6 @@
     <t>73.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>BRONCHOPHANE 125ML SYRUP.</t>
   </si>
   <si>
@@ -122,6 +134,21 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>COSMOFER 50MG/ML FOR INF. 5 AMPS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>470.00</t>
+  </si>
+  <si>
+    <t>376.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -194,9 +221,6 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -275,12 +299,24 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>92:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>6.0000</t>
   </si>
   <si>
@@ -317,13 +353,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>Thursday, 21 August, 2025 11:49 AM</t>
+    <t>Thursday, 21 August, 2025 11:53 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1096,7 +1126,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1106,14 +1136,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1122,14 +1152,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1139,14 +1169,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1162,7 +1192,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1172,14 +1202,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1188,14 +1218,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1245,7 +1275,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1254,14 +1284,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1271,14 +1301,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1287,14 +1317,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1304,11 +1334,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1320,14 +1350,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1337,11 +1367,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>24</v>
@@ -1353,14 +1383,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1370,14 +1400,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1386,14 +1416,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1403,11 +1433,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>24</v>
@@ -1419,14 +1449,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1436,11 +1466,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>24</v>
@@ -1452,14 +1482,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1469,11 +1499,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>24</v>
@@ -1485,14 +1515,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1502,14 +1532,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1518,14 +1548,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1535,11 +1565,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>24</v>
@@ -1551,14 +1581,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1608,7 +1638,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1624,7 +1654,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1634,11 +1664,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1650,14 +1680,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1667,14 +1697,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1683,31 +1713,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1716,31 +1746,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1749,28 +1779,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>24</v>
@@ -1782,31 +1812,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1815,66 +1845,165 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>105</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>18</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>98</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>106</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>24</v>
       </c>
     </row>
-    <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>905.06500000000005</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
-        <v>104</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
-        <v>105</v>
-      </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
-        <v>106</v>
-      </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>108</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>109</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>98</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>110</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>112</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>113</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>98</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>22</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1336.0650000000001</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>114</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>115</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>116</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2018,10 +2147,25 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALBOTHYL 1.8% VAG. JEL 40 GM</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
     <t>1:4</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -83,9 +98,6 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>BACTICLOR 125MG/5ML SUSP. 60ML</t>
   </si>
   <si>
@@ -101,9 +113,6 @@
     <t>BRONCHOPHANE 125ML SYRUP.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -113,6 +122,15 @@
     <t>BRUFEN 400MG 30 TAB</t>
   </si>
   <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -149,6 +167,15 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>DALACIN C 300MG 10 CAPS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -224,7 +251,7 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>92.0000</t>
+    <t>184.0000</t>
   </si>
   <si>
     <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
@@ -236,6 +263,12 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -353,7 +386,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 11:53 AM</t>
+    <t>Thursday, 21 August, 2025 12:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1037,14 +1070,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1053,14 +1086,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1070,14 +1103,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1110,7 +1143,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1143,7 +1176,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1159,7 +1192,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1169,11 +1202,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1185,14 +1218,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1202,14 +1235,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1218,14 +1251,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1235,14 +1268,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1251,14 +1284,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1268,14 +1301,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1284,14 +1317,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1301,14 +1334,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1317,14 +1350,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1334,14 +1367,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1350,14 +1383,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1367,14 +1400,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1383,14 +1416,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1400,14 +1433,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1416,14 +1449,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1433,14 +1466,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1449,14 +1482,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1466,14 +1499,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1489,7 +1522,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1499,14 +1532,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1515,14 +1548,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1532,14 +1565,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1548,14 +1581,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1565,14 +1598,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1588,7 +1621,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1621,7 +1654,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1631,14 +1664,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1647,14 +1680,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1664,11 +1697,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1680,14 +1713,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1697,14 +1730,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1713,14 +1746,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1730,14 +1763,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1746,14 +1779,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1763,14 +1796,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1779,31 +1812,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1812,31 +1845,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1845,31 +1878,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1878,31 +1911,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1911,20 +1944,20 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1935,7 +1968,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1951,59 +1984,191 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>23</v>
       </c>
-      <c t="s" r="Q36" s="12">
-        <v>24</v>
-      </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1336.0650000000001</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
         <v>114</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>30</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>109</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
         <v>115</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
         <v>116</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>23</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>109</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>117</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>119</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>120</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>109</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>121</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>123</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>124</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>109</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>27</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1674.7349999999999</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>125</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>126</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>127</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2162,10 +2327,30 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -242,7 +242,7 @@
     <t>19.00</t>
   </si>
   <si>
-    <t>19.0000</t>
+    <t>38.0000</t>
   </si>
   <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
@@ -1621,7 +1621,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1638,7 +1638,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2138,7 +2138,7 @@
     </row>
     <row r="41" ht="25.5" customHeight="1">
       <c r="P41" s="13">
-        <v>1674.7349999999999</v>
+        <v>1693.7349999999999</v>
       </c>
       <c r="Q41" s="13"/>
     </row>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -386,7 +386,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 12:33 PM</t>
+    <t>Thursday, 21 August, 2025 12:49 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -254,6 +254,18 @@
     <t>184.0000</t>
   </si>
   <si>
+    <t>SULPEPTA 25MGTAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
     <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
   </si>
   <si>
@@ -338,9 +350,6 @@
     <t>92:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -386,7 +395,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 12:49 PM</t>
+    <t>Thursday, 21 August, 2025 12:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1687,24 +1696,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1713,14 +1722,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1730,11 +1739,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1746,7 +1755,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1763,14 +1772,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1779,14 +1788,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1803,7 +1812,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1836,7 +1845,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1869,7 +1878,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1885,7 +1894,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1895,14 +1904,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1911,14 +1920,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1928,14 +1937,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1944,28 +1953,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1977,31 +1986,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2010,7 +2019,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2023,18 +2032,18 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2043,31 +2052,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2083,21 +2092,21 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2109,66 +2118,99 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1693.7349999999999</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
-        <v>125</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
         <v>126</v>
       </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
         <v>127</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>82</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>27</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>1711.5550000000001</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>128</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>129</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>130</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2347,10 +2389,15 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -395,7 +395,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 12:51 PM</t>
+    <t>Thursday, 21 August, 2025 1:09 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -191,13 +191,10 @@
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>65.00</t>
   </si>
   <si>
-    <t>13.0000</t>
+    <t>26.0000</t>
   </si>
   <si>
     <t>ELICA-M CREAM 30 GRAM</t>
@@ -299,19 +296,16 @@
     <t>26.00</t>
   </si>
   <si>
-    <t>26.0000</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>2:1</t>
+    <t>1:3</t>
   </si>
   <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>16.8300</t>
+    <t>33.6600</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -359,7 +353,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>8.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -368,6 +362,9 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>9.0000</t>
+  </si>
+  <si>
     <t>شامبو فاتيكا 180مل</t>
   </si>
   <si>
@@ -395,7 +392,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 1:09 PM</t>
+    <t>Thursday, 21 August, 2025 1:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1465,7 +1462,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1475,14 +1472,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1491,7 +1488,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1508,11 +1505,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1524,14 +1521,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1541,11 +1538,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1557,14 +1554,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1574,11 +1571,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1590,7 +1587,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1623,7 +1620,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1640,11 +1637,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1656,7 +1653,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1673,11 +1670,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1689,7 +1686,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1702,15 +1699,15 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1722,7 +1719,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1739,11 +1736,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1755,7 +1752,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1776,7 +1773,7 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1788,7 +1785,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1805,11 +1802,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1821,14 +1818,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1838,11 +1835,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1854,14 +1851,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1871,14 +1868,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1887,14 +1884,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1904,11 +1901,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1920,7 +1917,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1937,11 +1934,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -1953,7 +1950,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1970,11 +1967,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1986,28 +1983,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2019,7 +2016,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2032,18 +2029,18 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2052,7 +2049,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2065,18 +2062,18 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2085,7 +2082,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2098,15 +2095,15 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2118,28 +2115,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2151,20 +2148,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2180,13 +2177,13 @@
     </row>
     <row r="42" ht="25.5" customHeight="1">
       <c r="P42" s="13">
-        <v>1711.5550000000001</v>
+        <v>1746.385</v>
       </c>
       <c r="Q42" s="13"/>
     </row>
     <row r="43" ht="16.5" customHeight="1">
       <c t="s" r="A43" s="14">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -2194,13 +2191,13 @@
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
       <c t="s" r="G43" s="15">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H43" s="15"/>
       <c r="I43" s="15"/>
       <c r="J43" s="16"/>
       <c t="s" r="K43" s="17">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L43" s="17"/>
       <c r="M43" s="17"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -110,6 +110,15 @@
     <t>73.0000</t>
   </si>
   <si>
+    <t>BRIMOSALM EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
     <t>BRONCHOPHANE 125ML SYRUP.</t>
   </si>
   <si>
@@ -263,6 +272,15 @@
     <t>17.8200</t>
   </si>
   <si>
+    <t>TEARS GUARD 0.3% EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
   </si>
   <si>
@@ -392,7 +410,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 1:10 PM</t>
+    <t>Thursday, 21 August, 2025 1:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1198,7 +1216,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1231,7 +1249,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1241,14 +1259,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1257,14 +1275,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1274,11 +1292,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1297,7 +1315,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1307,14 +1325,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1323,14 +1341,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1347,7 +1365,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1363,7 +1381,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1373,14 +1391,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1389,14 +1407,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1406,14 +1424,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>54</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1429,7 +1447,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1439,14 +1457,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1455,14 +1473,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1479,7 +1497,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1512,7 +1530,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1528,7 +1546,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1538,14 +1556,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1554,14 +1572,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1571,14 +1589,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1587,14 +1605,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1604,11 +1622,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1620,14 +1638,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1637,14 +1655,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1660,7 +1678,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1693,24 +1711,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1719,20 +1737,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1743,7 +1761,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1759,7 +1777,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1769,11 +1787,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1785,14 +1803,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1802,14 +1820,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1818,14 +1836,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1835,11 +1853,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1858,7 +1876,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1868,14 +1886,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1884,14 +1902,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1901,14 +1919,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1917,14 +1935,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1934,14 +1952,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1950,14 +1968,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1974,7 +1992,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1990,24 +2008,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2016,31 +2034,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2056,24 +2074,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2082,31 +2100,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2122,24 +2140,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2148,66 +2166,132 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>1746.385</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
         <v>127</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
         <v>128</v>
       </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>84</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
         <v>129</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>131</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>132</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>84</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>27</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>1826.385</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
+        <v>133</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>134</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>135</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2391,10 +2475,20 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -410,7 +410,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 1:11 PM</t>
+    <t>Thursday, 21 August, 2025 1:25 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -206,6 +206,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
@@ -410,7 +419,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 1:25 PM</t>
+    <t>Thursday, 21 August, 2025 1:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1546,7 +1555,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1563,7 +1572,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1579,7 +1588,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1589,14 +1598,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1605,14 +1614,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1622,14 +1631,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1638,14 +1647,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1655,11 +1664,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1671,14 +1680,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1688,14 +1697,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1711,7 +1720,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1744,24 +1753,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1770,20 +1779,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1794,7 +1803,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1810,7 +1819,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1843,7 +1852,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1853,11 +1862,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1869,7 +1878,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1886,14 +1895,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1909,7 +1918,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1919,14 +1928,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1956,10 +1965,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1968,14 +1977,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1985,14 +1994,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2001,14 +2010,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2025,7 +2034,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2041,7 +2050,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2058,7 +2067,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2074,21 +2083,21 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2100,31 +2109,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2133,7 +2142,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2146,18 +2155,18 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>23</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2173,13 +2182,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2190,7 +2199,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2206,21 +2215,21 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2232,66 +2241,99 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>1826.385</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
-        <v>133</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
         <v>134</v>
       </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
         <v>135</v>
       </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>87</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>27</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>1842.2249999999999</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>136</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>137</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>138</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2485,10 +2527,15 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -419,7 +419,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 1:34 PM</t>
+    <t>Thursday, 21 August, 2025 1:47 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -161,6 +161,15 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>CIPROFAR 500MG 10 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>COSMOFER 50MG/ML FOR INF. 5 AMPS.</t>
   </si>
   <si>
@@ -419,7 +428,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 1:47 PM</t>
+    <t>Thursday, 21 August, 2025 1:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1423,7 +1432,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1433,14 +1442,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1449,14 +1458,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1466,14 +1475,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>57</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1489,7 +1498,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1499,14 +1508,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1515,14 +1524,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1539,7 +1548,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1555,7 +1564,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1572,7 +1581,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1588,7 +1597,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1605,7 +1614,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1621,7 +1630,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1631,14 +1640,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1647,14 +1656,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1664,14 +1673,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1680,14 +1689,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1697,11 +1706,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1713,14 +1722,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1730,14 +1739,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1753,7 +1762,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1786,24 +1795,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1812,20 +1821,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1836,7 +1845,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1852,7 +1861,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1885,7 +1894,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1895,11 +1904,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1911,14 +1920,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1928,14 +1937,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1951,7 +1960,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1961,14 +1970,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1998,10 +2007,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2010,14 +2019,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2027,14 +2036,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2043,14 +2052,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2067,7 +2076,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2083,7 +2092,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2100,7 +2109,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2116,21 +2125,21 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2142,31 +2151,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2175,7 +2184,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2188,18 +2197,18 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>23</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2215,13 +2224,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2232,7 +2241,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2248,21 +2257,21 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2274,66 +2283,99 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>1842.2249999999999</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
-        <v>136</v>
-      </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
         <v>137</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
         <v>138</v>
       </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>90</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>27</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>1911.2249999999999</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>139</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>140</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>141</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2532,10 +2574,15 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -428,7 +428,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 1:48 PM</t>
+    <t>Thursday, 21 August, 2025 1:53 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -233,6 +233,15 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>GAPTIN 400 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -257,6 +266,15 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>MYOFEN 30 CAPS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -284,12 +302,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
     <t>TEARS GUARD 0.3% EYE DROPS 15 ML</t>
   </si>
   <si>
@@ -332,6 +344,18 @@
     <t>26.00</t>
   </si>
   <si>
+    <t>VIRECTA 100 MG 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>14.5200</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -428,7 +452,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 1:53 PM</t>
+    <t>Thursday, 21 August, 2025 1:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1663,7 +1687,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1673,11 +1697,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1689,14 +1713,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1706,14 +1730,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1722,14 +1746,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1739,11 +1763,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1755,14 +1779,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1772,14 +1796,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1788,14 +1812,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1805,14 +1829,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1828,24 +1852,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1854,14 +1878,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1871,14 +1895,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1887,31 +1911,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1920,14 +1944,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1937,11 +1961,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1953,14 +1977,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1970,14 +1994,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1986,14 +2010,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2003,11 +2027,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2019,14 +2043,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2036,14 +2060,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2052,14 +2076,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2069,14 +2093,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2085,14 +2109,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2102,11 +2126,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2118,14 +2142,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2135,14 +2159,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2151,31 +2175,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2184,31 +2208,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>79</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2217,31 +2241,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2250,20 +2274,20 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2290,24 +2314,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2316,66 +2340,165 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>138</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>23</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>96</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>139</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>141</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>142</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>96</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>143</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>145</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>146</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>96</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>27</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
         <v>28</v>
       </c>
-      <c t="s" r="Q45" s="12">
+      <c t="s" r="Q48" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>1911.2249999999999</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
-        <v>139</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
-        <v>140</v>
-      </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
-        <v>141</v>
-      </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>1995.0450000000001</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
+        <v>147</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>148</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>149</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2579,10 +2702,25 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -206,6 +206,15 @@
     <t>47.0250</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -413,7 +422,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>8.0000</t>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -452,7 +464,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 1:57 PM</t>
+    <t>Thursday, 21 August, 2025 2:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1588,7 +1600,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1598,7 +1610,7 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
@@ -1621,7 +1633,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1638,7 +1650,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1654,7 +1666,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1671,7 +1683,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1687,7 +1699,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1704,7 +1716,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1720,7 +1732,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1730,11 +1742,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1746,14 +1758,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1763,14 +1775,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1779,14 +1791,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1803,7 +1815,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1819,7 +1831,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1829,14 +1841,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1845,14 +1857,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1862,14 +1874,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1885,7 +1897,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1918,24 +1930,24 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1944,31 +1956,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1984,7 +1996,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2017,7 +2029,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2027,11 +2039,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2043,7 +2055,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2060,14 +2072,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2083,7 +2095,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2093,14 +2105,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2130,10 +2142,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2142,14 +2154,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2159,14 +2171,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2175,14 +2187,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2192,14 +2204,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2208,14 +2220,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2232,7 +2244,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2248,7 +2260,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2265,7 +2277,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2281,21 +2293,21 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2307,31 +2319,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2340,7 +2352,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2353,18 +2365,18 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>23</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2373,31 +2385,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2406,20 +2418,20 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2452,53 +2464,86 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>1995.0450000000001</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
-        <v>147</v>
-      </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
-        <v>148</v>
-      </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
         <v>149</v>
       </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>150</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>99</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>27</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>2024.8050000000001</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>151</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>152</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>153</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2717,10 +2762,15 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -242,6 +242,27 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>130.6800</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>GAPTIN 400 MG 30 CAPS.</t>
   </si>
   <si>
@@ -251,6 +272,9 @@
     <t>51.4800</t>
   </si>
   <si>
+    <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -308,9 +332,6 @@
     <t>SULPEPTA 25MGTAB</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>TEARS GUARD 0.3% EYE DROPS 15 ML</t>
   </si>
   <si>
@@ -464,7 +485,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 2:00 PM</t>
+    <t>Thursday, 21 August, 2025 2:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1738,15 +1759,15 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1758,14 +1779,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1798,7 +1819,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1808,14 +1829,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1824,14 +1845,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1841,11 +1862,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1857,14 +1878,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1874,14 +1895,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1897,7 +1918,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1907,14 +1928,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1923,14 +1944,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1940,14 +1961,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1956,31 +1977,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1996,7 +2017,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2013,7 +2034,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2029,7 +2050,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2046,7 +2067,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2062,24 +2083,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2088,14 +2109,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2105,14 +2126,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2121,14 +2142,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2138,11 +2159,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2154,14 +2175,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2171,14 +2192,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2187,14 +2208,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2204,14 +2225,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2220,14 +2241,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2237,14 +2258,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2253,14 +2274,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2270,11 +2291,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2286,14 +2307,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2303,14 +2324,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2319,31 +2340,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2352,31 +2373,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>138</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2385,31 +2406,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2418,28 +2439,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2451,31 +2472,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2484,66 +2505,165 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>149</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>23</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>78</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>150</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>152</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>153</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>78</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>154</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>156</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>157</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>78</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>27</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
         <v>28</v>
       </c>
-      <c t="s" r="Q49" s="12">
+      <c t="s" r="Q52" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>2024.8050000000001</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
-        <v>151</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
-        <v>152</v>
-      </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
-        <v>153</v>
-      </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2243.3249999999998</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>158</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>159</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>160</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2767,10 +2887,25 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -485,7 +485,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 2:11 PM</t>
+    <t>Thursday, 21 August, 2025 2:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -197,15 +197,15 @@
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>94.0500</t>
+  </si>
+  <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -455,9 +455,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>9.0000</t>
-  </si>
-  <si>
     <t>شامبو فاتيكا 180مل</t>
   </si>
   <si>
@@ -485,7 +482,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 2:28 PM</t>
+    <t>Thursday, 21 August, 2025 2:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1588,7 +1585,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1598,14 +1595,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>64</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1638,7 +1635,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1671,7 +1668,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2083,7 +2080,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2331,7 +2328,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2526,10 +2523,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>23</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2538,7 +2535,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2555,11 +2552,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2571,14 +2568,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2588,11 +2585,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2604,14 +2601,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2633,13 +2630,13 @@
     </row>
     <row r="53" ht="24.75" customHeight="1">
       <c r="P53" s="13">
-        <v>2243.3249999999998</v>
+        <v>2293.3499999999999</v>
       </c>
       <c r="Q53" s="13"/>
     </row>
     <row r="54" ht="16.5" customHeight="1">
       <c t="s" r="A54" s="14">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -2647,13 +2644,13 @@
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
       <c t="s" r="G54" s="15">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
       <c r="J54" s="16"/>
       <c t="s" r="K54" s="17">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L54" s="17"/>
       <c r="M54" s="17"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -482,7 +482,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 2:30 PM</t>
+    <t>Thursday, 21 August, 2025 2:37 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -77,6 +77,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t xml:space="preserve">ANTODINE20    6 AMP</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
@@ -200,21 +209,24 @@
     <t>142.50</t>
   </si>
   <si>
-    <t>94.0500</t>
+    <t>141.0750</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>23.7600</t>
   </si>
   <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -245,9 +257,6 @@
     <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>396.00</t>
   </si>
   <si>
@@ -482,7 +491,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 2:37 PM</t>
+    <t>Thursday, 21 August, 2025 2:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1195,7 +1204,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -1203,7 +1212,7 @@
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>21</v>
@@ -1232,14 +1241,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1248,14 +1257,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1265,11 +1274,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1281,14 +1290,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1321,7 +1330,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1354,7 +1363,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1364,14 +1373,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1380,14 +1389,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1397,11 +1406,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1420,7 +1429,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1430,14 +1439,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1446,14 +1455,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1470,7 +1479,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1486,7 +1495,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1503,7 +1512,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1519,7 +1528,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1529,14 +1538,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1545,14 +1554,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1562,14 +1571,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>60</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1585,7 +1594,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1602,7 +1611,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1611,14 +1620,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1628,14 +1637,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>67</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>64</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1651,7 +1660,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1661,14 +1670,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1677,7 +1686,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1694,14 +1703,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1710,14 +1719,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1727,14 +1736,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1743,20 +1752,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1767,7 +1776,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1783,13 +1792,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1816,7 +1825,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1849,7 +1858,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1859,11 +1868,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1875,14 +1884,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1892,11 +1901,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1908,14 +1917,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1925,14 +1934,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1941,14 +1950,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1965,7 +1974,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1981,7 +1990,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1991,14 +2000,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2007,14 +2016,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2024,14 +2033,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2047,7 +2056,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2080,24 +2089,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2106,31 +2115,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2146,7 +2155,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2179,7 +2188,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2189,11 +2198,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2205,14 +2214,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2222,14 +2231,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2245,7 +2254,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2255,14 +2264,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2292,10 +2301,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2304,14 +2313,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2321,14 +2330,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2337,14 +2346,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2354,14 +2363,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2370,14 +2379,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2394,7 +2403,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2410,7 +2419,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2427,7 +2436,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2443,21 +2452,21 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2469,31 +2478,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>145</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2509,24 +2518,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>93</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2535,31 +2544,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2575,21 +2584,21 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2601,66 +2610,99 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2293.3499999999999</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
-        <v>157</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
         <v>158</v>
       </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
         <v>159</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>24</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>30</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>2352.855</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
+        <v>160</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>161</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>162</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2899,10 +2941,15 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -209,10 +209,10 @@
     <t>142.50</t>
   </si>
   <si>
-    <t>141.0750</t>
-  </si>
-  <si>
-    <t>0:3</t>
+    <t>94.0500</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
@@ -224,9 +224,6 @@
     <t>23.7600</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -491,7 +488,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 2:40 PM</t>
+    <t>Thursday, 21 August, 2025 2:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1627,7 +1624,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1677,7 +1674,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1686,7 +1683,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1703,14 +1700,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1719,7 +1716,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1736,11 +1733,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1752,7 +1749,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1769,11 +1766,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1785,7 +1782,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1802,11 +1799,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1818,7 +1815,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1835,11 +1832,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1851,7 +1848,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1868,11 +1865,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1884,7 +1881,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1901,11 +1898,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1917,14 +1914,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1934,11 +1931,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1950,14 +1947,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1967,11 +1964,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1983,7 +1980,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2000,11 +1997,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2016,7 +2013,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2049,7 +2046,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2066,11 +2063,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2082,7 +2079,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2099,11 +2096,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2115,14 +2112,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2132,11 +2129,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2148,7 +2145,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2165,11 +2162,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2181,7 +2178,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2198,11 +2195,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2214,7 +2211,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2235,7 +2232,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2247,7 +2244,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2264,11 +2261,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2280,14 +2277,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2297,11 +2294,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2313,14 +2310,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2330,11 +2327,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2346,14 +2343,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2363,14 +2360,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2379,14 +2376,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2396,11 +2393,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2412,7 +2409,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2429,11 +2426,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2445,7 +2442,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2462,11 +2459,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2478,14 +2475,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2495,11 +2492,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2511,7 +2508,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2528,14 +2525,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q49" s="12">
         <v>147</v>
-      </c>
-      <c t="s" r="Q49" s="12">
-        <v>148</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2544,7 +2541,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2561,14 +2558,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2577,7 +2574,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2594,11 +2591,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2610,14 +2607,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2627,11 +2624,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2643,14 +2640,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2672,13 +2669,13 @@
     </row>
     <row r="54" ht="25.5" customHeight="1">
       <c r="P54" s="13">
-        <v>2352.855</v>
+        <v>2305.8299999999999</v>
       </c>
       <c r="Q54" s="13"/>
     </row>
     <row r="55" ht="16.5" customHeight="1">
       <c t="s" r="A55" s="14">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -2686,13 +2683,13 @@
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
       <c t="s" r="G55" s="15">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
       <c r="J55" s="16"/>
       <c t="s" r="K55" s="17">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L55" s="17"/>
       <c r="M55" s="17"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -293,6 +293,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>LACRITEARS EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -488,7 +497,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 2:50 PM</t>
+    <t>Thursday, 21 August, 2025 3:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1954,7 +1963,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1964,11 +1973,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1980,14 +1989,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2004,7 +2013,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2020,7 +2029,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2030,14 +2039,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2046,14 +2055,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2063,14 +2072,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2086,7 +2095,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2119,24 +2128,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2145,31 +2154,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2185,7 +2194,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2218,7 +2227,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2228,11 +2237,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2244,7 +2253,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2261,14 +2270,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2284,7 +2293,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2294,14 +2303,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2331,10 +2340,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2343,14 +2352,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2360,14 +2369,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2376,14 +2385,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2393,14 +2402,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2409,14 +2418,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2433,7 +2442,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2449,7 +2458,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2466,7 +2475,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2482,21 +2491,21 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>142</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2508,14 +2517,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2525,14 +2534,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>147</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2558,14 +2567,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>95</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2574,14 +2583,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2591,14 +2600,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2614,7 +2623,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2624,11 +2633,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2640,14 +2649,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2657,49 +2666,82 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>2305.8299999999999</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
-        <v>159</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
         <v>160</v>
       </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
         <v>161</v>
       </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>24</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>30</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>2354.8299999999999</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
+        <v>162</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>163</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>164</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2943,10 +2985,15 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -89,144 +89,174 @@
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>ASPOCID PAEDIATRIC 75MG 30 CHEWABLE TAB.</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 625MG 10 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
+    <t>BACTICLOR 125MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>73.0000</t>
+  </si>
+  <si>
+    <t>BRIMOSALM EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>BRONCHOPHANE 125ML SYRUP.</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>BRUFEN 400MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>CIPROFAR 500MG 10 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>COSMOFER 50MG/ML FOR INF. 5 AMPS.</t>
+  </si>
+  <si>
+    <t>470.00</t>
+  </si>
+  <si>
+    <t>376.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>DALACIN C 300MG 10 CAPS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>94.0500</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>ASPOCID PAEDIATRIC 75MG 30 CHEWABLE TAB.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>BACTICLOR 125MG/5ML SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>73.00</t>
-  </si>
-  <si>
-    <t>73.0000</t>
-  </si>
-  <si>
-    <t>BRIMOSALM EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>BRONCHOPHANE 125ML SYRUP.</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>BRUFEN 400MG 30 TAB</t>
-  </si>
-  <si>
-    <t>BRUFEN 600MG 30 TAB</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>32.6700</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>21:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>CIPROFAR 500MG 10 F.C.TAB</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>COSMOFER 50MG/ML FOR INF. 5 AMPS.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>470.00</t>
-  </si>
-  <si>
-    <t>376.0000</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>DALACIN C 300MG 10 CAPS.</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>94.0500</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
     <t>65.00</t>
   </si>
   <si>
@@ -236,6 +266,9 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
+    <t>12:2</t>
+  </si>
+  <si>
     <t>48.00</t>
   </si>
   <si>
@@ -275,9 +308,6 @@
     <t>156.00</t>
   </si>
   <si>
-    <t>51.4800</t>
-  </si>
-  <si>
     <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -440,9 +470,6 @@
     <t>43.00</t>
   </si>
   <si>
-    <t>43.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -497,7 +524,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 3:55 PM</t>
+    <t>Thursday, 21 August, 2025 5:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1254,7 +1281,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1263,14 +1290,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1303,7 +1330,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1313,11 +1340,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1329,14 +1356,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1369,7 +1396,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1402,7 +1429,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1412,14 +1439,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1428,14 +1455,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1445,11 +1472,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1461,14 +1488,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1485,7 +1512,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1501,7 +1528,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1511,11 +1538,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1527,14 +1554,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1544,11 +1571,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1560,14 +1587,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1577,14 +1604,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1600,7 +1627,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1633,7 +1660,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1643,14 +1670,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1666,7 +1693,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1676,14 +1703,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1692,14 +1719,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1709,14 +1736,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1725,14 +1752,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1742,14 +1769,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1758,14 +1785,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1775,14 +1802,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1798,24 +1825,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1824,14 +1851,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1841,11 +1868,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1857,14 +1884,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1874,14 +1901,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1890,28 +1917,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1923,14 +1950,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1940,11 +1967,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1956,7 +1983,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1973,14 +2000,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1989,14 +2016,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2006,14 +2033,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2022,14 +2049,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2062,7 +2089,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2072,11 +2099,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2088,14 +2115,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2105,14 +2132,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2121,14 +2148,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2138,14 +2165,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2154,31 +2181,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2187,14 +2214,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2204,14 +2231,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2220,14 +2247,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2237,14 +2264,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2253,31 +2280,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2286,14 +2313,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2303,14 +2330,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2319,14 +2346,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2336,11 +2363,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2352,14 +2379,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2369,14 +2396,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2392,7 +2419,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2402,14 +2429,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2418,14 +2445,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2435,14 +2462,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2451,14 +2478,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2468,11 +2495,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2484,14 +2511,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2508,7 +2535,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2530,7 +2557,7 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2541,7 +2568,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2557,24 +2584,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>150</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2590,13 +2617,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2604,10 +2631,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2623,7 +2650,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2633,11 +2660,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2649,14 +2676,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>36</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2666,14 +2693,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q53" s="12">
         <v>159</v>
-      </c>
-      <c t="s" r="Q53" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2689,7 +2716,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2699,49 +2726,148 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>162</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>81</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>24</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>163</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>165</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>166</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>24</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>167</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>169</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>170</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>24</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>30</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
         <v>31</v>
       </c>
-      <c t="s" r="Q54" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>2354.8299999999999</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
-        <v>162</v>
-      </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
-        <v>163</v>
-      </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
-        <v>164</v>
-      </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c t="s" r="Q57" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>2564.3299999999999</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>171</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>172</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>173</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2990,10 +3116,25 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -332,6 +332,15 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>LEVCET 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -344,6 +353,15 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>MYOFEN 30 CAPS</t>
   </si>
   <si>
@@ -353,6 +371,15 @@
     <t>17.8200</t>
   </si>
   <si>
+    <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>111.0000</t>
+  </si>
+  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -524,7 +551,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 5:17 PM</t>
+    <t>Thursday, 21 August, 2025 5:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2122,7 +2149,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2132,11 +2159,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2148,14 +2175,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2172,7 +2199,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2188,7 +2215,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2198,11 +2225,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2214,14 +2241,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2231,14 +2258,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2247,14 +2274,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2264,14 +2291,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2280,31 +2307,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2313,14 +2340,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2330,14 +2357,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2346,14 +2373,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2363,14 +2390,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2379,31 +2406,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2412,14 +2439,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2429,14 +2456,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2445,14 +2472,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2466,7 +2493,7 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2478,14 +2505,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2495,14 +2522,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2511,14 +2538,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>141</v>
+        <v>51</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2528,14 +2555,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2544,14 +2571,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2561,14 +2588,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2577,14 +2604,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2594,11 +2621,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2610,14 +2637,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2627,14 +2654,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2656,7 +2683,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2667,7 +2694,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2683,24 +2710,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>159</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2716,13 +2743,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2730,10 +2757,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2749,7 +2776,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2759,11 +2786,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2775,14 +2802,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2792,14 +2819,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q56" s="12">
         <v>168</v>
-      </c>
-      <c t="s" r="Q56" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2815,7 +2842,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2825,49 +2852,148 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>171</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>81</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>24</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>172</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>174</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>175</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>24</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>176</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>178</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>179</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>24</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>30</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
         <v>31</v>
       </c>
-      <c t="s" r="Q57" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>2564.3299999999999</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
-        <v>171</v>
-      </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
-        <v>172</v>
-      </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
-        <v>173</v>
-      </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c t="s" r="Q60" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>2783.3299999999999</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
+        <v>180</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
+        <v>181</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>182</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3131,10 +3257,25 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -551,7 +551,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 5:24 PM</t>
+    <t>Thursday, 21 August, 2025 5:27 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -311,6 +311,15 @@
     <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
   </si>
   <si>
+    <t>ISIS ينسون</t>
+  </si>
+  <si>
+    <t>17.50</t>
+  </si>
+  <si>
+    <t>17.5000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -545,13 +554,28 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>فرشه للشعر</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>كريم بانسيه</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 5:27 PM</t>
+    <t>Thursday, 21 August, 2025 5:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2083,24 +2107,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2109,14 +2133,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2133,7 +2157,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2149,7 +2173,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2182,7 +2206,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2192,11 +2216,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2208,14 +2232,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2265,7 +2289,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2281,7 +2305,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2298,7 +2322,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2314,7 +2338,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2324,11 +2348,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2340,14 +2364,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2357,14 +2381,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2380,7 +2404,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2413,24 +2437,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2439,31 +2463,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2479,7 +2503,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2512,7 +2536,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2522,11 +2546,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2538,7 +2562,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2555,14 +2579,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2578,7 +2602,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>143</v>
+        <v>51</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2588,14 +2612,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2625,10 +2649,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2637,14 +2661,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2654,14 +2678,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2670,14 +2694,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2687,14 +2711,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2703,14 +2727,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2727,7 +2751,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2743,7 +2767,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2757,10 +2781,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2769,20 +2793,20 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2790,7 +2814,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2802,14 +2826,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>36</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2819,14 +2843,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>168</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2852,14 +2876,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>103</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>111</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2868,14 +2892,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2885,14 +2909,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2908,7 +2932,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2918,11 +2942,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2934,14 +2958,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2951,49 +2975,148 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>30</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>181</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>182</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>24</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>30</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
         <v>31</v>
       </c>
-      <c t="s" r="Q60" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>2783.3299999999999</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
-        <v>180</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
-        <v>181</v>
-      </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
-        <v>182</v>
-      </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>183</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>114</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>24</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>184</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>186</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>187</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>24</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>30</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>2865.8299999999999</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
+        <v>188</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>189</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>190</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3272,10 +3395,25 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -281,7 +281,7 @@
     <t>52.00</t>
   </si>
   <si>
-    <t>52.0000</t>
+    <t>156.0000</t>
   </si>
   <si>
     <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
@@ -293,6 +293,15 @@
     <t>130.6800</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:4</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
     <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
   </si>
   <si>
@@ -407,7 +416,19 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>184.0000</t>
+    <t>207.0000</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>ROSITA HAIR CREAM 100 GM</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
   </si>
   <si>
     <t>SULPEPTA 25MGTAB</t>
@@ -470,13 +491,16 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>1:3</t>
+    <t>1:2</t>
   </si>
   <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>33.6600</t>
+    <t>50.4900</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -521,10 +545,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t>7:0</t>
+    <t>10:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -569,13 +590,25 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">معجون سيجنال 120 مل </t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 5:51 PM</t>
+    <t>Thursday, 21 August, 2025 6:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1942,7 +1975,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1959,7 +1992,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2008,7 +2041,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2018,7 +2051,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2041,7 +2074,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2055,7 +2088,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2067,14 +2100,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2084,11 +2117,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2100,7 +2133,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2113,18 +2146,18 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2140,24 +2173,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2166,14 +2199,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2190,7 +2223,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2206,7 +2239,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2239,7 +2272,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2249,11 +2282,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2265,14 +2298,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2322,7 +2355,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2338,7 +2371,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2355,7 +2388,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2371,7 +2404,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2381,11 +2414,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2397,14 +2430,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2414,14 +2447,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2437,7 +2470,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2470,24 +2503,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2496,14 +2529,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2513,11 +2546,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2529,31 +2562,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2562,14 +2595,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2579,11 +2612,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2595,14 +2628,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2612,14 +2645,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2628,14 +2661,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2645,11 +2678,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2661,14 +2694,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>149</v>
+        <v>51</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2715,10 +2748,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2727,14 +2760,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2744,14 +2777,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2760,14 +2793,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2784,7 +2817,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2793,14 +2826,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2810,14 +2843,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>53</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2826,31 +2859,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2859,31 +2892,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>171</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2892,14 +2925,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>36</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2909,14 +2942,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>114</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2925,14 +2958,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2942,14 +2975,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2958,14 +2991,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>36</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2975,14 +3008,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2998,7 +3031,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3008,11 +3041,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>30</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>31</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3024,14 +3057,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>114</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3041,11 +3074,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3057,14 +3090,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3085,38 +3118,137 @@
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>2865.8299999999999</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
-        <v>188</v>
-      </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
-        <v>189</v>
-      </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
         <v>190</v>
       </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>117</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>24</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>191</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>193</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>194</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>24</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>195</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>197</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>198</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>24</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>30</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>3194.5</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>199</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>200</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>201</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3410,10 +3542,25 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -324,9 +324,6 @@
   </si>
   <si>
     <t>17.50</t>
-  </si>
-  <si>
-    <t>17.5000</t>
   </si>
   <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
@@ -2173,7 +2170,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2187,10 +2184,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2199,14 +2196,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2216,11 +2213,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2232,7 +2229,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2249,11 +2246,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2265,7 +2262,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2282,11 +2279,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2298,14 +2295,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2315,11 +2312,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2331,7 +2328,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2348,11 +2345,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2364,7 +2361,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2381,11 +2378,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2397,7 +2394,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2414,11 +2411,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2430,7 +2427,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2463,7 +2460,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2480,11 +2477,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2496,7 +2493,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2513,14 +2510,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q45" s="12">
         <v>135</v>
-      </c>
-      <c t="s" r="Q45" s="12">
-        <v>136</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2529,7 +2526,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2546,11 +2543,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2562,7 +2559,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2579,11 +2576,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2595,7 +2592,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2612,11 +2609,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2628,7 +2625,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2645,11 +2642,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2661,7 +2658,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2682,7 +2679,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2694,7 +2691,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2711,11 +2708,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2727,14 +2724,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2744,7 +2741,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2760,14 +2757,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2777,11 +2774,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2793,14 +2790,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2810,14 +2807,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>162</v>
-      </c>
-      <c t="s" r="Q54" s="12">
-        <v>163</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2826,14 +2823,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2843,11 +2840,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2859,7 +2856,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2876,11 +2873,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2892,7 +2889,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2909,7 +2906,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -2925,14 +2922,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2942,11 +2939,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2958,7 +2955,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2975,14 +2972,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2991,7 +2988,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3008,14 +3005,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3024,7 +3021,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3041,11 +3038,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3057,14 +3054,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3074,11 +3071,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3090,14 +3087,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3123,14 +3120,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3140,11 +3137,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3156,14 +3153,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3173,11 +3170,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3189,14 +3186,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3218,13 +3215,13 @@
     </row>
     <row r="67" ht="25.5" customHeight="1">
       <c r="P67" s="13">
-        <v>3194.5</v>
+        <v>3212</v>
       </c>
       <c r="Q67" s="13"/>
     </row>
     <row r="68" ht="16.5" customHeight="1">
       <c t="s" r="A68" s="14">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -3232,13 +3229,13 @@
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
       <c t="s" r="G68" s="15">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H68" s="15"/>
       <c r="I68" s="15"/>
       <c r="J68" s="16"/>
       <c t="s" r="K68" s="17">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L68" s="17"/>
       <c r="M68" s="17"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -605,7 +605,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 6:29 PM</t>
+    <t>Thursday, 21 August, 2025 6:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ALLERBAN S.R. 2 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -74,9 +86,6 @@
     <t>12.4800</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t xml:space="preserve">ANTODINE20    6 AMP</t>
   </si>
   <si>
@@ -128,6 +137,15 @@
     <t>73.0000</t>
   </si>
   <si>
+    <t>B-FRESH 0.05% (500ML) MOUTHWASH</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>BRIMOSALM EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -326,6 +344,15 @@
     <t>17.50</t>
   </si>
   <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -407,6 +434,9 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -488,16 +518,10 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>50.4900</t>
-  </si>
-  <si>
-    <t>0:3</t>
+    <t>67.3200</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -542,7 +566,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>10:0</t>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>11:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -554,12 +581,6 @@
     <t>شامبو فاتيكا 180مل</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>فرشاة اطفال ريتش ديلي</t>
   </si>
   <si>
@@ -590,9 +611,6 @@
     <t xml:space="preserve">معجون سيجنال 120 مل </t>
   </si>
   <si>
-    <t>11:0</t>
-  </si>
-  <si>
     <t>55.00</t>
   </si>
   <si>
@@ -605,7 +623,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 6:30 PM</t>
+    <t>Thursday, 21 August, 2025 7:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1279,7 +1297,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1289,14 +1307,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1305,31 +1323,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1351,18 +1369,18 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1371,14 +1389,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1388,14 +1406,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>31</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1411,7 +1429,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1444,7 +1462,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1454,11 +1472,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1470,14 +1488,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1510,7 +1528,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1543,7 +1561,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1553,14 +1571,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1569,7 +1587,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1586,14 +1604,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1602,14 +1620,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1619,14 +1637,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1635,14 +1653,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1652,14 +1670,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1668,14 +1686,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1685,14 +1703,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1701,14 +1719,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1741,7 +1759,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1751,14 +1769,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1767,14 +1785,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1784,14 +1802,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1800,14 +1818,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1817,14 +1835,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1833,14 +1851,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1850,14 +1868,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>77</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1873,7 +1891,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1883,14 +1901,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1899,14 +1917,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1923,7 +1941,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1949,14 +1967,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1965,14 +1983,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1982,14 +2000,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>81</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1998,20 +2016,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2022,7 +2040,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2038,7 +2056,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2048,14 +2066,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2071,13 +2089,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2088,7 +2106,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2104,7 +2122,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2114,14 +2132,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2130,14 +2148,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2147,14 +2165,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2163,7 +2181,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2176,18 +2194,18 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2196,14 +2214,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2213,14 +2231,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2242,7 +2260,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2250,10 +2268,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2262,14 +2280,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2279,11 +2297,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2295,14 +2313,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2312,14 +2330,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2328,7 +2346,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2345,11 +2363,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2361,14 +2379,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2378,14 +2396,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2394,14 +2412,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2434,7 +2452,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2444,11 +2462,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2460,14 +2478,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2477,14 +2495,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2493,14 +2511,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2510,14 +2528,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2526,14 +2544,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2543,11 +2561,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2559,31 +2577,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2592,14 +2610,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2609,11 +2627,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>49</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2625,14 +2643,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2642,14 +2660,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q49" s="12">
         <v>145</v>
-      </c>
-      <c t="s" r="Q49" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2665,7 +2683,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2675,11 +2693,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2691,31 +2709,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2724,14 +2742,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2741,11 +2759,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2757,14 +2775,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>155</v>
+        <v>87</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2774,14 +2792,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2790,14 +2808,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2807,14 +2825,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>162</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2823,14 +2841,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2840,14 +2858,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2856,14 +2874,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2873,14 +2891,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2889,14 +2907,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2906,14 +2924,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>53</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2922,31 +2940,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>57</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2955,31 +2973,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>177</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2988,31 +3006,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>116</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3021,28 +3039,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3054,28 +3072,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3087,31 +3105,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>39</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>30</v>
+        <v>173</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3120,31 +3138,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3153,28 +3171,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>87</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>112</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3186,66 +3204,198 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>30</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>3212</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>194</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>195</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>27</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>33</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>196</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>125</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>27</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>197</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
         <v>198</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
         <v>199</v>
       </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>186</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>27</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
         <v>200</v>
       </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>202</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>203</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>27</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>33</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>3345.8299999999999</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
+        <v>204</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
+        <v>205</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
+        <v>206</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3554,10 +3704,30 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -623,7 +623,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 7:04 PM</t>
+    <t>Thursday, 21 August, 2025 7:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -299,7 +299,10 @@
     <t>52.00</t>
   </si>
   <si>
-    <t>156.0000</t>
+    <t>208.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
   </si>
   <si>
     <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
@@ -386,9 +389,6 @@
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>57.00</t>
   </si>
   <si>
@@ -458,6 +458,9 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>ROWACHOL 45 CAPSULES</t>
+  </si>
+  <si>
     <t>SULPEPTA 25MGTAB</t>
   </si>
   <si>
@@ -623,7 +626,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 7:07 PM</t>
+    <t>Thursday, 21 August, 2025 7:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2056,7 +2059,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2073,7 +2076,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2082,7 +2085,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2099,11 +2102,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -2115,14 +2118,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2136,7 +2139,7 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2148,7 +2151,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2165,11 +2168,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2181,7 +2184,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2198,7 +2201,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2214,7 +2217,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2247,7 +2250,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2264,7 +2267,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2280,7 +2283,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2297,11 +2300,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2313,14 +2316,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2330,11 +2333,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2346,7 +2349,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2363,11 +2366,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2379,7 +2382,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2396,11 +2399,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2412,14 +2415,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2617,7 +2620,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2716,24 +2719,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2749,24 +2752,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2775,14 +2778,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2792,11 +2795,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2808,14 +2811,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2825,11 +2828,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2841,7 +2844,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2858,14 +2861,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>159</v>
+        <v>65</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2874,14 +2877,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>162</v>
+        <v>57</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2891,14 +2894,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2907,14 +2910,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2924,14 +2927,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2940,14 +2943,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2957,14 +2960,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2973,14 +2976,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>172</v>
+        <v>57</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2990,14 +2993,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3006,14 +3009,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3023,14 +3026,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3039,14 +3042,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3056,14 +3059,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>59</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3072,28 +3075,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>181</v>
+        <v>87</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3105,14 +3108,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3122,14 +3125,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>186</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3138,7 +3141,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3155,14 +3158,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>125</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3171,14 +3174,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3188,14 +3191,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>112</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3211,7 +3214,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>191</v>
+        <v>87</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3221,11 +3224,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>113</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3237,14 +3240,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3254,11 +3257,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>33</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>34</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3270,14 +3273,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>125</v>
+        <v>196</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3287,11 +3290,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>33</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3303,14 +3306,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>186</v>
+        <v>97</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3320,11 +3323,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3336,14 +3339,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3353,49 +3356,82 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>203</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>204</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>27</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>33</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
         <v>34</v>
       </c>
-      <c t="s" r="Q70" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>3345.8299999999999</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
-        <v>204</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
+      <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>3469.8299999999999</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
         <v>205</v>
       </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
         <v>206</v>
       </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>207</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3724,10 +3760,15 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -626,7 +626,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 7:09 PM</t>
+    <t>Thursday, 21 August, 2025 7:10 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -317,10 +317,10 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>7:4</t>
-  </si>
-  <si>
-    <t>3.8400</t>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>7.6800</t>
   </si>
   <si>
     <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
@@ -626,7 +626,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 7:10 PM</t>
+    <t>Thursday, 21 August, 2025 7:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2142,7 +2142,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -3401,7 +3401,7 @@
     </row>
     <row r="72" ht="25.5" customHeight="1">
       <c r="P72" s="13">
-        <v>3469.8299999999999</v>
+        <v>3473.6700000000001</v>
       </c>
       <c r="Q72" s="13"/>
     </row>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -191,6 +191,18 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -359,13 +371,16 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>5:4</t>
+    <t>5:2</t>
   </si>
   <si>
     <t>60.00</t>
   </si>
   <si>
-    <t>12.0000</t>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>LACRITEARS EYE DROPS 15 ML</t>
@@ -485,9 +500,6 @@
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
-    <t>36.0000</t>
-  </si>
-  <si>
     <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -551,9 +563,6 @@
     <t>ZYRTEC 10MG/ML ORAL DROPS 10 ML</t>
   </si>
   <si>
-    <t>43.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -572,15 +581,15 @@
     <t>22.0000</t>
   </si>
   <si>
-    <t>11:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
     <t>3.00</t>
   </si>
   <si>
+    <t>9:0</t>
+  </si>
+  <si>
     <t>شامبو فاتيكا 180مل</t>
   </si>
   <si>
@@ -596,6 +605,15 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>فرشاه فوكس</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>فرشه للشعر</t>
   </si>
   <si>
@@ -605,10 +623,7 @@
     <t>كريم بانسيه</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
+    <t>كريم فاتيكا 65 مل</t>
   </si>
   <si>
     <t xml:space="preserve">معجون سيجنال 120 مل </t>
@@ -626,7 +641,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 7:12 PM</t>
+    <t>Thursday, 21 August, 2025 7:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1746,7 +1761,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1762,7 +1777,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1772,14 +1787,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1788,14 +1803,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1805,14 +1820,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1821,14 +1836,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1845,7 +1860,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1861,7 +1876,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1871,14 +1886,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>77</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1894,7 +1909,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1911,7 +1926,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1920,14 +1935,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1937,14 +1952,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1953,14 +1968,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1970,11 +1985,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>31</v>
@@ -1986,14 +2001,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2003,11 +2018,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>31</v>
@@ -2043,7 +2058,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2059,7 +2074,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2069,14 +2084,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>97</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2092,13 +2107,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2109,7 +2124,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2118,31 +2133,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2151,14 +2166,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2168,14 +2183,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2184,14 +2199,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2201,11 +2216,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2217,14 +2232,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2234,11 +2249,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2250,31 +2265,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2283,31 +2298,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2316,14 +2331,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2340,7 +2355,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2356,7 +2371,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2366,14 +2381,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2382,14 +2397,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2399,11 +2414,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2415,14 +2430,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2432,11 +2447,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2448,14 +2463,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2465,11 +2480,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2481,7 +2496,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2498,14 +2513,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2514,14 +2529,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2531,14 +2546,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2547,14 +2562,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2564,11 +2579,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2580,14 +2595,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2597,14 +2612,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2613,14 +2628,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2630,14 +2645,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2646,14 +2661,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2663,14 +2678,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>145</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2679,7 +2694,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2696,14 +2711,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2712,14 +2727,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2729,11 +2744,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2745,31 +2760,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2778,31 +2793,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2811,14 +2826,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2828,11 +2843,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2844,14 +2859,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2861,11 +2876,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2877,7 +2892,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2894,14 +2909,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>160</v>
+        <v>69</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2910,14 +2925,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>163</v>
+        <v>57</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2931,10 +2946,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2943,14 +2958,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2960,14 +2975,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2983,7 +2998,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2993,14 +3008,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3009,14 +3024,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>173</v>
+        <v>57</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3033,7 +3048,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3049,7 +3064,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3059,14 +3074,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3075,14 +3090,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3092,14 +3107,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>59</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3108,28 +3123,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>62</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3141,14 +3156,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>39</v>
+        <v>185</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3158,14 +3173,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>187</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3191,14 +3206,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>118</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>97</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3214,7 +3229,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3224,14 +3239,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>192</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3240,14 +3255,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>192</v>
+        <v>91</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3257,11 +3272,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>117</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3273,14 +3288,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3290,11 +3305,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>34</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3306,14 +3321,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>97</v>
+        <v>167</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3323,11 +3338,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3339,14 +3354,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3356,11 +3371,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>33</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3379,7 +3394,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>204</v>
+        <v>101</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3389,49 +3404,148 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>204</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>12</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>27</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>199</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>205</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>61</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>27</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>206</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>208</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>209</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>27</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>33</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
         <v>34</v>
       </c>
-      <c t="s" r="Q71" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>3473.6700000000001</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
-        <v>205</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
-        <v>206</v>
-      </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
-        <v>207</v>
-      </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="P75" s="13">
+        <v>3658.6700000000001</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
+        <v>210</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
+        <v>211</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
+        <v>212</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3765,10 +3879,25 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -146,6 +146,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>BIONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
     <t>BRIMOSALM EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -326,6 +335,15 @@
     <t>130.6800</t>
   </si>
   <si>
+    <t>EXAMIDE 5MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -335,6 +353,24 @@
     <t>7.6800</t>
   </si>
   <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>FEBURIC 80MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>139.50</t>
+  </si>
+  <si>
+    <t>46.0350</t>
+  </si>
+  <si>
     <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
   </si>
   <si>
@@ -497,6 +533,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>TRITACE 5MG 14 TAB</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -608,12 +653,6 @@
     <t>فرشاه فوكس</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>فرشه للشعر</t>
   </si>
   <si>
@@ -641,7 +680,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 7:23 PM</t>
+    <t>Thursday, 21 August, 2025 7:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1579,7 +1618,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1596,7 +1635,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1612,7 +1651,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1645,7 +1684,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1655,14 +1694,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1671,14 +1710,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1688,7 +1727,7 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
@@ -1711,7 +1750,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1721,11 +1760,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -1737,14 +1776,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1754,14 +1793,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1770,14 +1809,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1787,14 +1826,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1803,14 +1842,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1827,7 +1866,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1843,7 +1882,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1860,7 +1899,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1876,7 +1915,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1886,14 +1925,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1902,14 +1941,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1926,7 +1965,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1935,14 +1974,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1952,14 +1991,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>84</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1975,7 +2014,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1992,7 +2031,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2008,7 +2047,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2018,11 +2057,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>31</v>
@@ -2034,14 +2073,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2051,11 +2090,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>31</v>
@@ -2067,14 +2106,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2084,14 +2123,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2100,14 +2139,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2124,7 +2163,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>101</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2133,31 +2172,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>104</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2173,24 +2212,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2206,7 +2245,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2239,7 +2278,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2249,14 +2288,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2265,14 +2304,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2282,14 +2321,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2298,31 +2337,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2331,14 +2370,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2348,14 +2387,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2364,14 +2403,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2381,14 +2420,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>123</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2397,14 +2436,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2414,14 +2453,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2430,31 +2469,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2463,14 +2502,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2480,11 +2519,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2496,14 +2535,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2513,14 +2552,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>135</v>
-      </c>
-      <c t="s" r="Q44" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2553,7 +2592,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2602,7 +2641,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2612,11 +2651,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2628,14 +2667,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2645,14 +2684,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2661,14 +2700,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2678,14 +2717,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>49</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2694,7 +2733,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2711,14 +2750,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>150</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2727,14 +2766,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2744,11 +2783,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2760,14 +2799,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2777,14 +2816,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2793,31 +2832,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2826,14 +2865,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2843,14 +2882,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2859,14 +2898,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2876,11 +2915,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2892,14 +2931,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2909,7 +2948,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -2925,28 +2964,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -2958,14 +2997,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2975,11 +3014,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2991,14 +3030,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3008,14 +3047,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3024,14 +3063,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3041,14 +3080,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3057,14 +3096,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>177</v>
+        <v>60</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3074,14 +3113,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>72</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3090,14 +3129,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3107,11 +3146,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3123,14 +3162,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3140,11 +3179,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3169,7 +3208,7 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3180,7 +3219,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3196,24 +3235,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3222,31 +3261,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>39</v>
+        <v>192</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>44</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>192</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3255,31 +3294,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>118</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3288,28 +3327,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>195</v>
+        <v>94</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>65</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3321,14 +3360,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3338,11 +3377,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3354,14 +3393,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>202</v>
+        <v>39</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3371,14 +3410,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>33</v>
+        <v>193</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>34</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3387,14 +3426,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3404,14 +3443,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3420,14 +3459,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3437,11 +3476,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>199</v>
+        <v>129</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3453,14 +3492,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>61</v>
+        <v>210</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3470,11 +3509,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3486,14 +3525,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3503,49 +3542,214 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>214</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>215</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>27</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>33</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
         <v>34</v>
       </c>
-      <c t="s" r="Q74" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>3658.6700000000001</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
-        <v>210</v>
-      </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
-        <v>211</v>
-      </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
-        <v>212</v>
-      </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>216</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>104</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>27</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>115</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>217</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>12</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>27</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>115</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>218</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>64</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>27</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>219</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>220</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>221</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>222</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>27</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>33</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="P80" s="13">
+        <v>3895.8449999999998</v>
+      </c>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c t="s" r="A81" s="14">
+        <v>223</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c t="s" r="G81" s="15">
+        <v>224</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c t="s" r="K81" s="17">
+        <v>225</v>
+      </c>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="377">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3894,10 +4098,35 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="K81:Q81"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -125,6 +125,18 @@
     <t>117.0000</t>
   </si>
   <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
     <t>BACTICLOR 125MG/5ML SUSP. 60ML</t>
   </si>
   <si>
@@ -281,7 +293,10 @@
     <t>142.50</t>
   </si>
   <si>
-    <t>94.0500</t>
+    <t>141.0750</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
@@ -290,6 +305,12 @@
     <t>7:1</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -416,9 +437,6 @@
     <t>36.0000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>LACRITEARS EYE DROPS 15 ML</t>
   </si>
   <si>
@@ -440,9 +458,6 @@
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
-    <t>57.00</t>
-  </si>
-  <si>
     <t>57.0000</t>
   </si>
   <si>
@@ -500,6 +515,15 @@
     <t>2:1</t>
   </si>
   <si>
+    <t>PANTAZOL 40MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>ROSITA HAIR CREAM 100 GM</t>
   </si>
   <si>
@@ -659,6 +683,9 @@
     <t>5:0</t>
   </si>
   <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
     <t>كريم بانسيه</t>
   </si>
   <si>
@@ -680,7 +707,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 7:43 PM</t>
+    <t>Thursday, 21 August, 2025 7:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1569,7 +1596,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1585,7 +1612,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1595,11 +1622,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1611,14 +1638,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1628,14 +1655,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1644,14 +1671,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1661,14 +1688,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1677,14 +1704,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1694,11 +1721,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1710,14 +1737,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1727,14 +1754,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1743,14 +1770,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1760,11 +1787,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -1776,14 +1803,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1833,7 +1860,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1866,7 +1893,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1882,7 +1909,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1892,14 +1919,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1908,14 +1935,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1925,14 +1952,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1941,14 +1968,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1965,7 +1992,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1981,7 +2008,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1991,14 +2018,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2014,7 +2041,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2031,7 +2058,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2040,14 +2067,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2057,14 +2084,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2073,14 +2100,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2090,14 +2117,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>31</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2106,14 +2133,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2123,11 +2150,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>31</v>
@@ -2139,14 +2166,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2156,11 +2183,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -2172,14 +2199,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2196,7 +2223,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>104</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2205,20 +2232,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2245,7 +2272,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2262,7 +2289,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2271,31 +2298,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2304,14 +2331,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2321,14 +2348,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2337,14 +2364,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2354,14 +2381,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2370,14 +2397,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2387,14 +2414,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2403,14 +2430,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2420,11 +2447,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2436,14 +2463,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2453,11 +2480,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2469,7 +2496,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2482,18 +2509,18 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2502,7 +2529,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2519,14 +2546,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2535,31 +2562,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>135</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2568,14 +2595,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2585,11 +2612,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2601,14 +2628,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2625,7 +2652,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2641,7 +2668,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2674,7 +2701,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2707,7 +2734,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2717,14 +2744,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2733,14 +2760,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2750,11 +2777,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2766,14 +2793,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2783,14 +2810,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2799,14 +2826,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2816,14 +2843,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2832,14 +2859,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2849,11 +2876,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2865,14 +2892,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2882,14 +2909,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>162</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2905,7 +2932,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2915,11 +2942,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>56</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2931,14 +2958,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2948,14 +2975,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2964,31 +2991,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2997,14 +3024,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3014,11 +3041,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3030,14 +3057,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3047,11 +3074,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>83</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3063,31 +3090,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3096,14 +3123,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3113,11 +3140,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>72</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3129,14 +3156,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3146,14 +3173,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3162,14 +3189,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>182</v>
+        <v>43</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3183,7 +3210,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3195,14 +3222,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>185</v>
+        <v>64</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3212,14 +3239,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3228,14 +3255,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3245,14 +3272,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3261,14 +3288,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3278,14 +3305,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3294,14 +3321,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>193</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3311,11 +3338,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3327,14 +3354,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3344,14 +3371,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>65</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>62</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3373,7 +3400,7 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3384,7 +3411,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3400,24 +3427,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>64</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3426,31 +3453,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>69</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>207</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3459,14 +3486,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>94</v>
+        <v>208</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3476,11 +3503,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>129</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3492,14 +3519,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>43</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3509,14 +3536,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3532,7 +3559,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>182</v>
+        <v>43</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3542,14 +3569,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>115</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>215</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3558,14 +3585,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>101</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3575,11 +3602,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3591,14 +3618,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>104</v>
+        <v>218</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3608,11 +3635,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>115</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>116</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3624,14 +3651,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3641,11 +3668,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3657,14 +3684,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>64</v>
+        <v>223</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3674,11 +3701,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>219</v>
+        <v>33</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>220</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3690,14 +3717,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>222</v>
+        <v>43</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3707,49 +3734,181 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>33</v>
+        <v>219</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
+        <v>220</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>225</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>111</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>27</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>122</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>226</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>12</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>27</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>122</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>227</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>68</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>27</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>228</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>229</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>230</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>231</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>27</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>33</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
         <v>34</v>
       </c>
-      <c t="s" r="Q79" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" ht="24.75" customHeight="1">
-      <c r="P80" s="13">
-        <v>3895.8449999999998</v>
-      </c>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c t="s" r="A81" s="14">
-        <v>223</v>
-      </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c t="s" r="G81" s="15">
-        <v>224</v>
-      </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
-      <c t="s" r="K81" s="17">
-        <v>225</v>
-      </c>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
+      <c t="s" r="Q83" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>4040.8699999999999</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
+        <v>232</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>233</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>234</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="377">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4123,10 +4282,30 @@
     <mergeCell ref="H79:K79"/>
     <mergeCell ref="L79:M79"/>
     <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -278,6 +278,15 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>DAKTACORT CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>DALACIN C 300MG 10 CAPS.</t>
   </si>
   <si>
@@ -305,6 +314,15 @@
     <t>7:1</t>
   </si>
   <si>
+    <t>DERMOFIX 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -602,9 +620,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
     <t>67.3200</t>
   </si>
   <si>
@@ -707,7 +722,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 7:49 PM</t>
+    <t>Thursday, 21 August, 2025 7:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2124,7 +2139,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2133,14 +2148,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2150,14 +2165,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>31</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2166,14 +2181,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2187,10 +2202,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2199,14 +2214,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2223,7 +2238,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2239,7 +2254,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2249,11 +2264,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2265,14 +2280,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2282,14 +2297,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>111</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2298,28 +2313,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2331,14 +2346,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2348,14 +2363,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>117</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2371,24 +2386,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2404,7 +2419,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2421,7 +2436,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2437,7 +2452,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2447,14 +2462,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2470,7 +2485,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2487,7 +2502,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2503,7 +2518,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2517,7 +2532,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2529,14 +2544,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2546,11 +2561,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2562,7 +2577,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2575,18 +2590,18 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2595,7 +2610,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2612,14 +2627,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2628,20 +2643,20 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2649,10 +2664,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>95</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2661,14 +2676,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2678,11 +2693,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2694,14 +2709,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2718,7 +2733,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2734,7 +2749,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2744,11 +2759,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2760,14 +2775,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2777,11 +2792,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2793,14 +2808,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2810,14 +2825,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2833,7 +2848,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2866,7 +2881,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2876,14 +2891,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2892,14 +2907,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2909,14 +2924,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2925,14 +2940,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2942,11 +2957,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2958,14 +2973,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2975,14 +2990,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>167</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2991,14 +3006,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3008,11 +3023,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>56</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3024,7 +3039,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3041,14 +3056,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q58" s="12">
         <v>173</v>
-      </c>
-      <c t="s" r="Q58" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3064,7 +3079,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3074,11 +3089,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3090,31 +3105,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3123,14 +3138,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3140,11 +3155,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3156,31 +3171,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3196,7 +3211,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3229,7 +3244,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3239,11 +3254,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3255,14 +3270,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3272,14 +3287,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3288,14 +3303,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>190</v>
+        <v>64</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3305,11 +3320,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3328,7 +3343,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>193</v>
+        <v>64</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3338,11 +3353,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3354,14 +3369,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3375,10 +3390,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3387,14 +3402,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3404,14 +3419,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3420,14 +3435,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3437,14 +3452,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>102</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3453,14 +3468,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>101</v>
+        <v>205</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3470,14 +3485,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>69</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>66</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3486,20 +3501,20 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3510,7 +3525,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3526,24 +3541,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>201</v>
+        <v>69</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3552,14 +3567,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3573,10 +3588,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>48</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>215</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3592,7 +3607,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3602,14 +3617,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>136</v>
+        <v>206</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3618,14 +3633,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>218</v>
+        <v>43</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3639,10 +3654,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q76" s="12">
         <v>220</v>
-      </c>
-      <c t="s" r="Q76" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3658,7 +3673,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>190</v>
+        <v>107</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3668,11 +3683,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3701,11 +3716,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>33</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>34</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3717,14 +3732,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>43</v>
+        <v>196</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3734,11 +3749,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>219</v>
+        <v>128</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>220</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3750,14 +3765,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>111</v>
+        <v>228</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3767,11 +3782,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>123</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3783,14 +3798,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3800,11 +3815,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>122</v>
+        <v>224</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>123</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3816,14 +3831,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3833,11 +3848,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>228</v>
+        <v>128</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>229</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3849,14 +3864,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3866,49 +3881,115 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>232</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>68</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>27</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>233</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>235</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>236</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>27</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>33</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
         <v>34</v>
       </c>
-      <c t="s" r="Q83" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>4040.8699999999999</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
-        <v>232</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
-        <v>233</v>
-      </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
-        <v>234</v>
-      </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c t="s" r="Q85" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="P86" s="13">
+        <v>4116.8699999999999</v>
+      </c>
+      <c r="Q86" s="13"/>
+    </row>
+    <row r="87" ht="16.5" customHeight="1">
+      <c t="s" r="A87" s="14">
+        <v>237</v>
+      </c>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c t="s" r="G87" s="15">
+        <v>238</v>
+      </c>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c t="s" r="K87" s="17">
+        <v>239</v>
+      </c>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="407">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4302,10 +4383,20 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="K87:Q87"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -473,6 +473,15 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>27.0600</t>
+  </si>
+  <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -554,6 +563,9 @@
     <t>ROWACHOL 45 CAPSULES</t>
   </si>
   <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
     <t>SULPEPTA 25MGTAB</t>
   </si>
   <si>
@@ -584,6 +596,12 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -599,9 +617,6 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>26.00</t>
   </si>
   <si>
@@ -722,7 +737,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 7:50 PM</t>
+    <t>Thursday, 21 August, 2025 7:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2815,7 +2830,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2825,14 +2840,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2841,14 +2856,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2858,7 +2873,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2898,7 +2913,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2914,7 +2929,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2931,7 +2946,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2947,7 +2962,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2957,11 +2972,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2973,14 +2988,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2990,14 +3005,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3013,7 +3028,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3023,14 +3038,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>56</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>57</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3039,14 +3054,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3056,14 +3071,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>56</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>173</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3072,7 +3087,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3089,14 +3104,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q59" s="12">
         <v>176</v>
-      </c>
-      <c t="s" r="Q59" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3145,7 +3160,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3155,11 +3170,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3171,31 +3186,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3204,14 +3219,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3221,14 +3236,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3244,24 +3259,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3270,14 +3285,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3287,11 +3302,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3303,14 +3318,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3320,11 +3335,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3343,7 +3358,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3360,7 +3375,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3386,11 +3401,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>73</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3402,14 +3417,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>199</v>
+        <v>64</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3419,14 +3434,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3435,7 +3450,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3452,14 +3467,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>102</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>64</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3468,14 +3483,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3485,14 +3500,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3501,14 +3516,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3518,11 +3533,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3534,14 +3549,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3551,14 +3566,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>66</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3567,31 +3582,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3600,31 +3615,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3633,31 +3648,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>69</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>220</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3666,14 +3681,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>107</v>
+        <v>218</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3683,11 +3698,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>142</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>143</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3699,14 +3714,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>223</v>
+        <v>43</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3716,14 +3731,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3732,14 +3747,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>196</v>
+        <v>43</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3749,14 +3764,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>128</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>225</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3765,14 +3780,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>228</v>
+        <v>107</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3782,11 +3797,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3798,14 +3813,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>43</v>
+        <v>228</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3815,11 +3830,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3831,14 +3846,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3864,14 +3879,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3881,11 +3896,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3897,14 +3912,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3914,11 +3929,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3937,7 +3952,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>236</v>
+        <v>117</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3947,49 +3962,148 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>236</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>12</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>27</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>128</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>237</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>68</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>27</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>238</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>240</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>241</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>27</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>33</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
         <v>34</v>
       </c>
-      <c t="s" r="Q85" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="86" ht="25.5" customHeight="1">
-      <c r="P86" s="13">
-        <v>4116.8699999999999</v>
-      </c>
-      <c r="Q86" s="13"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c t="s" r="A87" s="14">
-        <v>237</v>
-      </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c t="s" r="G87" s="15">
-        <v>238</v>
-      </c>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="16"/>
-      <c t="s" r="K87" s="17">
-        <v>239</v>
-      </c>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
+      <c t="s" r="Q88" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>4198.6899999999996</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
+        <v>242</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
+        <v>243</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>244</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="407">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4393,10 +4507,25 @@
     <mergeCell ref="H85:K85"/>
     <mergeCell ref="L85:M85"/>
     <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -62,6 +62,15 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ALKAPRESS 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>ALLERBAN S.R. 2 MG 20 TABS.</t>
   </si>
   <si>
@@ -176,6 +185,15 @@
     <t>41.0000</t>
   </si>
   <si>
+    <t>BROMAGAR ORAL DROPS</t>
+  </si>
+  <si>
+    <t>77.00</t>
+  </si>
+  <si>
+    <t>77.0000</t>
+  </si>
+  <si>
     <t>BRONCHOPHANE 125ML SYRUP.</t>
   </si>
   <si>
@@ -737,7 +755,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 7:56 PM</t>
+    <t>Thursday, 21 August, 2025 7:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1428,7 +1446,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1437,14 +1455,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1454,14 +1472,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1470,31 +1488,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1516,18 +1534,18 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1536,14 +1554,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1553,14 +1571,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>34</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1576,7 +1594,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1609,7 +1627,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1619,14 +1637,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1635,14 +1653,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1652,14 +1670,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1668,14 +1686,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1708,7 +1726,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1725,7 +1743,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1741,7 +1759,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1758,7 +1776,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1774,7 +1792,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1813,18 +1831,18 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1833,7 +1851,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1850,14 +1868,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1866,14 +1884,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1883,14 +1901,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1899,14 +1917,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1916,14 +1934,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1932,14 +1950,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1949,14 +1967,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1965,14 +1983,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1982,14 +2000,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1998,14 +2016,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2038,7 +2056,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2048,14 +2066,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2064,14 +2082,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2081,14 +2099,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2097,14 +2115,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2114,14 +2132,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2130,14 +2148,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2147,14 +2165,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>94</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2187,7 +2205,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2196,14 +2214,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2213,14 +2231,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2236,7 +2254,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2253,7 +2271,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2262,14 +2280,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2279,14 +2297,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2295,14 +2313,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2319,7 +2337,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2335,7 +2353,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2345,14 +2363,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2361,14 +2379,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2378,14 +2396,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>117</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2394,31 +2412,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2427,14 +2445,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2444,14 +2462,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>123</v>
-      </c>
-      <c t="s" r="Q39" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2467,24 +2485,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2500,7 +2518,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2517,7 +2535,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2533,7 +2551,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2543,14 +2561,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2566,7 +2584,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2583,7 +2601,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2599,7 +2617,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2613,10 +2631,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2625,14 +2643,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2642,14 +2660,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2658,7 +2676,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2671,18 +2689,18 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2691,7 +2709,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2708,14 +2726,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2724,20 +2742,20 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2745,10 +2763,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>98</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2757,14 +2775,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2774,11 +2792,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2790,14 +2808,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>43</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2814,7 +2832,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2830,7 +2848,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2847,7 +2865,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2863,7 +2881,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2873,11 +2891,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2889,14 +2907,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2906,14 +2924,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2922,14 +2940,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2939,14 +2957,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>43</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2962,7 +2980,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2995,7 +3013,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3005,14 +3023,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3021,14 +3039,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3038,14 +3056,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3054,14 +3072,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3071,11 +3089,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3087,14 +3105,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3104,14 +3122,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>176</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3120,14 +3138,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3137,11 +3155,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>62</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3153,14 +3171,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3170,14 +3188,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q61" s="12">
         <v>182</v>
-      </c>
-      <c t="s" r="Q61" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3193,7 +3211,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3203,11 +3221,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3219,14 +3237,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>176</v>
+        <v>46</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3236,14 +3254,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>83</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>84</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3252,31 +3270,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3285,14 +3303,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>182</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3302,14 +3320,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>89</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3318,31 +3336,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3358,7 +3376,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3391,7 +3409,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>196</v>
+        <v>113</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3401,11 +3419,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>73</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>74</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3417,14 +3435,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3434,11 +3452,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>76</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3450,14 +3468,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3467,14 +3485,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3483,14 +3501,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>196</v>
+        <v>70</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3500,11 +3518,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3516,14 +3534,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>204</v>
+        <v>70</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3540,7 +3558,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3556,7 +3574,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3566,14 +3584,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>102</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3606,7 +3624,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3622,7 +3640,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3632,14 +3650,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>108</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3648,14 +3666,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3665,14 +3683,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>69</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>66</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3681,31 +3699,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3714,31 +3732,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>211</v>
+        <v>75</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3754,24 +3772,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>43</v>
+        <v>224</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>48</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>225</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3780,31 +3798,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>142</v>
+        <v>217</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>143</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3813,31 +3831,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>228</v>
+        <v>46</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>231</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3846,28 +3864,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>196</v>
+        <v>113</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3879,28 +3897,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>33</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>34</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3912,28 +3930,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>43</v>
+        <v>202</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>229</v>
+        <v>134</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>230</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3945,28 +3963,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>117</v>
+        <v>239</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -3978,28 +3996,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>129</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4011,28 +4029,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>238</v>
+        <v>134</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>239</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4044,66 +4062,132 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>241</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>4198.6899999999996</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
-        <v>242</v>
-      </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
         <v>243</v>
       </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>74</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>30</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
         <v>244</v>
       </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>245</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>246</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>247</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>30</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>36</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>4333.6899999999996</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
+        <v>248</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>249</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>250</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4522,10 +4606,20 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -158,6 +158,18 @@
     <t>73.0000</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>4:5</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
     <t>B-FRESH 0.05% (500ML) MOUTHWASH</t>
   </si>
   <si>
@@ -344,7 +356,7 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>11.8800</t>
+    <t>4:2</t>
   </si>
   <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
@@ -362,96 +374,108 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>12:2</t>
-  </si>
-  <si>
-    <t>48.00</t>
+    <t>12:1</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>208.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>130.6800</t>
+  </si>
+  <si>
+    <t>ESMOPROTON 40 MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>EXAMIDE 5MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>FEBURIC 80MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>139.50</t>
+  </si>
+  <si>
+    <t>46.0350</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>GAPTIN 400 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
   </si>
   <si>
     <t>15.8400</t>
   </si>
   <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>208.0000</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
-  </si>
-  <si>
-    <t>396.00</t>
-  </si>
-  <si>
-    <t>130.6800</t>
-  </si>
-  <si>
-    <t>EXAMIDE 5MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>21.7800</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>7:3</t>
-  </si>
-  <si>
-    <t>7.6800</t>
-  </si>
-  <si>
-    <t>FAYCID HAIR OIL 60 ML</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>FEBURIC 80MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>139.50</t>
-  </si>
-  <si>
-    <t>46.0350</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>GAPTIN 400 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
-  </si>
-  <si>
     <t>ISIS ينسون</t>
   </si>
   <si>
     <t>17.50</t>
   </si>
   <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
   </si>
   <si>
@@ -464,165 +488,177 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>5:2</t>
+    <t>5:1</t>
   </si>
   <si>
     <t>60.00</t>
   </si>
   <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>LACRITEARS EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>LEVCET 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>27.0600</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>MYOFEN 30 CAPS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>111.0000</t>
+  </si>
+  <si>
+    <t>OFRAMAX 1 GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>207.0000</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>PANTAZOL 40MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>ROSITA HAIR CREAM 100 GM</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>ROWACHOL 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>SULPEPTA 25MGTAB</t>
+  </si>
+  <si>
+    <t>TEARS GUARD 0.3% EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>TRITACE 5MG 14 TAB</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
     <t>36.0000</t>
   </si>
   <si>
-    <t>LACRITEARS EYE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>LEVCET 5MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>MACROFURAN 100 MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>27.0600</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>MOOV MASSAGE CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>MYOFEN 30 CAPS</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>111.00</t>
-  </si>
-  <si>
-    <t>111.0000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>OTAL EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>207.0000</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>PANTAZOL 40MG VIAL I.V.</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>ROSITA HAIR CREAM 100 GM</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>ROWACHOL 45 CAPSULES</t>
-  </si>
-  <si>
-    <t>ROWATINEX 45 CAPSULES</t>
-  </si>
-  <si>
-    <t>SULPEPTA 25MGTAB</t>
-  </si>
-  <si>
-    <t>TEARS GUARD 0.3% EYE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>TRITACE 5MG 14 TAB</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
     <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -680,22 +716,34 @@
     <t>ZYRTEC 10MG/ML ORAL DROPS 10 ML</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>45:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>92:0</t>
+    <t>91:0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
-    <t>20.0000</t>
+    <t>40.0000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>22.0000</t>
+    <t>12:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -704,7 +752,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>9:0</t>
+    <t>10:0</t>
   </si>
   <si>
     <t>شامبو فاتيكا 180مل</t>
@@ -716,12 +764,6 @@
     <t>28:0</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>فرشاه فوكس</t>
   </si>
   <si>
@@ -740,6 +782,9 @@
     <t>كريم فاتيكا 65 مل</t>
   </si>
   <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
     <t xml:space="preserve">معجون سيجنال 120 مل </t>
   </si>
   <si>
@@ -755,7 +800,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 7:57 PM</t>
+    <t>Thursday, 21 August, 2025 7:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1726,7 +1771,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1736,14 +1781,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1752,14 +1797,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1769,14 +1814,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1785,14 +1830,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1802,14 +1847,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1818,28 +1863,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1851,28 +1896,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1884,14 +1929,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1901,14 +1946,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1917,14 +1962,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1934,11 +1979,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>23</v>
@@ -1950,14 +1995,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2007,7 +2052,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2040,7 +2085,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2056,7 +2101,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2066,14 +2111,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2082,14 +2127,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2099,14 +2144,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2115,14 +2160,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2139,7 +2184,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2155,7 +2200,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2165,14 +2210,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>94</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2188,7 +2233,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2205,7 +2250,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2214,7 +2259,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2231,11 +2276,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2247,7 +2292,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2264,14 +2309,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2287,7 +2332,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2297,14 +2342,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>34</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2313,14 +2358,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2330,14 +2375,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2346,14 +2391,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2363,14 +2408,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2379,14 +2424,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2396,11 +2441,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>34</v>
@@ -2436,7 +2481,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2452,7 +2497,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2462,14 +2507,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>123</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2478,31 +2523,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>126</v>
-      </c>
-      <c t="s" r="Q40" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2518,13 +2563,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2551,7 +2596,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2561,14 +2606,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2584,7 +2629,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2601,7 +2646,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2617,7 +2662,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2627,14 +2672,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2643,14 +2688,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2660,14 +2705,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2676,14 +2721,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2693,11 +2738,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>23</v>
@@ -2716,7 +2761,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2726,11 +2771,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>23</v>
@@ -2742,7 +2787,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2755,18 +2800,18 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2775,7 +2820,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2792,14 +2837,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>51</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2808,20 +2853,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2829,10 +2874,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>104</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2841,7 +2886,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2858,11 +2903,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2874,14 +2919,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2891,11 +2936,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2907,14 +2952,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2924,14 +2969,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>23</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2940,14 +2985,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2957,7 +3002,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>43</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -2980,7 +3025,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3013,7 +3058,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3046,7 +3091,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3056,11 +3101,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3072,14 +3117,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3089,11 +3134,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3105,14 +3150,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3122,14 +3167,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3138,14 +3183,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3155,11 +3200,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>62</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>63</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3171,14 +3216,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3188,14 +3233,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>182</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3204,14 +3249,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3221,11 +3266,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3244,7 +3289,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3261,7 +3306,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3277,7 +3322,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3287,11 +3332,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3310,7 +3355,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>182</v>
+        <v>46</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3320,14 +3365,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>90</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>23</v>
+        <v>193</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3336,31 +3381,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3369,14 +3414,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3386,11 +3431,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3402,14 +3447,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3419,11 +3464,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3435,14 +3480,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>46</v>
+        <v>193</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3452,14 +3497,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>93</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3468,31 +3513,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>202</v>
+        <v>34</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3508,7 +3553,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3518,11 +3563,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>82</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>153</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3534,14 +3579,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3551,14 +3596,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3567,14 +3612,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>202</v>
+        <v>46</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3584,11 +3629,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>115</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3600,14 +3645,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3617,14 +3662,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>83</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3633,14 +3678,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3650,14 +3695,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3666,14 +3711,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3690,7 +3735,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3706,7 +3751,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3720,10 +3765,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3732,14 +3777,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>113</v>
+        <v>222</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3749,14 +3794,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>75</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>72</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3765,31 +3810,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>224</v>
+        <v>74</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>112</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3805,24 +3850,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>46</v>
+        <v>228</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3831,31 +3876,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>51</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>231</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3864,28 +3909,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3897,14 +3942,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3914,11 +3959,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3930,14 +3975,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3947,14 +3992,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>134</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>135</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3963,14 +4008,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>239</v>
+        <v>46</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3980,14 +4025,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>36</v>
+        <v>229</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>244</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3996,7 +4041,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4013,14 +4058,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>236</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>247</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4029,14 +4074,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4046,11 +4091,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4062,14 +4107,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4079,11 +4124,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4095,14 +4140,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>74</v>
+        <v>213</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4112,11 +4157,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>244</v>
+        <v>139</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>245</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4128,14 +4173,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4156,38 +4201,236 @@
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>4333.6899999999996</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
-        <v>248</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
-        <v>249</v>
-      </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
-        <v>250</v>
-      </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>254</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>46</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>30</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>237</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>255</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>126</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>30</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>139</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>256</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>12</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>30</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>139</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>257</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>78</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>30</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>66</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>258</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>78</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>30</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>259</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>261</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>262</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>30</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>36</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>4676.0900000000001</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>263</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>264</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>265</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4616,10 +4859,40 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -104,6 +104,18 @@
     <t>0</t>
   </si>
   <si>
+    <t>APEXIDONE 4MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
@@ -113,9 +125,6 @@
     <t>51.4800</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>ASPOCID PAEDIATRIC 75MG 30 CHEWABLE TAB.</t>
   </si>
   <si>
@@ -530,6 +539,21 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>MEMEXA 10MG 30F.C. TAB.</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>78.2100</t>
+  </si>
+  <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
     <t>MOOV MASSAGE CREAM 40 GM</t>
   </si>
   <si>
@@ -548,6 +572,9 @@
     <t>17.8200</t>
   </si>
   <si>
+    <t>NEMO MOUTH SPRAY</t>
+  </si>
+  <si>
     <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
   </si>
   <si>
@@ -800,7 +827,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 7:59 PM</t>
+    <t>Thursday, 21 August, 2025 8:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1616,14 +1643,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1639,7 +1666,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1649,14 +1676,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1672,7 +1699,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1705,7 +1732,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1715,14 +1742,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1731,14 +1758,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1748,14 +1775,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1764,14 +1791,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1781,14 +1808,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1797,14 +1824,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1821,7 +1848,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1837,7 +1864,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1854,7 +1881,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1870,7 +1897,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1887,7 +1914,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1903,13 +1930,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1936,13 +1963,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1969,7 +1996,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1979,14 +2006,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1995,14 +2022,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2012,7 +2039,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -2035,7 +2062,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2045,11 +2072,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>23</v>
@@ -2061,14 +2088,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2078,14 +2105,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2094,14 +2121,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2111,14 +2138,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2127,14 +2154,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2151,7 +2178,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2167,7 +2194,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2184,7 +2211,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2200,7 +2227,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2210,14 +2237,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2226,14 +2253,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2250,7 +2277,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>98</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2259,14 +2286,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2276,14 +2303,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>101</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2349,7 +2376,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2358,14 +2385,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2375,14 +2402,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>34</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2391,14 +2418,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2408,14 +2435,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2431,7 +2458,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2441,14 +2468,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2457,14 +2484,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2474,14 +2501,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2490,14 +2517,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2507,14 +2534,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2530,7 +2557,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2540,14 +2567,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>126</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2556,31 +2583,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>129</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2596,13 +2623,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2629,7 +2656,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2662,7 +2689,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2672,14 +2699,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2688,14 +2715,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2705,14 +2732,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2728,7 +2755,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2745,7 +2772,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2761,7 +2788,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2794,7 +2821,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2808,7 +2835,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>23</v>
@@ -2820,14 +2847,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2837,11 +2864,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>23</v>
@@ -2853,31 +2880,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>54</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2886,7 +2913,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2899,18 +2926,18 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2919,14 +2946,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2936,7 +2963,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2959,7 +2986,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2969,14 +2996,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2985,14 +3012,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3009,7 +3036,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3025,7 +3052,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3058,7 +3085,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3075,7 +3102,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3091,7 +3118,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3101,14 +3128,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>43</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3117,14 +3144,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3134,7 +3161,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>46</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3157,7 +3184,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3190,7 +3217,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3204,10 +3231,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3216,14 +3243,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3233,11 +3260,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3249,14 +3276,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3266,14 +3293,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>83</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>84</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3282,31 +3309,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>92</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3315,14 +3342,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3332,11 +3359,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>66</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>67</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3348,14 +3375,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3365,14 +3392,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>193</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3388,7 +3415,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3398,11 +3425,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>86</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3414,14 +3441,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3431,14 +3458,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3447,14 +3474,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3464,11 +3491,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3480,14 +3507,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>193</v>
+        <v>49</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3497,14 +3524,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>93</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>94</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>23</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3513,31 +3540,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3546,14 +3573,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3563,11 +3590,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3579,14 +3606,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3596,11 +3623,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>96</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3612,14 +3639,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3629,14 +3656,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>96</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3645,31 +3672,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>213</v>
+        <v>32</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>83</v>
+        <v>185</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>84</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3678,14 +3705,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3695,11 +3722,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>86</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3711,14 +3738,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3728,14 +3755,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3744,14 +3771,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>213</v>
+        <v>49</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3761,11 +3788,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>119</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3794,14 +3821,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>86</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3810,14 +3837,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3827,14 +3854,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3843,14 +3870,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3860,14 +3887,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3876,14 +3903,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>222</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3893,14 +3920,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3909,14 +3936,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>117</v>
+        <v>231</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3926,14 +3953,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>76</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3942,31 +3969,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3975,28 +4002,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4008,31 +4035,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>244</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4041,31 +4068,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>82</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>247</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4074,14 +4101,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>117</v>
+        <v>245</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4091,11 +4118,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>156</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>157</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4107,14 +4134,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4124,14 +4151,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4140,14 +4167,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>213</v>
+        <v>49</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4157,14 +4184,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>139</v>
+        <v>238</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>253</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4173,14 +4200,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>253</v>
+        <v>49</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4190,14 +4217,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>36</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>256</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4206,14 +4233,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4223,14 +4250,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>237</v>
+        <v>159</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4239,14 +4266,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>126</v>
+        <v>259</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4256,11 +4283,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>139</v>
+        <v>246</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>140</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4272,14 +4299,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4289,11 +4316,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4305,14 +4332,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4322,11 +4349,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4338,14 +4365,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4355,14 +4382,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>260</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4371,14 +4398,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>262</v>
+        <v>129</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4388,49 +4415,181 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>4676.0900000000001</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
-        <v>263</v>
-      </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
-        <v>264</v>
-      </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
         <v>265</v>
       </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>12</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>30</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>142</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>266</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>81</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>30</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>69</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>267</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>81</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>30</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>268</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>269</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>270</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>271</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>30</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>39</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>4891.8800000000001</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>272</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>273</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>274</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4889,10 +5048,30 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -365,7 +365,10 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>4:2</t>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>35.6400</t>
   </si>
   <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
@@ -461,6 +464,15 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>GAPTIN 400 MG 30 CAPS.</t>
   </si>
   <si>
@@ -524,6 +536,15 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>MACROFURAN 100 MG 30 CAPS</t>
   </si>
   <si>
@@ -716,7 +737,10 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>67.3200</t>
+    <t>84.1500</t>
+  </si>
+  <si>
+    <t>1:2</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -764,13 +788,10 @@
     <t>20.00</t>
   </si>
   <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>12:0</t>
+    <t>13:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -779,7 +800,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>10:0</t>
+    <t>33.0000</t>
   </si>
   <si>
     <t>شامبو فاتيكا 180مل</t>
@@ -827,7 +848,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 8:02 PM</t>
+    <t>Thursday, 21 August, 2025 8:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2505,10 +2526,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>32</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2517,14 +2538,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2534,11 +2555,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>32</v>
@@ -2550,14 +2571,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2571,7 +2592,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>32</v>
@@ -2583,7 +2604,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2600,14 +2621,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2616,7 +2637,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2633,11 +2654,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>23</v>
@@ -2649,7 +2670,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2666,11 +2687,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>23</v>
@@ -2682,7 +2703,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2699,11 +2720,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>23</v>
@@ -2715,14 +2736,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2748,14 +2769,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2765,11 +2786,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2781,7 +2802,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2798,11 +2819,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>23</v>
@@ -2814,7 +2835,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2831,11 +2852,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>23</v>
@@ -2847,14 +2868,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2864,14 +2885,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2880,14 +2901,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2897,11 +2918,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>23</v>
@@ -2913,31 +2934,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>54</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2946,7 +2967,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2959,18 +2980,18 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2979,14 +3000,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2996,11 +3017,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3012,14 +3033,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3036,7 +3057,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3052,7 +3073,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3062,14 +3083,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3078,14 +3099,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3095,11 +3116,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3111,14 +3132,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3128,14 +3149,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3144,14 +3165,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>129</v>
+        <v>49</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3161,11 +3182,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3177,14 +3198,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3194,11 +3215,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>23</v>
@@ -3210,14 +3231,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3227,14 +3248,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>46</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>58</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3243,14 +3264,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3260,14 +3281,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3276,14 +3297,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3293,11 +3314,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>23</v>
@@ -3309,28 +3330,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>92</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3342,14 +3363,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3359,14 +3380,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3375,28 +3396,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>129</v>
+        <v>49</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>92</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3408,14 +3429,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3425,11 +3446,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>86</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>87</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3441,14 +3462,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3458,14 +3479,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3474,14 +3495,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3491,11 +3512,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3507,14 +3528,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3524,14 +3545,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>202</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3540,14 +3561,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3557,11 +3578,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>69</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3597,7 +3618,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>209</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3606,14 +3627,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3623,11 +3644,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>96</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>149</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3639,14 +3660,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>202</v>
+        <v>49</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3656,14 +3677,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>96</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>97</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3672,31 +3693,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>185</v>
+        <v>96</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3705,14 +3726,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3722,14 +3743,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>96</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3738,31 +3759,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3771,14 +3792,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3788,11 +3809,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3804,14 +3825,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>222</v>
+        <v>121</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3821,11 +3842,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>86</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>87</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3837,14 +3858,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3854,11 +3875,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>89</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3870,14 +3891,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3887,14 +3908,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>86</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3903,14 +3924,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3920,11 +3941,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>89</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>122</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3936,14 +3957,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3953,11 +3974,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>23</v>
@@ -3969,14 +3990,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3986,14 +4007,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>115</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4002,14 +4023,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4019,14 +4040,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4035,14 +4056,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4052,14 +4073,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>115</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>23</v>
+        <v>243</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4068,14 +4089,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>120</v>
+        <v>245</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4085,14 +4106,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>82</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4101,31 +4122,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>245</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4134,31 +4155,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>249</v>
+        <v>121</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>82</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4174,7 +4195,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>49</v>
+        <v>253</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4184,14 +4205,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>70</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>253</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4200,14 +4221,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>49</v>
+        <v>257</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4217,14 +4238,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>256</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4233,14 +4254,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4250,14 +4271,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>159</v>
+        <v>246</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>260</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4266,14 +4287,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>259</v>
+        <v>49</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4283,14 +4304,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4299,14 +4320,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>222</v>
+        <v>121</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4316,11 +4337,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4332,14 +4353,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4349,11 +4370,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>39</v>
+        <v>254</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>40</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4365,14 +4386,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>49</v>
+        <v>229</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4382,14 +4403,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>246</v>
+        <v>143</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4398,14 +4419,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>129</v>
+        <v>269</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4415,11 +4436,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4431,14 +4452,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4448,14 +4469,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>142</v>
+        <v>254</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4464,14 +4485,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4481,11 +4502,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4497,14 +4518,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4514,11 +4535,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>268</v>
+        <v>143</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>269</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4530,14 +4551,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>271</v>
+        <v>81</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4547,49 +4568,115 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>274</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>81</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>30</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>275</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>276</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>277</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>278</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>30</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>39</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
         <v>40</v>
       </c>
-      <c t="s" r="Q100" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>4891.8800000000001</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
-        <v>272</v>
-      </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
-        <v>273</v>
-      </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
-        <v>274</v>
-      </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c t="s" r="Q102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="P103" s="13">
+        <v>5009.5900000000001</v>
+      </c>
+      <c r="Q103" s="13"/>
+    </row>
+    <row r="104" ht="16.5" customHeight="1">
+      <c t="s" r="A104" s="14">
+        <v>279</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c t="s" r="G104" s="15">
+        <v>280</v>
+      </c>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c t="s" r="K104" s="17">
+        <v>281</v>
+      </c>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="492">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5068,10 +5155,20 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="K104:Q104"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -494,7 +494,7 @@
     <t>IVY ZAD SYRUP 120 ML</t>
   </si>
   <si>
-    <t>65.0000</t>
+    <t>97.5000</t>
   </si>
   <si>
     <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
@@ -650,6 +650,18 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>-51.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>ROSITA HAIR CREAM 100 GM</t>
   </si>
   <si>
@@ -848,7 +860,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 8:28 PM</t>
+    <t>Thursday, 21 August, 2025 8:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3007,7 +3019,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3667,7 +3679,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3684,7 +3696,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3693,14 +3705,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3710,11 +3722,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>96</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>150</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3726,14 +3738,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>209</v>
+        <v>95</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3747,10 +3759,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3759,28 +3771,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>32</v>
+        <v>209</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>193</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>23</v>
@@ -3792,31 +3804,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3825,14 +3837,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3842,11 +3854,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3858,14 +3870,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3875,11 +3887,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3891,14 +3903,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>229</v>
+        <v>49</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3908,11 +3920,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>86</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>87</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3924,14 +3936,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3941,11 +3953,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3957,7 +3969,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3974,14 +3986,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>89</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3990,14 +4002,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>229</v>
+        <v>77</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4007,14 +4019,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>123</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4023,14 +4035,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4040,14 +4052,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4063,7 +4075,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>111</v>
+        <v>242</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4073,14 +4085,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>115</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>243</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4089,14 +4101,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>245</v>
+        <v>111</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4106,14 +4118,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>115</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q86" s="12">
         <v>247</v>
-      </c>
-      <c t="s" r="Q86" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4129,7 +4141,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>249</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4139,14 +4151,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4155,14 +4167,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4172,14 +4184,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>82</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4188,28 +4200,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>253</v>
+        <v>121</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>82</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4242,10 +4254,10 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>177</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4254,14 +4266,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>49</v>
+        <v>261</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4271,14 +4283,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>123</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>260</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4287,7 +4299,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4304,14 +4316,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>81</v>
+        <v>264</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4320,14 +4332,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4337,14 +4349,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>163</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>164</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4353,14 +4365,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>266</v>
+        <v>121</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4370,11 +4382,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>254</v>
+        <v>163</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>255</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4386,14 +4398,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>229</v>
+        <v>270</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4403,11 +4415,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>143</v>
+        <v>258</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>144</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4419,14 +4431,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4436,11 +4448,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4452,14 +4464,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>49</v>
+        <v>273</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4469,14 +4481,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>254</v>
+        <v>39</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4485,14 +4497,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4502,14 +4514,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>143</v>
+        <v>258</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>144</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4518,14 +4530,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4551,14 +4563,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4568,11 +4580,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4584,7 +4596,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4601,11 +4613,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>275</v>
+        <v>69</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>276</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4617,14 +4629,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>278</v>
+        <v>81</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4634,49 +4646,82 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>39</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
+        <v>280</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>281</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>282</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>30</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>39</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
         <v>40</v>
       </c>
-      <c t="s" r="Q102" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="103" ht="24.75" customHeight="1">
-      <c r="P103" s="13">
-        <v>5009.5900000000001</v>
-      </c>
-      <c r="Q103" s="13"/>
-    </row>
-    <row r="104" ht="16.5" customHeight="1">
-      <c t="s" r="A104" s="14">
-        <v>279</v>
-      </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c t="s" r="G104" s="15">
-        <v>280</v>
-      </c>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="16"/>
-      <c t="s" r="K104" s="17">
-        <v>281</v>
-      </c>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
+      <c t="s" r="Q103" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="P104" s="13">
+        <v>4991.0900000000001</v>
+      </c>
+      <c r="Q104" s="13"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="14">
+        <v>283</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c t="s" r="G105" s="15">
+        <v>284</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c t="s" r="K105" s="17">
+        <v>285</v>
+      </c>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="492">
+  <mergeCells count="497">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5165,10 +5210,15 @@
     <mergeCell ref="H102:K102"/>
     <mergeCell ref="L102:M102"/>
     <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="K104:Q104"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="K105:Q105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -62,6 +62,15 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ALKAPRESS 10MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
     <t>ALKAPRESS 5MG 20 TAB.</t>
   </si>
   <si>
@@ -263,6 +272,18 @@
     <t>86.0000</t>
   </si>
   <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -401,9 +422,6 @@
     <t>208.0000</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
   </si>
   <si>
@@ -572,18 +590,9 @@
     <t>MILGA 40 TABLETS</t>
   </si>
   <si>
-    <t>108.00</t>
-  </si>
-  <si>
     <t>MOOV MASSAGE CREAM 40 GM</t>
   </si>
   <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>MYOFEN 30 CAPS</t>
   </si>
   <si>
@@ -677,18 +686,21 @@
     <t>ROWATINEX 45 CAPSULES</t>
   </si>
   <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>SULPEPTA 25MGTAB</t>
   </si>
   <si>
     <t>TEARS GUARD 0.3% EYE DROPS 15 ML</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
     <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
   </si>
   <si>
@@ -803,7 +815,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>13:0</t>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>16:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -818,6 +833,12 @@
     <t>شامبو فاتيكا 180مل</t>
   </si>
   <si>
+    <t xml:space="preserve">عضاضه الجو </t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
     <t>فرشاة اطفال ريتش ديلي</t>
   </si>
   <si>
@@ -836,6 +857,9 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>كحول طبي</t>
+  </si>
+  <si>
     <t>كريم بانسيه</t>
   </si>
   <si>
@@ -857,10 +881,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>16:0</t>
-  </si>
-  <si>
-    <t>Thursday, 21 August, 2025 8:32 PM</t>
+    <t>Thursday, 21 August, 2025 9:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1584,7 +1605,7 @@
         <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1593,14 +1614,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1610,14 +1631,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1626,31 +1647,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1672,18 +1693,18 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1692,14 +1713,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1709,14 +1730,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1732,7 +1753,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1742,14 +1763,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
         <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1765,7 +1786,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1798,7 +1819,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1808,14 +1829,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1824,14 +1845,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1841,14 +1862,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1857,14 +1878,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1874,14 +1895,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1890,14 +1911,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1914,7 +1935,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1930,7 +1951,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1947,7 +1968,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1963,7 +1984,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1980,7 +2001,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1996,13 +2017,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -2029,13 +2050,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -2062,7 +2083,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2072,14 +2093,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2088,14 +2109,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2105,14 +2126,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2128,7 +2149,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2138,14 +2159,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2154,14 +2175,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2171,14 +2192,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2187,14 +2208,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2204,14 +2225,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2220,14 +2241,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2244,7 +2265,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2260,7 +2281,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2270,11 +2291,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2286,14 +2307,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2310,7 +2331,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2326,7 +2347,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2343,7 +2364,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2352,14 +2373,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2376,7 +2397,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2392,7 +2413,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2409,7 +2430,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2418,7 +2439,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2435,14 +2456,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2458,7 +2479,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2468,14 +2489,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2484,14 +2505,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2501,14 +2522,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2517,14 +2538,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2534,14 +2555,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>111</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2550,14 +2571,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2574,7 +2595,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2600,14 +2621,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>32</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2623,7 +2644,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2633,14 +2654,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>130</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2656,24 +2677,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2689,7 +2710,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2706,7 +2727,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>23</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2722,13 +2743,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2739,7 +2760,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2755,7 +2776,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2765,14 +2786,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2781,14 +2802,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2798,14 +2819,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2814,14 +2835,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2831,14 +2852,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2854,7 +2875,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2871,7 +2892,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2887,7 +2908,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2904,7 +2925,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2920,7 +2941,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2934,10 +2955,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2946,14 +2967,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2963,14 +2984,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>54</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2979,7 +3000,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2992,18 +3013,18 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>40</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3012,7 +3033,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3029,14 +3050,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3045,31 +3066,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3078,14 +3099,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3095,14 +3116,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3111,14 +3132,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3128,11 +3149,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3144,14 +3165,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>49</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3168,7 +3189,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3184,7 +3205,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3217,7 +3238,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3234,7 +3255,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3250,7 +3271,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3260,11 +3281,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>46</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3276,14 +3297,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3293,14 +3314,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3309,14 +3330,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3326,14 +3347,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>58</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3342,14 +3363,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3359,14 +3380,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3375,14 +3396,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3392,14 +3413,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>18</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3408,28 +3429,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3441,14 +3462,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3458,14 +3479,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3474,28 +3495,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3507,14 +3528,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3524,11 +3545,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3540,14 +3561,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3557,14 +3578,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3573,14 +3594,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3590,11 +3611,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3606,14 +3627,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3623,14 +3644,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>209</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3639,14 +3660,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3656,11 +3677,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>72</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3672,14 +3693,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3689,14 +3710,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3705,14 +3726,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3722,11 +3743,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3738,14 +3759,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3755,14 +3776,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>96</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>150</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>219</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3771,14 +3792,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>209</v>
+        <v>52</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3788,14 +3809,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>96</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3804,31 +3825,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>192</v>
+        <v>103</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3837,14 +3858,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>212</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3854,14 +3875,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>103</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3870,14 +3891,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3887,11 +3908,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3903,31 +3924,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3936,14 +3957,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>233</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3953,11 +3974,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>86</v>
+        <v>226</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>87</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3969,14 +3990,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3986,11 +4007,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>89</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4002,14 +4023,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4019,14 +4040,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4035,14 +4056,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4052,11 +4073,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>93</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4068,14 +4089,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>242</v>
+        <v>80</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4085,14 +4106,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>96</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4101,14 +4122,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4118,14 +4139,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>115</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>247</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4134,14 +4155,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4151,14 +4172,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4167,14 +4188,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>246</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4184,14 +4205,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4200,14 +4221,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4217,14 +4238,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>251</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4233,31 +4254,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4266,31 +4287,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>261</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>177</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4299,31 +4320,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>250</v>
+        <v>85</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>264</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4332,31 +4353,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>49</v>
+        <v>261</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4365,31 +4386,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>121</v>
+        <v>265</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>163</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4398,31 +4419,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>270</v>
+        <v>52</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>269</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4431,31 +4452,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>233</v>
+        <v>52</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>143</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>144</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4464,28 +4485,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>273</v>
+        <v>128</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4504,24 +4525,24 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>49</v>
+        <v>275</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>144</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4530,28 +4551,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>130</v>
+        <v>277</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>143</v>
+        <v>262</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>144</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4563,28 +4584,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4596,28 +4617,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>81</v>
+        <v>280</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4629,31 +4650,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4662,66 +4683,231 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>282</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>39</v>
+        <v>262</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>40</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
-      <c r="P104" s="13">
-        <v>4991.0900000000001</v>
-      </c>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="14">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
         <v>283</v>
       </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c t="s" r="G105" s="15">
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>88</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>33</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>149</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
         <v>284</v>
       </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="16"/>
-      <c t="s" r="K105" s="17">
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>12</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>33</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>149</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
         <v>285</v>
       </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>84</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>33</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>72</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>286</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>84</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>33</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>287</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>288</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>289</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>269</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>33</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>42</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>5197.0900000000001</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>290</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>291</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>292</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="497">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5215,10 +5401,35 @@
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -881,7 +881,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 9:08 PM</t>
+    <t>Thursday, 21 August, 2025 9:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -413,6 +413,15 @@
     <t>31.6800</t>
   </si>
   <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
@@ -482,6 +491,15 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
@@ -497,6 +515,15 @@
     <t>156.00</t>
   </si>
   <si>
+    <t>GLIMET 2.5/400 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -518,12 +545,6 @@
     <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -698,6 +719,15 @@
     <t>SULPEPTA 25MGTAB</t>
   </si>
   <si>
+    <t>TARGOMASH 80MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
     <t>TEARS GUARD 0.3% EYE DROPS 15 ML</t>
   </si>
   <si>
@@ -710,6 +740,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
     <t>TRITACE 5MG 14 TAB</t>
   </si>
   <si>
@@ -881,7 +920,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 9:24 PM</t>
+    <t>Thursday, 21 August, 2025 9:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2710,7 +2749,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2727,7 +2766,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2743,13 +2782,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2760,7 +2799,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>26</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2776,13 +2815,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2809,7 +2848,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2842,7 +2881,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2852,14 +2891,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>58</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2868,14 +2907,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2885,14 +2924,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2908,7 +2947,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2925,7 +2964,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2941,7 +2980,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2974,7 +3013,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2991,7 +3030,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3021,7 +3060,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>26</v>
@@ -3033,14 +3072,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3050,14 +3089,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>57</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3066,7 +3105,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3079,18 +3118,18 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3099,14 +3138,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3116,11 +3155,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3132,7 +3171,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3149,14 +3188,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>57</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3165,31 +3204,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>108</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3205,7 +3244,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3215,11 +3254,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3231,14 +3270,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3248,11 +3287,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3264,14 +3303,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>52</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3281,14 +3320,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3297,14 +3336,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3314,14 +3353,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3330,14 +3369,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3347,11 +3386,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>49</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3363,14 +3402,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3380,14 +3419,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3396,14 +3435,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3413,11 +3452,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>61</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>26</v>
@@ -3429,14 +3468,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3446,11 +3485,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>90</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3462,14 +3501,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3479,11 +3518,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>26</v>
@@ -3495,31 +3534,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3528,14 +3567,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3545,11 +3584,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>89</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3568,7 +3607,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3585,7 +3624,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3601,21 +3640,21 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3634,7 +3673,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3651,7 +3690,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3677,11 +3716,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>72</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>73</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3693,14 +3732,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3710,14 +3749,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>212</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3726,14 +3765,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3743,14 +3782,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3759,14 +3798,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3776,14 +3815,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>72</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>219</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3792,7 +3831,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3809,14 +3848,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>219</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3825,14 +3864,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3842,11 +3881,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>103</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3858,14 +3897,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>212</v>
+        <v>128</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3875,14 +3914,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>103</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>104</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>26</v>
+        <v>226</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3891,14 +3930,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>212</v>
+        <v>52</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3908,11 +3947,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3924,31 +3963,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>195</v>
+        <v>103</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3957,14 +3996,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>219</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3974,14 +4013,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>226</v>
+        <v>103</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3990,14 +4029,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>128</v>
+        <v>219</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4007,11 +4046,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4023,31 +4062,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4063,7 +4102,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>237</v>
+        <v>52</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4073,14 +4112,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>93</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>94</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4089,14 +4128,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4106,11 +4145,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>96</v>
+        <v>233</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4129,7 +4168,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4146,7 +4185,7 @@
         <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4162,7 +4201,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>237</v>
+        <v>80</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4176,10 +4215,10 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>130</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4188,14 +4227,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>246</v>
+        <v>52</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4212,7 +4251,7 @@
         <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4228,7 +4267,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>118</v>
+        <v>250</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4238,14 +4277,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>251</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4254,14 +4293,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4271,14 +4310,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>96</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4287,14 +4326,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4304,11 +4343,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>26</v>
@@ -4320,14 +4359,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>128</v>
+        <v>250</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4337,11 +4376,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>85</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4353,31 +4392,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4386,31 +4425,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>265</v>
+        <v>118</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>122</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>183</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>264</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4419,31 +4458,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>52</v>
+        <v>266</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>269</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4452,31 +4491,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>84</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4485,7 +4524,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4498,15 +4537,15 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>169</v>
+        <v>85</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4518,14 +4557,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4535,11 +4574,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4551,14 +4590,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4568,14 +4607,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>263</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4584,14 +4623,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>237</v>
+        <v>52</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4601,14 +4640,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>149</v>
+        <v>267</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>150</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>282</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4617,14 +4656,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>280</v>
+        <v>52</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4634,14 +4673,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>42</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>43</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4650,14 +4689,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4667,14 +4706,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>262</v>
+        <v>169</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4683,14 +4722,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>288</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4700,11 +4739,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4716,14 +4755,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>88</v>
+        <v>290</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4733,11 +4772,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>149</v>
+        <v>275</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>150</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4749,14 +4788,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4766,11 +4805,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4782,14 +4821,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>84</v>
+        <v>293</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4799,11 +4838,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4815,14 +4854,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4832,14 +4871,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>288</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4848,14 +4887,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>269</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4865,49 +4904,214 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>42</v>
+        <v>275</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
+        <v>276</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>296</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>88</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>33</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>152</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>297</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>12</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>33</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>152</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>298</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>84</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>33</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>72</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>299</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>84</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>33</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>300</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>301</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>302</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>282</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>33</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>42</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
         <v>43</v>
       </c>
-      <c t="s" r="Q108" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>5197.0900000000001</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
-        <v>290</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
-        <v>291</v>
-      </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
-        <v>292</v>
-      </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="P114" s="13">
+        <v>5388.8699999999999</v>
+      </c>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
+        <v>303</v>
+      </c>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
+        <v>304</v>
+      </c>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>305</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5426,10 +5630,35 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -920,7 +920,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 9:28 PM</t>
+    <t>Thursday, 21 August, 2025 9:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADOLOR 30 MG 3 AMPS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALBOTHYL 1.8% VAG. JEL 40 GM</t>
   </si>
   <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>64.00</t>
   </si>
   <si>
     <t>64.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ALKAPRESS 10MG 30 TAB.</t>
   </si>
   <si>
@@ -167,9 +179,6 @@
     <t>BACTICLOR 125MG/5ML SUSP. 60ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>73.00</t>
   </si>
   <si>
@@ -299,9 +308,6 @@
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>18.0000</t>
   </si>
   <si>
@@ -767,9 +773,6 @@
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
-    <t>36.0000</t>
-  </si>
-  <si>
     <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -854,73 +857,73 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>32.0000</t>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>شامبو فاتيكا 180مل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عضاضه الجو </t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>فرشاة اطفال ريتش ديلي</t>
+  </si>
+  <si>
+    <t>28:0</t>
+  </si>
+  <si>
+    <t>فرشاه فوكس</t>
+  </si>
+  <si>
+    <t>فرشه للشعر</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>كحول طبي</t>
+  </si>
+  <si>
+    <t>كريم بانسيه</t>
+  </si>
+  <si>
+    <t>كريم فاتيكا 65 مل</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t xml:space="preserve">معجون سيجنال 120 مل </t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
     <t>16:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>شامبو فاتيكا 180مل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عضاضه الجو </t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>فرشاة اطفال ريتش ديلي</t>
-  </si>
-  <si>
-    <t>28:0</t>
-  </si>
-  <si>
-    <t>فرشاه فوكس</t>
-  </si>
-  <si>
-    <t>فرشه للشعر</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>كحول طبي</t>
-  </si>
-  <si>
-    <t>كريم بانسيه</t>
-  </si>
-  <si>
-    <t>كريم فاتيكا 65 مل</t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
-    <t xml:space="preserve">معجون سيجنال 120 مل </t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>معجون سيجنال 50 مل</t>
-  </si>
-  <si>
-    <t>Thursday, 21 August, 2025 9:30 PM</t>
+    <t>Thursday, 21 August, 2025 9:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1594,7 +1597,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1604,11 +1607,11 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
@@ -1620,7 +1623,7 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -1637,11 +1640,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -1653,7 +1656,7 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1670,14 +1673,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1693,7 +1696,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1703,14 +1706,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>30</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1732,18 +1735,18 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>30</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1752,31 +1755,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1802,14 +1805,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1818,14 +1821,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1835,14 +1838,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1851,14 +1854,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1868,11 +1871,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1884,14 +1887,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1908,7 +1911,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1941,7 +1944,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1957,7 +1960,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1967,14 +1970,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1983,14 +1986,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2007,7 +2010,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2023,7 +2026,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2040,7 +2043,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2056,7 +2059,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2073,7 +2076,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2089,13 +2092,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -2122,13 +2125,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -2155,7 +2158,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2165,14 +2168,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2181,14 +2184,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2198,14 +2201,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2221,7 +2224,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2231,14 +2234,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2247,14 +2250,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2264,14 +2267,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2280,14 +2283,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2297,14 +2300,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2313,14 +2316,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2330,11 +2333,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2346,14 +2349,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2370,7 +2373,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2386,7 +2389,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2396,14 +2399,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2412,14 +2415,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2429,14 +2432,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2445,14 +2448,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2462,14 +2465,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>108</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2478,14 +2481,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2495,14 +2498,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2511,7 +2514,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2528,11 +2531,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2544,7 +2547,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2561,14 +2564,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>118</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2577,14 +2580,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2594,14 +2597,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>35</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2617,7 +2620,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2627,14 +2630,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2643,14 +2646,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2660,14 +2663,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>118</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2676,14 +2679,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2693,14 +2696,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>35</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2709,14 +2712,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2726,14 +2729,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2742,14 +2745,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2759,14 +2762,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2775,14 +2778,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2792,14 +2795,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2808,31 +2811,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2841,31 +2844,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2874,14 +2877,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2891,14 +2894,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2907,14 +2910,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2924,14 +2927,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2947,7 +2950,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2957,14 +2960,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2973,14 +2976,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2990,14 +2993,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3006,14 +3009,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3023,14 +3026,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3039,14 +3042,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3056,14 +3059,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3072,14 +3075,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3089,14 +3092,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3105,14 +3108,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3122,14 +3125,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3145,7 +3148,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3159,10 +3162,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3171,14 +3174,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3188,14 +3191,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>57</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3211,24 +3214,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>60</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3244,24 +3247,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3277,7 +3280,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3287,11 +3290,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3303,14 +3306,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3320,14 +3323,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3336,14 +3339,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3353,14 +3356,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3369,14 +3372,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3386,11 +3389,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3402,14 +3405,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3419,11 +3422,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3435,7 +3438,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3452,14 +3455,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3468,14 +3471,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3485,14 +3488,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>49</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3508,7 +3511,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3518,14 +3521,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>53</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3534,14 +3537,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3551,14 +3554,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>18</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>61</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3567,14 +3570,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3584,14 +3587,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3600,7 +3603,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3617,14 +3620,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>92</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3633,31 +3636,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>99</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>100</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3666,28 +3669,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>101</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3699,14 +3702,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3716,11 +3719,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3732,14 +3735,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3749,11 +3752,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>93</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3765,14 +3768,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3782,14 +3785,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>96</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3798,14 +3801,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3815,14 +3818,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3831,14 +3834,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3848,14 +3851,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>75</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>219</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3864,14 +3867,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3881,14 +3884,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3897,14 +3900,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3914,14 +3917,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>226</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3930,14 +3933,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3947,14 +3950,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>228</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3963,14 +3966,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3980,11 +3983,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>103</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>159</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3996,14 +3999,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>219</v>
+        <v>104</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4013,14 +4016,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4029,14 +4032,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4046,14 +4049,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>105</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4062,31 +4065,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>35</v>
+        <v>221</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4095,31 +4098,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4128,14 +4131,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4145,14 +4148,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4161,14 +4164,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4178,11 +4181,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4194,14 +4197,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4211,14 +4214,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4227,14 +4230,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4244,14 +4247,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4260,14 +4263,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4277,11 +4280,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>93</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>94</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4300,7 +4303,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>80</v>
+        <v>252</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4314,7 +4317,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4333,7 +4336,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4343,14 +4346,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>14</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4359,14 +4362,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>250</v>
+        <v>83</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4376,14 +4379,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4392,14 +4395,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4409,14 +4412,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4425,14 +4428,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>118</v>
+        <v>260</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4442,14 +4445,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>122</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>264</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4458,14 +4461,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>266</v>
+        <v>120</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4475,14 +4478,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>124</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>265</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4491,14 +4494,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>267</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4508,14 +4511,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4524,14 +4527,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4541,14 +4544,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>85</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>82</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4564,21 +4567,21 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>274</v>
+        <v>130</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>88</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>276</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4590,31 +4593,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>190</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4623,31 +4626,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>52</v>
+        <v>279</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>282</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4656,31 +4659,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>84</v>
+        <v>282</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4689,31 +4692,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>169</v>
+        <v>284</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>170</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4722,28 +4725,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>288</v>
+        <v>130</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>275</v>
+        <v>171</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>276</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4755,28 +4758,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4788,28 +4791,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>152</v>
+        <v>276</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>153</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4821,28 +4824,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4854,31 +4857,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>52</v>
+        <v>293</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>275</v>
+        <v>46</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4887,31 +4890,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>276</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4920,28 +4923,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>152</v>
+        <v>276</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>153</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4953,28 +4956,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -4986,28 +4989,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>73</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5019,28 +5022,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>301</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5052,66 +5055,99 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>282</v>
+        <v>87</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>42</v>
+        <v>300</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>43</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
-      <c r="P114" s="13">
-        <v>5388.8699999999999</v>
-      </c>
-      <c r="Q114" s="13"/>
-    </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c t="s" r="A115" s="14">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>302</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
         <v>303</v>
       </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c t="s" r="G115" s="15">
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>37</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>46</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>5430.8699999999999</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
         <v>304</v>
       </c>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="16"/>
-      <c t="s" r="K115" s="17">
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
         <v>305</v>
       </c>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>306</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="547">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5655,10 +5691,15 @@
     <mergeCell ref="H113:K113"/>
     <mergeCell ref="L113:M113"/>
     <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -923,7 +923,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 9:38 PM</t>
+    <t>Thursday, 21 August, 2025 9:39 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -140,387 +140,429 @@
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>77.2200</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>ASPOCID PAEDIATRIC 75MG 30 CHEWABLE TAB.</t>
+  </si>
+  <si>
     <t>2:2</t>
   </si>
   <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 625MG 10 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
+    <t>BACTICLOR 125MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>73.0000</t>
+  </si>
+  <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>4:5</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>B-FRESH 0.05% (500ML) MOUTHWASH</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>BIONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>BRIMOSALM EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>BROMAGAR ORAL DROPS</t>
+  </si>
+  <si>
+    <t>77.00</t>
+  </si>
+  <si>
+    <t>77.0000</t>
+  </si>
+  <si>
+    <t>BRONCHOPHANE 125ML SYRUP.</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>BRUFEN 400MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>CIPROFAR 500MG 10 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>CONVENTIN 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>COSMOFER 50MG/ML FOR INF. 5 AMPS.</t>
+  </si>
+  <si>
+    <t>470.00</t>
+  </si>
+  <si>
+    <t>376.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>DAKTACORT CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>DALACIN C 300MG 10 CAPS.</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>141.0750</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>DERMOFIX 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>12:1</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>208.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>130.6800</t>
+  </si>
+  <si>
+    <t>EPICOTIL 20MG 10 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>28.50</t>
+  </si>
+  <si>
+    <t>28.5000</t>
+  </si>
+  <si>
+    <t>ESMOPROTON 40 MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>EXAMIDE 5MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>FEBURIC 80MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>139.50</t>
+  </si>
+  <si>
+    <t>46.0350</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>GAPTIN 400 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
     <t>51.4800</t>
   </si>
   <si>
-    <t>ASPOCID PAEDIATRIC 75MG 30 CHEWABLE TAB.</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>AUGMENTIN 625MG 10 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>117.0000</t>
-  </si>
-  <si>
-    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>1:5</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>9.1200</t>
-  </si>
-  <si>
-    <t>BACTICLOR 125MG/5ML SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>73.00</t>
-  </si>
-  <si>
-    <t>73.0000</t>
-  </si>
-  <si>
-    <t>B-COM I.M./I.V. 6 AMP</t>
-  </si>
-  <si>
-    <t>4:5</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>7.6800</t>
-  </si>
-  <si>
-    <t>B-FRESH 0.05% (500ML) MOUTHWASH</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>BIONAL 30 CAP</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>63.3600</t>
-  </si>
-  <si>
-    <t>BRIMOSALM EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>BROMAGAR ORAL DROPS</t>
-  </si>
-  <si>
-    <t>77.00</t>
-  </si>
-  <si>
-    <t>77.0000</t>
-  </si>
-  <si>
-    <t>BRONCHOPHANE 125ML SYRUP.</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>BRUFEN 400MG 30 TAB</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>BRUFEN 600MG 30 TAB</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>32.6700</t>
-  </si>
-  <si>
-    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>21:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>CIPROFAR 500MG 10 F.C.TAB</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>COSMOFER 50MG/ML FOR INF. 5 AMPS.</t>
-  </si>
-  <si>
-    <t>470.00</t>
-  </si>
-  <si>
-    <t>376.0000</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>DAKTACORT CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>DALACIN C 300MG 10 CAPS.</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>141.0750</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>DERMOFIX 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>12:1</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>DRAMENEX 50MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>208.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
-  </si>
-  <si>
-    <t>396.00</t>
-  </si>
-  <si>
-    <t>130.6800</t>
-  </si>
-  <si>
-    <t>ESMOPROTON 40 MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>162.00</t>
-  </si>
-  <si>
-    <t>81.0000</t>
-  </si>
-  <si>
-    <t>EXAMIDE 5MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>21.7800</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>7:3</t>
-  </si>
-  <si>
-    <t>FAYCID HAIR OIL 60 ML</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>FEBURIC 80MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>139.50</t>
-  </si>
-  <si>
-    <t>46.0350</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>GAPTIN 400 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
     <t>GLIMET 2.5/400 MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -530,6 +572,12 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>43.5600</t>
+  </si>
+  <si>
     <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -575,12 +623,6 @@
     <t>LEVCET 5MG 20 TAB.</t>
   </si>
   <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
@@ -599,6 +641,15 @@
     <t>27.0600</t>
   </si>
   <si>
+    <t>MAVILOR 10MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>52.4700</t>
+  </si>
+  <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -674,9 +725,6 @@
     <t>207.0000</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>PANTAZOL 40MG VIAL I.V.</t>
   </si>
   <si>
@@ -791,9 +839,6 @@
     <t>VIRECTA 100 MG 12 F.C.TABS.</t>
   </si>
   <si>
-    <t>2:4</t>
-  </si>
-  <si>
     <t>132.00</t>
   </si>
   <si>
@@ -857,7 +902,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>19:0</t>
+    <t>24:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -923,7 +968,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 9:39 PM</t>
+    <t>Thursday, 21 August, 2025 9:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1845,7 +1890,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1854,14 +1899,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1871,11 +1916,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1887,7 +1932,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1904,11 +1949,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1920,14 +1965,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1937,11 +1982,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>30</v>
@@ -1953,7 +1998,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1970,11 +2015,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1986,14 +2031,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2003,11 +2048,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>30</v>
@@ -2019,14 +2064,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2036,11 +2081,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -2052,14 +2097,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2069,14 +2114,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2085,14 +2130,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2102,14 +2147,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2118,28 +2163,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2151,28 +2196,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2184,14 +2229,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2201,14 +2246,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2217,14 +2262,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2234,11 +2279,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>30</v>
@@ -2250,14 +2295,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2267,11 +2312,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>30</v>
@@ -2283,14 +2328,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2300,14 +2345,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2316,14 +2361,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2333,14 +2378,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2349,14 +2394,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2366,11 +2411,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2382,14 +2427,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2399,14 +2444,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2415,14 +2460,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2432,14 +2477,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2448,14 +2493,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2472,7 +2517,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2488,7 +2533,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2498,14 +2543,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>110</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2521,7 +2566,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2538,7 +2583,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2554,7 +2599,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2571,7 +2616,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2580,7 +2625,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2597,14 +2642,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2620,7 +2665,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2630,14 +2675,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2653,7 +2698,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2670,7 +2715,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2703,7 +2748,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2736,7 +2781,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2752,7 +2797,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2762,14 +2807,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2785,7 +2830,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2795,14 +2840,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2818,7 +2863,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2828,14 +2873,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>91</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2844,31 +2889,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2877,14 +2922,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2894,14 +2939,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2910,14 +2955,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2927,14 +2972,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>30</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2943,31 +2988,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2976,14 +3021,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2993,11 +3038,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3009,14 +3054,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3026,11 +3071,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>30</v>
@@ -3042,14 +3087,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3059,11 +3104,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>30</v>
@@ -3075,14 +3120,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3092,14 +3137,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3108,14 +3153,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3125,11 +3170,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3141,14 +3186,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3158,11 +3203,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>30</v>
@@ -3174,14 +3219,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3191,14 +3236,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3207,14 +3252,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3224,11 +3269,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>60</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>30</v>
@@ -3240,31 +3285,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3273,14 +3318,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3290,14 +3335,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3306,14 +3351,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3323,11 +3368,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3339,14 +3384,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3356,14 +3401,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>110</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3372,14 +3417,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3389,14 +3434,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3405,31 +3450,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3438,14 +3483,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3455,11 +3500,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3471,7 +3516,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3488,14 +3533,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3511,7 +3556,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>91</v>
+        <v>197</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3521,14 +3566,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>53</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3537,14 +3582,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3554,14 +3599,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3570,14 +3615,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3587,14 +3632,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3603,14 +3648,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3620,11 +3665,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>92</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>93</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3636,14 +3681,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3653,11 +3698,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>30</v>
@@ -3669,31 +3714,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>101</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>102</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3702,14 +3747,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3719,11 +3764,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>55</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3735,14 +3780,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3752,14 +3797,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3768,14 +3813,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3785,14 +3830,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3801,14 +3846,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3818,14 +3863,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>97</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3834,14 +3879,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3851,14 +3896,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>75</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3867,7 +3912,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3880,18 +3925,18 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>105</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>221</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3900,7 +3945,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3917,11 +3962,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3933,14 +3978,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3950,14 +3995,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>228</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3966,14 +4011,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3983,11 +4028,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>101</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3999,14 +4044,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4016,14 +4061,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>105</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4032,14 +4077,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>221</v>
+        <v>96</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4049,14 +4094,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4065,14 +4110,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4082,14 +4127,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4098,31 +4143,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4131,14 +4176,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4148,14 +4193,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>30</v>
+        <v>244</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4164,14 +4209,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4181,11 +4226,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4197,14 +4242,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4214,11 +4259,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>109</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4230,14 +4275,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4247,11 +4292,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>109</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>30</v>
@@ -4263,14 +4308,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4280,11 +4325,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4296,31 +4341,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>252</v>
+        <v>39</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>96</v>
+        <v>221</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4329,14 +4374,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4346,14 +4391,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>14</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>15</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4362,14 +4407,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4379,14 +4424,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4395,14 +4440,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>252</v>
+        <v>140</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4412,11 +4457,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>132</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4428,14 +4473,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>260</v>
+        <v>89</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4445,11 +4490,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>30</v>
@@ -4461,14 +4506,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4478,14 +4523,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>124</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>265</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4494,14 +4539,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4511,14 +4556,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>101</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4527,14 +4572,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4544,14 +4589,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>14</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4560,14 +4605,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4577,14 +4622,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>88</v>
+        <v>271</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>85</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4593,28 +4638,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4626,31 +4671,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>279</v>
+        <v>130</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>192</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4659,31 +4704,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>268</v>
+        <v>134</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4692,31 +4737,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>282</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>87</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4725,31 +4770,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>171</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>172</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4758,28 +4803,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>288</v>
+        <v>140</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>276</v>
+        <v>93</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>277</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4808,11 +4853,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4824,14 +4869,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>252</v>
+        <v>294</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4841,14 +4886,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>154</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4857,14 +4902,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>293</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4874,14 +4919,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>46</v>
+        <v>283</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>47</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>297</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4890,7 +4935,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4907,14 +4952,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>155</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>18</v>
+        <v>65</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4923,14 +4968,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4940,11 +4985,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>276</v>
+        <v>185</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>277</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4956,14 +5001,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>91</v>
+        <v>303</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4973,11 +5018,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>154</v>
+        <v>291</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>155</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -4989,14 +5034,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>18</v>
+        <v>305</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5006,11 +5051,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>154</v>
+        <v>291</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>155</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5022,14 +5067,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>87</v>
+        <v>268</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5039,11 +5084,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5055,14 +5100,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>87</v>
+        <v>308</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5072,11 +5117,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>300</v>
+        <v>48</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>301</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5088,14 +5133,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>303</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5105,49 +5150,247 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>46</v>
+        <v>291</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>5430.8699999999999</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
-        <v>304</v>
-      </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
-        <v>305</v>
-      </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
-        <v>306</v>
-      </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>310</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>16</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>37</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>291</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>292</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>311</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>96</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>37</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>167</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>312</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>18</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>37</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>167</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>313</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>65</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>37</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>81</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>314</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>65</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>37</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>315</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>316</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>317</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>318</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>37</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>48</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>5755.5200000000004</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
+        <v>319</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
+        <v>320</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>321</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5696,10 +5939,40 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -917,6 +917,9 @@
     <t>شامبو فاتيكا 180مل</t>
   </si>
   <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
     <t xml:space="preserve">عضاضه الجو </t>
   </si>
   <si>
@@ -968,7 +971,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 9:47 PM</t>
+    <t>Thursday, 21 August, 2025 9:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5008,7 +5011,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>303</v>
+        <v>100</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5018,14 +5021,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>292</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5034,14 +5037,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5067,14 +5070,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5084,11 +5087,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>167</v>
+        <v>291</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>168</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5107,7 +5110,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5117,11 +5120,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>48</v>
+        <v>167</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>49</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5133,14 +5136,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5150,14 +5153,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>291</v>
+        <v>48</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>168</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5173,7 +5176,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5187,10 +5190,10 @@
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>292</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5206,7 +5209,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5216,11 +5219,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>167</v>
+        <v>291</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>168</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5239,7 +5242,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5272,7 +5275,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5282,11 +5285,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>82</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5315,11 +5318,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>315</v>
+        <v>81</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>316</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5331,14 +5334,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>318</v>
+        <v>65</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5348,49 +5351,82 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>48</v>
+        <v>316</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
+        <v>317</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>318</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>319</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>37</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>48</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
         <v>49</v>
       </c>
-      <c t="s" r="Q120" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>5755.5200000000004</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
-        <v>319</v>
-      </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
+      <c t="s" r="Q121" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="P122" s="13">
+        <v>5795.5200000000004</v>
+      </c>
+      <c r="Q122" s="13"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="14">
         <v>320</v>
       </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c t="s" r="G123" s="15">
         <v>321</v>
       </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c t="s" r="K123" s="17">
+        <v>322</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="587">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5969,10 +6005,15 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -365,6 +365,15 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>COXORIZET CAPS</t>
+  </si>
+  <si>
+    <t>249.00</t>
+  </si>
+  <si>
+    <t>82.1700</t>
+  </si>
+  <si>
     <t>DAKTACORT CREAM 15 GM</t>
   </si>
   <si>
@@ -914,6 +923,9 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>سكاته بوب تون</t>
+  </si>
+  <si>
     <t>شامبو فاتيكا 180مل</t>
   </si>
   <si>
@@ -971,7 +983,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 9:48 PM</t>
+    <t>Thursday, 21 August, 2025 9:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2635,13 +2647,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2652,7 +2664,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2678,11 +2690,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2694,7 +2706,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2711,14 +2723,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2734,7 +2746,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2744,14 +2756,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>89</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2777,14 +2789,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2793,14 +2805,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2833,7 +2845,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2843,14 +2855,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2876,14 +2888,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2892,14 +2904,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2909,7 +2921,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2932,7 +2944,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2942,14 +2954,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2965,7 +2977,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2982,7 +2994,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2998,13 +3010,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -3015,7 +3027,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>30</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3031,13 +3043,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -3048,7 +3060,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3064,7 +3076,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3081,7 +3093,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3097,7 +3109,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3130,7 +3142,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>165</v>
+        <v>30</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3140,14 +3152,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3156,14 +3168,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3173,14 +3185,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3196,7 +3208,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3213,7 +3225,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3229,7 +3241,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3262,7 +3274,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3295,7 +3307,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3312,7 +3324,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3328,7 +3340,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3345,7 +3357,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3361,7 +3373,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3378,7 +3390,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3394,7 +3406,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3404,14 +3416,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3420,14 +3432,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3437,14 +3449,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>62</v>
+        <v>165</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3453,31 +3465,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>62</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>49</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3486,31 +3498,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3519,7 +3531,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3536,11 +3548,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3552,14 +3564,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3569,14 +3581,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>117</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3585,14 +3597,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3609,7 +3621,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3625,7 +3637,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3635,11 +3647,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>132</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3651,7 +3663,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3668,11 +3680,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>134</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3691,7 +3703,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3708,7 +3720,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3724,7 +3736,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3757,7 +3769,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3767,14 +3779,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3783,14 +3795,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3800,14 +3812,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>55</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3823,7 +3835,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3833,11 +3845,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>22</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>30</v>
@@ -3849,14 +3861,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3866,14 +3878,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3882,7 +3894,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3899,14 +3911,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>97</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3922,24 +3934,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>105</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>106</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3948,7 +3960,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3961,15 +3973,15 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>105</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3988,7 +4000,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4021,7 +4033,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4031,11 +4043,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>102</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4047,14 +4059,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4064,14 +4076,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>101</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4087,7 +4099,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4097,14 +4109,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>82</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4113,14 +4125,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4130,14 +4142,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>81</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4170,7 +4182,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4186,7 +4198,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4203,7 +4215,7 @@
         <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>244</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4212,14 +4224,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4229,14 +4241,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q86" s="12">
         <v>247</v>
-      </c>
-      <c t="s" r="Q86" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4252,7 +4264,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4262,11 +4274,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>109</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>174</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4278,14 +4290,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4299,10 +4311,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4311,7 +4323,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4328,14 +4340,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>109</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4351,24 +4363,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4377,28 +4389,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>30</v>
@@ -4417,7 +4429,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4427,14 +4439,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4443,14 +4455,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4460,11 +4472,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4483,7 +4495,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4500,7 +4512,7 @@
         <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4516,7 +4528,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4533,7 +4545,7 @@
         <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4549,7 +4561,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>268</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4559,11 +4571,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>101</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>102</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4575,14 +4587,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>89</v>
+        <v>271</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4592,11 +4604,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4608,7 +4620,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4625,14 +4637,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>271</v>
+        <v>14</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>272</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4648,7 +4660,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>268</v>
+        <v>89</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4662,10 +4674,10 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>142</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4674,14 +4686,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>130</v>
+        <v>271</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4691,14 +4703,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>277</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4714,7 +4726,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4724,14 +4736,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>134</v>
+        <v>279</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>280</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4747,7 +4759,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>282</v>
+        <v>45</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4757,14 +4769,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>283</v>
+        <v>137</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>18</v>
+        <v>283</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4773,14 +4785,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>285</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4797,7 +4809,7 @@
         <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4813,7 +4825,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4823,14 +4835,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>93</v>
+        <v>289</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>91</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4839,28 +4851,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>290</v>
+        <v>143</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>291</v>
+        <v>93</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>292</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4872,14 +4884,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4889,14 +4901,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>206</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4912,7 +4924,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>297</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4922,14 +4934,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>297</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4938,7 +4950,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4955,14 +4967,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q108" s="12">
         <v>300</v>
-      </c>
-      <c t="s" r="Q108" s="12">
-        <v>65</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4978,7 +4990,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4988,14 +5000,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>185</v>
+        <v>302</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>186</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5004,14 +5016,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5021,14 +5033,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>295</v>
+        <v>170</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5037,14 +5049,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>304</v>
+        <v>143</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5054,11 +5066,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>291</v>
+        <v>188</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>292</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5070,14 +5082,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>306</v>
+        <v>100</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5087,14 +5099,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>292</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5110,7 +5122,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5120,11 +5132,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>167</v>
+        <v>294</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>168</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5136,14 +5148,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5153,11 +5165,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>48</v>
+        <v>294</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>49</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5169,14 +5181,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>271</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5186,14 +5198,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>291</v>
+        <v>170</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5202,14 +5214,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>16</v>
+        <v>313</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5219,11 +5231,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>291</v>
+        <v>48</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>292</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5235,14 +5247,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5252,14 +5264,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>167</v>
+        <v>294</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5268,14 +5280,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5285,11 +5297,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>167</v>
+        <v>294</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>168</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5301,14 +5313,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5318,11 +5330,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5334,14 +5346,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5351,11 +5363,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>316</v>
+        <v>170</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>317</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5374,7 +5386,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>319</v>
+        <v>65</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5384,49 +5396,115 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>319</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>65</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>37</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>320</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>321</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>322</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>323</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>37</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>48</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
         <v>49</v>
       </c>
-      <c t="s" r="Q121" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="122" ht="25.5" customHeight="1">
-      <c r="P122" s="13">
-        <v>5795.5200000000004</v>
-      </c>
-      <c r="Q122" s="13"/>
-    </row>
-    <row r="123" ht="16.5" customHeight="1">
-      <c t="s" r="A123" s="14">
-        <v>320</v>
-      </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c t="s" r="G123" s="15">
-        <v>321</v>
-      </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="16"/>
-      <c t="s" r="K123" s="17">
-        <v>322</v>
-      </c>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
+      <c t="s" r="Q123" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="P124" s="13">
+        <v>5907.6899999999996</v>
+      </c>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
+        <v>324</v>
+      </c>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
+        <v>325</v>
+      </c>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
+        <v>326</v>
+      </c>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="587">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6010,10 +6088,20 @@
     <mergeCell ref="H121:K121"/>
     <mergeCell ref="L121:M121"/>
     <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -137,6 +137,15 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>APIDONE SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
@@ -254,12 +263,6 @@
     <t>BRONCHOPHANE 125ML SYRUP.</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>BRUFEN 400MG 30 TAB</t>
   </si>
   <si>
@@ -308,6 +311,18 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -344,6 +359,15 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>CONVENTIN 300MG 30 CAPS.</t>
   </si>
   <si>
@@ -452,10 +476,10 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>12:1</t>
-  </si>
-  <si>
-    <t>31.6800</t>
+    <t>95.5200</t>
+  </si>
+  <si>
+    <t>1:3</t>
   </si>
   <si>
     <t>DRAMENEX 50MG 20 TABS.</t>
@@ -884,6 +908,27 @@
     <t>67.5000</t>
   </si>
   <si>
+    <t>ZELAGAP 0.05% EYE DROPS 6 ML</t>
+  </si>
+  <si>
+    <t>26.50</t>
+  </si>
+  <si>
+    <t>26.5000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>ZYRTEC 10MG/ML ORAL DROPS 10 ML</t>
   </si>
   <si>
@@ -920,9 +965,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>33.0000</t>
-  </si>
-  <si>
     <t>سكاته بوب تون</t>
   </si>
   <si>
@@ -950,9 +992,6 @@
     <t>فرشه للشعر</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -983,7 +1022,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 9:50 PM</t>
+    <t>Thursday, 21 August, 2025 9:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1888,7 +1927,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1898,14 +1937,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1914,14 +1953,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1931,14 +1970,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1947,14 +1986,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1987,7 +2026,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1997,14 +2036,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2013,14 +2052,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2037,7 +2076,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2053,7 +2092,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2063,14 +2102,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2079,14 +2118,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2096,14 +2135,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2112,14 +2151,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2152,7 +2191,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2169,7 +2208,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2185,7 +2224,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2202,7 +2241,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2218,13 +2257,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -2251,13 +2290,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2284,7 +2323,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2294,14 +2333,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2310,14 +2349,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2327,11 +2366,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>30</v>
@@ -2343,14 +2382,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2360,11 +2399,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>30</v>
@@ -2376,14 +2415,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2393,14 +2432,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2409,14 +2448,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2426,14 +2465,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2442,14 +2481,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2459,11 +2498,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2475,14 +2514,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2492,14 +2531,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2515,7 +2554,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2525,11 +2564,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2541,14 +2580,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2558,11 +2597,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>30</v>
@@ -2574,14 +2613,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2591,14 +2630,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2607,14 +2646,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2624,14 +2663,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>117</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2640,31 +2679,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2673,14 +2712,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2690,14 +2729,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2706,14 +2745,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2723,14 +2762,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>125</v>
-      </c>
-      <c t="s" r="Q40" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2746,13 +2785,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2763,7 +2802,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2779,7 +2818,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2789,14 +2828,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2812,7 +2851,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2822,11 +2861,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2838,14 +2877,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2855,14 +2894,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2871,14 +2910,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2892,10 +2931,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>45</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2904,14 +2943,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2921,14 +2960,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2937,14 +2976,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2954,14 +2993,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2970,14 +3009,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2987,14 +3026,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3003,14 +3042,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3020,14 +3059,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>96</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3036,31 +3075,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>65</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>30</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3069,14 +3108,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3086,11 +3125,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3102,7 +3141,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3119,14 +3158,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>30</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3135,28 +3174,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>30</v>
@@ -3168,14 +3207,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3185,14 +3224,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>63</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3208,7 +3247,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3225,7 +3264,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3241,7 +3280,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3274,7 +3313,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3284,14 +3323,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>43</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3300,14 +3339,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3317,14 +3356,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3333,14 +3372,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3350,14 +3389,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3366,14 +3405,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3383,11 +3422,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>30</v>
@@ -3399,14 +3438,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3416,14 +3455,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3432,14 +3471,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3449,14 +3488,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3472,7 +3511,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3482,11 +3521,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>62</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>30</v>
@@ -3498,31 +3537,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>49</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3531,14 +3570,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3548,14 +3587,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3564,7 +3603,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3581,14 +3620,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>65</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3597,31 +3636,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>117</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3630,14 +3669,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3647,7 +3686,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>152</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3670,7 +3709,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3680,11 +3719,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3703,7 +3742,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>208</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3713,14 +3752,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3729,14 +3768,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3746,14 +3785,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3762,14 +3801,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3779,14 +3818,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>142</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3795,14 +3834,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3812,7 +3851,7 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>55</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -3835,7 +3874,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3868,7 +3907,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3878,11 +3917,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>22</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>70</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>30</v>
@@ -3894,14 +3933,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3911,11 +3950,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3927,14 +3966,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3944,11 +3983,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>30</v>
@@ -3960,31 +3999,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3993,14 +4032,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4010,11 +4049,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>98</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4026,14 +4065,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4043,14 +4082,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4059,28 +4098,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4092,14 +4131,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4109,14 +4148,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4125,14 +4164,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4142,11 +4181,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>81</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>82</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4158,14 +4197,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4175,14 +4214,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>106</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4191,14 +4230,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4208,14 +4247,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4224,14 +4263,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4241,14 +4280,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>43</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>247</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4257,7 +4296,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4274,14 +4313,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4290,14 +4329,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4307,11 +4346,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>109</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>177</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4330,7 +4369,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>43</v>
+        <v>151</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4340,14 +4379,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>109</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>110</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>30</v>
+        <v>255</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4356,14 +4395,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4373,11 +4412,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4389,31 +4428,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>224</v>
+        <v>114</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4422,14 +4461,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4439,11 +4478,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>114</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>30</v>
@@ -4455,14 +4494,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4472,11 +4511,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4488,31 +4527,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4521,14 +4560,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4538,11 +4577,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>30</v>
@@ -4554,14 +4593,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4571,11 +4610,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4587,14 +4626,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>271</v>
+        <v>151</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4604,11 +4643,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>101</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>102</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4627,7 +4666,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4637,14 +4676,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>14</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>15</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4653,14 +4692,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4670,14 +4709,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4686,14 +4725,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4703,11 +4742,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>106</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4719,14 +4758,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4736,14 +4775,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>279</v>
+        <v>14</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>280</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4759,7 +4798,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4769,14 +4808,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>137</v>
+        <v>282</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>283</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4792,7 +4831,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4802,14 +4841,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4818,14 +4857,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4835,11 +4874,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>30</v>
@@ -4851,14 +4890,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4868,14 +4907,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>91</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>291</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4897,7 +4936,7 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
@@ -4908,7 +4947,7 @@
         <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4924,24 +4963,24 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>297</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>209</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4963,18 +5002,18 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>202</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>300</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4983,31 +5022,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>303</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5016,28 +5055,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>171</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5049,14 +5088,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>143</v>
+        <v>308</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5066,11 +5105,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>188</v>
+        <v>309</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>189</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5082,14 +5121,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>100</v>
+        <v>312</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5099,11 +5138,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>18</v>
@@ -5115,14 +5154,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>308</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5136,10 +5175,10 @@
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>295</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>315</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5148,14 +5187,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>310</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5165,14 +5204,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>295</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5181,14 +5220,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>271</v>
+        <v>68</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5198,11 +5237,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5214,14 +5253,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>313</v>
+        <v>151</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5231,11 +5270,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>48</v>
+        <v>196</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>49</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5247,14 +5286,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5264,11 +5303,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>18</v>
@@ -5280,14 +5319,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>16</v>
+        <v>322</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5297,11 +5336,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5313,14 +5352,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>96</v>
+        <v>324</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5330,11 +5369,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>170</v>
+        <v>309</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>171</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5346,14 +5385,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>18</v>
+        <v>279</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5363,11 +5402,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5379,14 +5418,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>65</v>
+        <v>303</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5396,11 +5435,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5412,14 +5451,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5429,14 +5468,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>321</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5445,14 +5484,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>323</v>
+        <v>16</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5462,49 +5501,214 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>48</v>
+        <v>309</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>49</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
-      <c r="P124" s="13">
-        <v>5907.6899999999996</v>
-      </c>
-      <c r="Q124" s="13"/>
-    </row>
-    <row r="125" ht="16.5" customHeight="1">
-      <c t="s" r="A125" s="14">
-        <v>324</v>
-      </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c t="s" r="G125" s="15">
-        <v>325</v>
-      </c>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="16"/>
-      <c t="s" r="K125" s="17">
-        <v>326</v>
-      </c>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
-      <c r="N125" s="17"/>
-      <c r="O125" s="17"/>
-      <c r="P125" s="17"/>
-      <c r="Q125" s="17"/>
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>329</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>97</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>37</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>178</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>330</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>18</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>37</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>178</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>331</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>68</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>37</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>43</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>332</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>68</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>37</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>333</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>334</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>335</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>336</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>37</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>51</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="P129" s="13">
+        <v>6164.0299999999997</v>
+      </c>
+      <c r="Q129" s="13"/>
+    </row>
+    <row r="130" ht="16.5" customHeight="1">
+      <c t="s" r="A130" s="14">
+        <v>337</v>
+      </c>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c t="s" r="G130" s="15">
+        <v>338</v>
+      </c>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c t="s" r="K130" s="17">
+        <v>339</v>
+      </c>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="597">
+  <mergeCells count="622">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6098,10 +6302,35 @@
     <mergeCell ref="H123:K123"/>
     <mergeCell ref="L123:M123"/>
     <mergeCell ref="N123:O123"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="K130:Q130"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -1022,7 +1022,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 9:56 PM</t>
+    <t>Thursday, 21 August, 2025 10:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -953,6 +953,9 @@
     <t>20.00</t>
   </si>
   <si>
+    <t xml:space="preserve">زيت شعر املا 180 مل </t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -1022,7 +1025,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 10:07 PM</t>
+    <t>Thursday, 21 August, 2025 10:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5161,7 +5164,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>303</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5171,14 +5174,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>294</v>
+        <v>142</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>210</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>315</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5187,7 +5190,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5204,14 +5207,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>118</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>68</v>
+        <v>316</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5220,14 +5223,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5237,14 +5240,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>178</v>
+        <v>318</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>179</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5260,7 +5263,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>151</v>
+        <v>68</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5270,11 +5273,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5293,7 +5296,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5303,14 +5306,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>313</v>
+        <v>196</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5326,7 +5329,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>322</v>
+        <v>105</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5336,14 +5339,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>310</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5352,14 +5355,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5385,14 +5388,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>279</v>
+        <v>325</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5402,11 +5405,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>178</v>
+        <v>309</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>179</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5425,7 +5428,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5435,11 +5438,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>52</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5458,7 +5461,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>12</v>
+        <v>303</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5468,14 +5471,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>309</v>
+        <v>51</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>179</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5491,7 +5494,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5505,10 +5508,10 @@
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>310</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5524,7 +5527,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5534,11 +5537,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>178</v>
+        <v>309</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>179</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5557,7 +5560,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5590,7 +5593,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5600,11 +5603,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>43</v>
+        <v>178</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5633,11 +5636,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>333</v>
+        <v>43</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>334</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5649,14 +5652,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>336</v>
+        <v>68</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5666,49 +5669,82 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>51</v>
+        <v>334</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
+        <v>335</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>336</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>337</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>37</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>51</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
         <v>52</v>
       </c>
-      <c t="s" r="Q128" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="129" ht="25.5" customHeight="1">
-      <c r="P129" s="13">
-        <v>6164.0299999999997</v>
-      </c>
-      <c r="Q129" s="13"/>
-    </row>
-    <row r="130" ht="16.5" customHeight="1">
-      <c t="s" r="A130" s="14">
-        <v>337</v>
-      </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c t="s" r="G130" s="15">
+      <c t="s" r="Q129" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="P130" s="13">
+        <v>6249.0299999999997</v>
+      </c>
+      <c r="Q130" s="13"/>
+    </row>
+    <row r="131" ht="16.5" customHeight="1">
+      <c t="s" r="A131" s="14">
         <v>338</v>
       </c>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="16"/>
-      <c t="s" r="K130" s="17">
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c t="s" r="G131" s="15">
         <v>339</v>
       </c>
-      <c r="L130" s="17"/>
-      <c r="M130" s="17"/>
-      <c r="N130" s="17"/>
-      <c r="O130" s="17"/>
-      <c r="P130" s="17"/>
-      <c r="Q130" s="17"/>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="16"/>
+      <c t="s" r="K131" s="17">
+        <v>340</v>
+      </c>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="622">
+  <mergeCells count="627">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6327,10 +6363,15 @@
     <mergeCell ref="H128:K128"/>
     <mergeCell ref="L128:M128"/>
     <mergeCell ref="N128:O128"/>
-    <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="K130:Q130"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="K131:Q131"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -104,6 +104,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -161,9 +173,6 @@
     <t>ASPOCID PAEDIATRIC 75MG 30 CHEWABLE TAB.</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
@@ -290,6 +299,18 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>CEFIDIME 1 GM VIAL I.M./I.V.</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>265.0000</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
@@ -299,6 +320,18 @@
     <t>86.0000</t>
   </si>
   <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -413,6 +446,15 @@
     <t>114.0000</t>
   </si>
   <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -635,381 +677,396 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>5:1</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>LACRITEARS EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>LEVCET 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>27.0600</t>
+  </si>
+  <si>
+    <t>MAVILOR 10MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>52.4700</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>MEMEXA 10MG 30F.C. TAB.</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>78.2100</t>
+  </si>
+  <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>MYOFEN 30 CAPS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>NEMO MOUTH SPRAY</t>
+  </si>
+  <si>
+    <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>111.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>OFRAMAX 1 GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>207.0000</t>
+  </si>
+  <si>
+    <t>PANTAZOL 40MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>-51.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>ROSITA HAIR CREAM 100 GM</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>ROWACHOL 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>SULPEPTA 25MGTAB</t>
+  </si>
+  <si>
+    <t>TARGOMASH 80MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
+    <t>TEARS GUARD 0.3% EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
+    <t>TRITACE 5MG 14 TAB</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>57.7500</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>VIRECTA 100 MG 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>14.5200</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>84.1500</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8382:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>ZADOGLOBIN 20 CAPS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>67.5000</t>
+  </si>
+  <si>
+    <t>ZELAGAP 0.05% EYE DROPS 6 ML</t>
+  </si>
+  <si>
+    <t>26.50</t>
+  </si>
+  <si>
+    <t>26.5000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>ZYRTEC 10MG/ML ORAL DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>45:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>90:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زيت شعر املا 180 مل </t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>سكاته بوب تون</t>
+  </si>
+  <si>
+    <t>شامبو فاتيكا 180مل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t xml:space="preserve">عضاضه الجو </t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>فرشاة اطفال ريتش ديلي</t>
+  </si>
+  <si>
+    <t>28:0</t>
+  </si>
+  <si>
+    <t>فرشاه فوكس</t>
+  </si>
+  <si>
+    <t>فرشه للشعر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>كحول طبي</t>
+  </si>
+  <si>
+    <t>كريم بانسيه</t>
+  </si>
+  <si>
+    <t>كريم فاتيكا 65 مل</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
     <t>48.0000</t>
   </si>
   <si>
-    <t>LACRITEARS EYE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>LEVCET 5MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>MACROFURAN 100 MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>27.0600</t>
-  </si>
-  <si>
-    <t>MAVILOR 10MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>159.00</t>
-  </si>
-  <si>
-    <t>52.4700</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>MEMEXA 10MG 30F.C. TAB.</t>
-  </si>
-  <si>
-    <t>237.00</t>
-  </si>
-  <si>
-    <t>78.2100</t>
-  </si>
-  <si>
-    <t>MILGA 40 TABLETS</t>
-  </si>
-  <si>
-    <t>MOOV MASSAGE CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>MYOFEN 30 CAPS</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>NEMO MOUTH SPRAY</t>
-  </si>
-  <si>
-    <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>111.00</t>
-  </si>
-  <si>
-    <t>111.0000</t>
-  </si>
-  <si>
-    <t>OFRAMAX 1 GM I.V. VIAL</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>OTAL EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>207.0000</t>
-  </si>
-  <si>
-    <t>PANTAZOL 40MG VIAL I.V.</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>-51.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>ROSITA HAIR CREAM 100 GM</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>ROWACHOL 45 CAPSULES</t>
-  </si>
-  <si>
-    <t>ROWATINEX 45 CAPSULES</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>SULPEPTA 25MGTAB</t>
-  </si>
-  <si>
-    <t>TARGOMASH 80MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>24.7500</t>
-  </si>
-  <si>
-    <t>TEARS GUARD 0.3% EYE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>TORSERETIC 20MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>40.5900</t>
-  </si>
-  <si>
-    <t>TRITACE 5MG 14 TAB</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>57.7500</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>VIRECTA 100 MG 12 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>14.5200</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>84.1500</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8382:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>ZADOGLOBIN 20 CAPS</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>67.5000</t>
-  </si>
-  <si>
-    <t>ZELAGAP 0.05% EYE DROPS 6 ML</t>
-  </si>
-  <si>
-    <t>26.50</t>
-  </si>
-  <si>
-    <t>26.5000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>ZYRTEC 10MG/ML ORAL DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>45:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>91:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">زيت شعر املا 180 مل </t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>24:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>سكاته بوب تون</t>
-  </si>
-  <si>
-    <t>شامبو فاتيكا 180مل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شفرات فينوس حريمي </t>
-  </si>
-  <si>
-    <t xml:space="preserve">عضاضه الجو </t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>فرشاة اطفال ريتش ديلي</t>
-  </si>
-  <si>
-    <t>28:0</t>
-  </si>
-  <si>
-    <t>فرشاه فوكس</t>
-  </si>
-  <si>
-    <t>فرشه للشعر</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>كحول طبي</t>
-  </si>
-  <si>
-    <t>كريم بانسيه</t>
-  </si>
-  <si>
-    <t>كريم فاتيكا 65 مل</t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
     <t xml:space="preserve">معجون سيجنال 120 مل </t>
   </si>
   <si>
@@ -1025,7 +1082,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 10:23 PM</t>
+    <t>Thursday, 21 August, 2025 10:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1870,15 +1927,15 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>30</v>
@@ -1890,28 +1947,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>30</v>
@@ -1930,7 +1987,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1940,14 +1997,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1956,14 +2013,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1973,14 +2030,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2006,14 +2063,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>52</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2029,7 +2086,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2062,7 +2119,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2072,14 +2129,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2088,14 +2145,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2112,7 +2169,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2128,7 +2185,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2138,14 +2195,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2154,14 +2211,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2171,14 +2228,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2187,14 +2244,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2227,7 +2284,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2244,7 +2301,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2260,7 +2317,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2277,7 +2334,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2293,13 +2350,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2326,21 +2383,21 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2352,14 +2409,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2369,14 +2426,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2385,14 +2442,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2402,7 +2459,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -2425,7 +2482,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2435,11 +2492,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>30</v>
@@ -2451,14 +2508,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2475,7 +2532,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2491,7 +2548,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2501,14 +2558,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>99</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2524,7 +2581,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2534,14 +2591,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2550,14 +2607,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2567,14 +2624,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2583,14 +2640,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2600,14 +2657,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2616,14 +2673,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2633,11 +2690,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2649,14 +2706,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2666,14 +2723,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2682,14 +2739,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2699,14 +2756,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2715,14 +2772,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2732,14 +2789,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2748,14 +2805,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2765,14 +2822,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>125</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2781,31 +2838,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2814,14 +2871,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2831,14 +2888,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2847,14 +2904,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2864,14 +2921,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2880,31 +2937,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2913,14 +2970,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2930,14 +2987,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2946,14 +3003,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2963,11 +3020,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2979,14 +3036,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2996,14 +3053,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3012,14 +3069,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3029,14 +3086,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3045,14 +3102,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3062,14 +3119,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>39</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3085,7 +3142,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3095,14 +3152,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>156</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3111,14 +3168,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3128,11 +3185,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3144,14 +3201,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3161,14 +3218,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>97</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3177,31 +3234,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3210,14 +3267,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3227,14 +3284,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3243,14 +3300,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3260,14 +3317,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3276,14 +3333,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3293,14 +3350,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>30</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3309,31 +3366,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>43</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3342,14 +3399,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3359,11 +3416,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3375,14 +3432,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3392,11 +3449,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>30</v>
@@ -3408,14 +3465,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3425,11 +3482,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>30</v>
@@ -3441,14 +3498,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3458,14 +3515,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>47</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3474,14 +3531,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3491,11 +3548,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3507,14 +3564,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3524,11 +3581,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>30</v>
@@ -3540,14 +3597,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3557,14 +3614,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3573,7 +3630,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3590,14 +3647,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3606,14 +3663,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3623,14 +3680,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3639,7 +3696,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3652,18 +3709,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>52</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3672,14 +3729,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3689,11 +3746,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3705,14 +3762,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3722,14 +3779,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3738,14 +3795,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>208</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3755,14 +3812,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>68</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>125</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3771,7 +3828,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3784,18 +3841,18 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3804,14 +3861,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3821,11 +3878,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>143</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3837,14 +3894,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3854,11 +3911,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3870,14 +3927,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3887,14 +3944,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3903,7 +3960,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3920,14 +3977,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3936,14 +3993,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3953,11 +4010,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>58</v>
+        <v>156</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3969,14 +4026,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3986,14 +4043,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4002,14 +4059,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4019,11 +4076,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>22</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>73</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>30</v>
@@ -4035,7 +4092,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4052,14 +4109,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>98</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>99</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4068,14 +4125,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4085,14 +4142,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>61</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4101,31 +4158,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>111</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4134,14 +4191,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4151,14 +4208,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>22</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4167,14 +4224,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4184,11 +4241,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>109</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4200,14 +4257,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4217,14 +4274,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>107</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4233,31 +4290,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>121</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4266,14 +4323,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4283,11 +4340,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>43</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4299,14 +4356,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4316,14 +4373,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4332,14 +4389,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4349,11 +4406,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4365,14 +4422,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4382,14 +4439,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>117</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>255</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4398,14 +4455,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4415,14 +4472,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4431,14 +4488,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4448,11 +4505,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>185</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4464,14 +4521,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4481,14 +4538,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>114</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>115</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4497,14 +4554,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4514,11 +4571,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4530,31 +4587,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>30</v>
+        <v>271</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4563,7 +4620,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4580,14 +4637,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4596,14 +4653,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4613,11 +4670,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>262</v>
+        <v>125</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>263</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4629,14 +4686,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>151</v>
+        <v>50</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4646,14 +4703,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>125</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4662,14 +4719,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4679,14 +4736,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4695,31 +4752,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4728,14 +4785,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>279</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4745,14 +4802,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>106</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>107</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4761,14 +4818,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4778,11 +4835,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>14</v>
+        <v>278</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>15</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4794,14 +4851,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4811,14 +4868,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4827,14 +4884,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>279</v>
+        <v>93</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4844,14 +4901,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>153</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4860,14 +4917,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4877,14 +4934,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4893,14 +4950,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>48</v>
+        <v>294</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4910,14 +4967,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>290</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>291</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4926,14 +4983,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>293</v>
+        <v>93</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4943,14 +5000,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>294</v>
+        <v>14</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>295</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4966,7 +5023,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4999,7 +5056,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>294</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5013,7 +5070,7 @@
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>301</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5025,14 +5082,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>303</v>
+        <v>155</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5042,14 +5099,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5058,14 +5115,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5075,14 +5132,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>92</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5091,31 +5148,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5124,31 +5181,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>312</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>217</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5157,28 +5214,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>303</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>142</v>
+        <v>314</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>143</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5190,31 +5247,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>210</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>316</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5223,31 +5280,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>318</v>
+        <v>101</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5256,28 +5313,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>68</v>
+        <v>321</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>178</v>
+        <v>322</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>179</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5289,31 +5346,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>151</v>
+        <v>325</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>196</v>
+        <v>326</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5322,31 +5379,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>313</v>
+        <v>156</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>217</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5355,31 +5412,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>323</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5388,31 +5445,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>325</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>333</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5421,31 +5478,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>279</v>
+        <v>12</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>178</v>
+        <v>335</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5454,28 +5511,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>303</v>
+        <v>71</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>52</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5487,31 +5544,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>309</v>
+        <v>210</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5520,31 +5577,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>310</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5553,28 +5610,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>178</v>
+        <v>322</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>179</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5586,28 +5643,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>18</v>
+        <v>342</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>178</v>
+        <v>322</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>179</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5619,28 +5676,28 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>68</v>
+        <v>294</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>43</v>
+        <v>192</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5652,28 +5709,28 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>334</v>
+        <v>54</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>335</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5685,66 +5742,264 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>337</v>
+        <v>12</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>51</v>
+        <v>322</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>52</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>16</v>
+        <v>165</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
-      <c r="P130" s="13">
-        <v>6249.0299999999997</v>
-      </c>
-      <c r="Q130" s="13"/>
-    </row>
-    <row r="131" ht="16.5" customHeight="1">
-      <c t="s" r="A131" s="14">
-        <v>338</v>
-      </c>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c t="s" r="G131" s="15">
-        <v>339</v>
-      </c>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="16"/>
-      <c t="s" r="K131" s="17">
-        <v>340</v>
-      </c>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="17"/>
-      <c r="O131" s="17"/>
-      <c r="P131" s="17"/>
-      <c r="Q131" s="17"/>
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>346</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>16</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>41</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>322</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>323</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>347</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>108</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>41</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>192</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>348</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>18</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>41</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>192</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>349</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>350</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>41</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>47</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>351</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>352</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>71</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>41</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>353</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>354</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>355</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>356</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>41</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>54</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="P136" s="13">
+        <v>6763.6949999999997</v>
+      </c>
+      <c r="Q136" s="13"/>
+    </row>
+    <row r="137" ht="16.5" customHeight="1">
+      <c t="s" r="A137" s="14">
+        <v>357</v>
+      </c>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c t="s" r="G137" s="15">
+        <v>358</v>
+      </c>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c t="s" r="K137" s="17">
+        <v>359</v>
+      </c>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="627">
+  <mergeCells count="657">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6368,10 +6623,40 @@
     <mergeCell ref="H129:K129"/>
     <mergeCell ref="L129:M129"/>
     <mergeCell ref="N129:O129"/>
-    <mergeCell ref="P130:Q130"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="K131:Q131"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="K137:Q137"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -200,6 +200,12 @@
     <t>9.1200</t>
   </si>
   <si>
+    <t>AWADIST COLD &amp; FLU 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
     <t>BACTICLOR 125MG/5ML SUSP. 60ML</t>
   </si>
   <si>
@@ -215,9 +221,6 @@
     <t>4:5</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>7.6800</t>
   </si>
   <si>
@@ -602,6 +605,15 @@
     <t>46.0350</t>
   </si>
   <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
     <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
   </si>
   <si>
@@ -1082,7 +1094,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 10:27 PM</t>
+    <t>Thursday, 21 August, 2025 10:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2199,10 +2211,10 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2211,14 +2223,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2228,14 +2240,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2244,14 +2256,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2261,14 +2273,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2277,14 +2289,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2294,11 +2306,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2310,14 +2322,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2327,14 +2339,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2343,14 +2355,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2360,14 +2372,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2376,28 +2388,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2409,28 +2421,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2449,7 +2461,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2459,14 +2471,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2475,14 +2487,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2492,11 +2504,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>30</v>
@@ -2508,14 +2520,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2525,11 +2537,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>30</v>
@@ -2541,14 +2553,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2558,14 +2570,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>99</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2574,14 +2586,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2591,14 +2603,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2607,14 +2619,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2624,14 +2636,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2640,14 +2652,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2657,14 +2669,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2673,14 +2685,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2690,11 +2702,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2706,14 +2718,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2723,11 +2735,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2739,14 +2751,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2756,14 +2768,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2779,7 +2791,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2789,14 +2801,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2805,14 +2817,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2822,14 +2834,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2838,14 +2850,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2855,14 +2867,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2871,14 +2883,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2888,14 +2900,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2904,14 +2916,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2921,14 +2933,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>136</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2937,31 +2949,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>30</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2970,31 +2982,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3003,7 +3015,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -3020,11 +3032,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -3036,14 +3048,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3053,14 +3065,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3069,14 +3081,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3086,14 +3098,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3102,14 +3114,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3119,14 +3131,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>93</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3135,14 +3147,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3152,14 +3164,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3168,14 +3180,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3185,11 +3197,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3201,14 +3213,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3218,14 +3230,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3234,14 +3246,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3251,14 +3263,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3267,14 +3279,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>71</v>
+        <v>166</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3284,14 +3296,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>68</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>170</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3300,14 +3312,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3317,14 +3329,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>64</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3333,14 +3345,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3350,14 +3362,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3366,31 +3378,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3399,31 +3411,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3432,14 +3444,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3449,14 +3461,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3465,14 +3477,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3482,11 +3494,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>30</v>
@@ -3498,14 +3510,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3515,14 +3527,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>47</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>69</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3531,14 +3543,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3548,14 +3560,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>192</v>
+        <v>47</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>193</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3564,14 +3576,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3581,14 +3593,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3597,14 +3609,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3614,11 +3626,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>30</v>
@@ -3630,14 +3642,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3647,14 +3659,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3663,14 +3675,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3680,14 +3692,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3696,7 +3708,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3713,11 +3725,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>30</v>
@@ -3729,14 +3741,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3746,11 +3758,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3762,7 +3774,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3779,14 +3791,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3795,14 +3807,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3812,14 +3824,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>68</v>
+        <v>214</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>215</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3841,18 +3853,18 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>55</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3878,14 +3890,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>166</v>
+        <v>64</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>219</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3901,24 +3913,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3927,14 +3939,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3944,7 +3956,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3967,7 +3979,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3977,11 +3989,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3993,14 +4005,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4010,11 +4022,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>156</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>157</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -4033,7 +4045,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4066,7 +4078,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4076,14 +4088,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>157</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4092,14 +4104,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4109,14 +4121,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4125,14 +4137,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4142,14 +4154,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4158,14 +4170,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4175,11 +4187,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>30</v>
@@ -4191,14 +4203,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4208,14 +4220,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>76</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4231,7 +4243,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4241,14 +4253,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>109</v>
+        <v>244</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>110</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4257,14 +4269,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4274,11 +4286,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>22</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>30</v>
@@ -4297,21 +4309,21 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4330,7 +4342,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4347,7 +4359,7 @@
         <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4363,24 +4375,24 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>122</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4389,14 +4401,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4406,11 +4418,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4422,14 +4434,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4439,14 +4451,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>117</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>118</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4462,7 +4474,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4479,7 +4491,7 @@
         <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4495,7 +4507,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4505,11 +4517,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4528,7 +4540,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4545,7 +4557,7 @@
         <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4561,7 +4573,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4571,11 +4583,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>47</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4587,14 +4599,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4604,14 +4616,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>271</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4620,7 +4632,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4637,11 +4649,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4653,14 +4665,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4670,14 +4682,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>125</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>199</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>275</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4693,7 +4705,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4703,14 +4715,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>125</v>
+        <v>277</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>126</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4719,14 +4731,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4736,11 +4748,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>126</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4759,21 +4771,21 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>245</v>
+        <v>126</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>246</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>30</v>
@@ -4792,7 +4804,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4809,7 +4821,7 @@
         <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4825,24 +4837,24 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4858,7 +4870,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4875,7 +4887,7 @@
         <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4891,7 +4903,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4901,14 +4913,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4917,14 +4929,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4934,11 +4946,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4950,14 +4962,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>294</v>
+        <v>94</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4967,14 +4979,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>117</v>
+        <v>293</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>118</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4990,7 +5002,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5000,11 +5012,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>14</v>
+        <v>296</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>15</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -5016,14 +5028,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>93</v>
+        <v>298</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5033,14 +5045,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>297</v>
+        <v>118</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>298</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5056,7 +5068,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>294</v>
+        <v>94</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5066,11 +5078,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>300</v>
+        <v>14</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5082,14 +5094,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5099,11 +5111,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>30</v>
@@ -5115,14 +5127,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>52</v>
+        <v>298</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5132,14 +5144,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>159</v>
+        <v>304</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>305</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5148,14 +5160,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>307</v>
+        <v>156</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5165,14 +5177,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5181,14 +5193,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5198,14 +5210,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>311</v>
+        <v>160</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>30</v>
+        <v>105</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5214,14 +5226,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5231,14 +5243,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5247,14 +5259,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5264,14 +5276,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5280,14 +5292,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5297,11 +5309,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>101</v>
+        <v>318</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>95</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5320,21 +5332,21 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>321</v>
+        <v>100</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5346,31 +5358,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>325</v>
+        <v>166</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>326</v>
+        <v>102</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>223</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>165</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5379,14 +5391,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5396,11 +5408,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>156</v>
+        <v>326</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>157</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5419,7 +5431,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>12</v>
+        <v>329</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5429,14 +5441,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>330</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>108</v>
+        <v>166</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5452,7 +5464,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5462,14 +5474,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>308</v>
+        <v>157</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>332</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>333</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5478,7 +5490,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5495,14 +5507,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>129</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>71</v>
+        <v>109</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5511,14 +5523,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5528,14 +5540,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>192</v>
+        <v>312</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>193</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>337</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5544,14 +5556,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5561,14 +5573,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>210</v>
+        <v>339</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>211</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5577,14 +5589,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5594,14 +5606,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>326</v>
+        <v>193</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5610,14 +5622,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>340</v>
+        <v>166</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5627,11 +5639,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>322</v>
+        <v>214</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>323</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5643,14 +5655,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>342</v>
+        <v>117</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5660,14 +5672,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>323</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5683,7 +5695,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5693,11 +5705,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>192</v>
+        <v>326</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>193</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5709,14 +5721,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>99</v>
+        <v>346</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5726,11 +5738,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>54</v>
+        <v>326</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>55</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5742,14 +5754,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>12</v>
+        <v>298</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5759,14 +5771,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>322</v>
+        <v>193</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>165</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5775,14 +5787,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5792,11 +5804,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>322</v>
+        <v>54</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>323</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5808,14 +5820,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5825,14 +5837,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>192</v>
+        <v>326</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>16</v>
+        <v>166</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5841,14 +5853,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5858,11 +5870,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>192</v>
+        <v>326</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>193</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5874,14 +5886,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>350</v>
+        <v>109</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5891,14 +5903,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>351</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5914,7 +5926,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5924,11 +5936,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>353</v>
+        <v>193</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>354</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -5940,14 +5952,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5957,49 +5969,115 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
+        <v>355</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
+        <v>356</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>72</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>41</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>357</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>358</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
+        <v>359</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>360</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>41</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>54</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
         <v>55</v>
       </c>
-      <c t="s" r="Q135" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="136" ht="25.5" customHeight="1">
-      <c r="P136" s="13">
-        <v>6763.6949999999997</v>
-      </c>
-      <c r="Q136" s="13"/>
-    </row>
-    <row r="137" ht="16.5" customHeight="1">
-      <c t="s" r="A137" s="14">
-        <v>357</v>
-      </c>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c t="s" r="G137" s="15">
-        <v>358</v>
-      </c>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="16"/>
-      <c t="s" r="K137" s="17">
-        <v>359</v>
-      </c>
-      <c r="L137" s="17"/>
-      <c r="M137" s="17"/>
-      <c r="N137" s="17"/>
-      <c r="O137" s="17"/>
-      <c r="P137" s="17"/>
-      <c r="Q137" s="17"/>
+      <c t="s" r="Q137" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="P138" s="13">
+        <v>6858.6949999999997</v>
+      </c>
+      <c r="Q138" s="13"/>
+    </row>
+    <row r="139" ht="16.5" customHeight="1">
+      <c t="s" r="A139" s="14">
+        <v>361</v>
+      </c>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c t="s" r="G139" s="15">
+        <v>362</v>
+      </c>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="16"/>
+      <c t="s" r="K139" s="17">
+        <v>363</v>
+      </c>
+      <c r="L139" s="17"/>
+      <c r="M139" s="17"/>
+      <c r="N139" s="17"/>
+      <c r="O139" s="17"/>
+      <c r="P139" s="17"/>
+      <c r="Q139" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="657">
+  <mergeCells count="667">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6653,10 +6731,20 @@
     <mergeCell ref="H135:K135"/>
     <mergeCell ref="L135:M135"/>
     <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P136:Q136"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="K137:Q137"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="P138:Q138"/>
+    <mergeCell ref="A139:F139"/>
+    <mergeCell ref="G139:I139"/>
+    <mergeCell ref="K139:Q139"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -818,6 +818,9 @@
     <t>207.0000</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
     <t>PANTAZOL 40MG VIAL I.V.</t>
   </si>
   <si>
@@ -1094,7 +1097,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 10:29 PM</t>
+    <t>Thursday, 21 August, 2025 10:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4639,24 +4642,24 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>22</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4665,14 +4668,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4682,14 +4685,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>275</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4698,14 +4701,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4715,14 +4718,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>276</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4731,14 +4734,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4748,11 +4751,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>126</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>203</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4771,7 +4774,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4785,10 +4788,10 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>127</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4814,14 +4817,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>126</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4830,31 +4833,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4870,21 +4873,21 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>30</v>
@@ -4896,14 +4899,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4913,14 +4916,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4936,7 +4939,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4946,11 +4949,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4962,14 +4965,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4979,14 +4982,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4995,14 +4998,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5012,14 +5015,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5028,14 +5031,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>298</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5045,11 +5048,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>118</v>
+        <v>297</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>119</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5061,14 +5064,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>94</v>
+        <v>299</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5078,11 +5081,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5111,14 +5114,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>301</v>
+        <v>14</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>302</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5127,14 +5130,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>298</v>
+        <v>94</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5144,14 +5147,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>168</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5160,14 +5163,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>156</v>
+        <v>299</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5177,14 +5180,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>307</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5193,14 +5196,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5210,14 +5213,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>160</v>
+        <v>307</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>105</v>
+        <v>30</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5226,14 +5229,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>311</v>
+        <v>52</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5243,14 +5246,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>312</v>
+        <v>160</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>18</v>
+        <v>105</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5259,14 +5262,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>16</v>
+        <v>312</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5276,14 +5279,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5292,14 +5295,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5309,14 +5312,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5325,14 +5328,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5342,11 +5345,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5358,14 +5361,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5375,11 +5378,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>102</v>
+        <v>322</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>96</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5398,21 +5401,21 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>325</v>
+        <v>166</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>326</v>
+        <v>102</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>327</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5424,14 +5427,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5441,14 +5444,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>227</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>166</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5457,14 +5460,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5474,14 +5477,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>157</v>
+        <v>331</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>158</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>166</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5497,7 +5500,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5507,14 +5510,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>333</v>
+        <v>157</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>334</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5523,7 +5526,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5540,14 +5543,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>337</v>
+        <v>109</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5556,7 +5559,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5573,14 +5576,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>130</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>72</v>
+        <v>338</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5589,14 +5592,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5606,14 +5609,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>193</v>
+        <v>340</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5629,7 +5632,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>166</v>
+        <v>72</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5639,11 +5642,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5662,7 +5665,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5672,14 +5675,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>330</v>
+        <v>214</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5695,7 +5698,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>344</v>
+        <v>117</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5705,14 +5708,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>327</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5721,14 +5724,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5738,11 +5741,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5754,14 +5757,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>298</v>
+        <v>347</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5771,11 +5774,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>193</v>
+        <v>327</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>194</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5794,7 +5797,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>100</v>
+        <v>299</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5804,11 +5807,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>54</v>
+        <v>193</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>55</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5827,7 +5830,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5837,14 +5840,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>326</v>
+        <v>54</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>215</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>166</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5860,7 +5863,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5870,14 +5873,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>327</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>16</v>
+        <v>166</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5893,7 +5896,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5903,11 +5906,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>193</v>
+        <v>327</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>194</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -5926,7 +5929,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5959,7 +5962,7 @@
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>354</v>
+        <v>18</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5969,14 +5972,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>355</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -5985,14 +5988,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>72</v>
+        <v>355</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6002,14 +6005,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>357</v>
+        <v>47</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6018,14 +6021,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>360</v>
+        <v>72</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6035,49 +6038,82 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>54</v>
+        <v>358</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
+        <v>359</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
+        <v>360</v>
+      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>361</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>41</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>54</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
         <v>55</v>
       </c>
-      <c t="s" r="Q137" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="138" ht="24.75" customHeight="1">
-      <c r="P138" s="13">
-        <v>6858.6949999999997</v>
-      </c>
-      <c r="Q138" s="13"/>
-    </row>
-    <row r="139" ht="16.5" customHeight="1">
-      <c t="s" r="A139" s="14">
-        <v>361</v>
-      </c>
-      <c r="B139" s="14"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c t="s" r="G139" s="15">
+      <c t="s" r="Q138" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="P139" s="13">
+        <v>6885.6949999999997</v>
+      </c>
+      <c r="Q139" s="13"/>
+    </row>
+    <row r="140" ht="16.5" customHeight="1">
+      <c t="s" r="A140" s="14">
         <v>362</v>
       </c>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
-      <c r="J139" s="16"/>
-      <c t="s" r="K139" s="17">
+      <c r="B140" s="14"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
+      <c t="s" r="G140" s="15">
         <v>363</v>
       </c>
-      <c r="L139" s="17"/>
-      <c r="M139" s="17"/>
-      <c r="N139" s="17"/>
-      <c r="O139" s="17"/>
-      <c r="P139" s="17"/>
-      <c r="Q139" s="17"/>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="16"/>
+      <c t="s" r="K140" s="17">
+        <v>364</v>
+      </c>
+      <c r="L140" s="17"/>
+      <c r="M140" s="17"/>
+      <c r="N140" s="17"/>
+      <c r="O140" s="17"/>
+      <c r="P140" s="17"/>
+      <c r="Q140" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="667">
+  <mergeCells count="672">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6741,10 +6777,15 @@
     <mergeCell ref="H137:K137"/>
     <mergeCell ref="L137:M137"/>
     <mergeCell ref="N137:O137"/>
-    <mergeCell ref="P138:Q138"/>
-    <mergeCell ref="A139:F139"/>
-    <mergeCell ref="G139:I139"/>
-    <mergeCell ref="K139:Q139"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="P139:Q139"/>
+    <mergeCell ref="A140:F140"/>
+    <mergeCell ref="G140:I140"/>
+    <mergeCell ref="K140:Q140"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -1097,7 +1097,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 10:35 PM</t>
+    <t>Thursday, 21 August, 2025 10:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -383,6 +383,15 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -998,6 +1007,12 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>28:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -1052,9 +1067,6 @@
     <t>فرشاة اطفال ريتش ديلي</t>
   </si>
   <si>
-    <t>28:0</t>
-  </si>
-  <si>
     <t>فرشاه فوكس</t>
   </si>
   <si>
@@ -1097,7 +1109,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 10:36 PM</t>
+    <t>Thursday, 21 August, 2025 10:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2860,7 +2872,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2870,11 +2882,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>30</v>
@@ -2886,14 +2898,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2910,7 +2922,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2926,7 +2938,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2943,7 +2955,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2959,7 +2971,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2976,7 +2988,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>137</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2985,31 +2997,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q45" s="12">
         <v>140</v>
-      </c>
-      <c t="s" r="Q45" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3025,13 +3037,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -3042,7 +3054,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3068,11 +3080,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -3084,14 +3096,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3101,14 +3113,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3124,7 +3136,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3141,7 +3153,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3157,7 +3169,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3167,14 +3179,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>94</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3200,14 +3212,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3216,14 +3228,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3256,7 +3268,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3266,14 +3278,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3299,14 +3311,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3315,14 +3327,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3332,14 +3344,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>171</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3355,7 +3367,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3365,14 +3377,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>64</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q56" s="12">
         <v>174</v>
-      </c>
-      <c t="s" r="Q56" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3388,7 +3400,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3405,7 +3417,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3421,13 +3433,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3438,7 +3450,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3454,13 +3466,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3471,7 +3483,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3487,7 +3499,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3504,7 +3516,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3520,7 +3532,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3553,7 +3565,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>191</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3563,14 +3575,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>47</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>70</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3579,14 +3591,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3596,14 +3608,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>47</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3619,7 +3631,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>94</v>
+        <v>169</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3636,7 +3648,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3652,7 +3664,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3669,7 +3681,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3685,7 +3697,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3702,7 +3714,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3718,7 +3730,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3751,7 +3763,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3768,7 +3780,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3784,7 +3796,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3801,7 +3813,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3817,7 +3829,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3834,7 +3846,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3850,7 +3862,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3860,14 +3872,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3876,14 +3888,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3893,14 +3905,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>64</v>
+        <v>191</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3909,31 +3921,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>221</v>
+        <v>64</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>55</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3942,31 +3954,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>223</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3975,7 +3987,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3992,11 +4004,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -4008,14 +4020,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4025,11 +4037,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -4048,7 +4060,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4081,7 +4093,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4091,11 +4103,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>157</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>158</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4107,7 +4119,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4124,11 +4136,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>160</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4147,7 +4159,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4164,7 +4176,7 @@
         <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4180,7 +4192,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4213,7 +4225,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4223,14 +4235,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>61</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4239,14 +4251,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4256,14 +4268,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>244</v>
+        <v>61</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4279,7 +4291,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4289,11 +4301,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>22</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>30</v>
@@ -4305,14 +4317,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4322,14 +4334,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4338,7 +4350,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4355,14 +4367,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>110</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4378,24 +4390,24 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>122</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>123</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4404,7 +4416,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4417,15 +4429,15 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>122</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4444,7 +4456,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4461,7 +4473,7 @@
         <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4477,7 +4489,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4494,7 +4506,7 @@
         <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4510,7 +4522,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4520,11 +4532,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>118</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>119</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4536,14 +4548,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4553,14 +4565,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>118</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4576,7 +4588,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4586,14 +4598,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>47</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>48</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4602,14 +4614,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4619,14 +4631,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>47</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4642,24 +4654,24 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>22</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4668,31 +4680,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>22</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4708,7 +4720,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4725,7 +4737,7 @@
         <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>276</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4734,14 +4746,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4751,14 +4763,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
+        <v>278</v>
+      </c>
+      <c t="s" r="Q98" s="12">
         <v>279</v>
-      </c>
-      <c t="s" r="Q98" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4774,7 +4786,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4784,11 +4796,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>126</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>203</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4800,14 +4812,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4817,14 +4829,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>127</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4833,7 +4845,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4850,14 +4862,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>129</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4873,24 +4885,24 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>249</v>
+        <v>286</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4899,28 +4911,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>30</v>
@@ -4939,7 +4951,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4949,14 +4961,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4965,14 +4977,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4982,11 +4994,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -5005,7 +5017,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>94</v>
+        <v>169</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5022,7 +5034,7 @@
         <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5038,7 +5050,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5052,10 +5064,10 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5064,14 +5076,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>299</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5081,11 +5093,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>118</v>
+        <v>300</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5097,14 +5109,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>94</v>
+        <v>302</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5114,11 +5126,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5130,7 +5142,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5147,14 +5159,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>302</v>
+        <v>14</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>303</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5170,7 +5182,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>299</v>
+        <v>94</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5184,10 +5196,10 @@
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>168</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5196,14 +5208,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>156</v>
+        <v>302</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5213,14 +5225,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>308</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5236,7 +5248,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5246,14 +5258,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>160</v>
+        <v>310</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>105</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5262,14 +5274,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>312</v>
+        <v>52</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5279,14 +5291,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>313</v>
+        <v>163</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>18</v>
+        <v>105</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5295,14 +5307,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>315</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5319,7 +5331,7 @@
         <v>317</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5335,7 +5347,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5352,7 +5364,7 @@
         <v>320</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5368,7 +5380,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5401,7 +5413,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5411,11 +5423,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>102</v>
+        <v>325</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>96</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5427,28 +5439,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>326</v>
+        <v>169</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>327</v>
+        <v>102</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>328</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5460,14 +5472,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5477,14 +5489,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>227</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>166</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5500,7 +5512,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>100</v>
+        <v>333</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5510,11 +5522,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5526,14 +5538,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>12</v>
+        <v>335</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5543,14 +5555,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>335</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>109</v>
+        <v>169</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5559,14 +5571,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5576,14 +5588,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>313</v>
+        <v>160</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>337</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>338</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5592,7 +5604,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5609,14 +5621,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>130</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>72</v>
+        <v>109</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5632,7 +5644,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5642,14 +5654,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>193</v>
+        <v>316</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>194</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>343</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5658,14 +5670,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5675,14 +5687,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>214</v>
+        <v>345</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>215</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5691,14 +5703,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5708,14 +5720,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>331</v>
+        <v>196</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5724,14 +5736,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>345</v>
+        <v>169</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5741,11 +5753,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>327</v>
+        <v>217</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>328</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5757,14 +5769,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>347</v>
+        <v>117</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5774,14 +5786,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>328</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5790,14 +5802,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>299</v>
+        <v>350</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5807,11 +5819,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>193</v>
+        <v>330</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>194</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5823,14 +5835,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>100</v>
+        <v>333</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5840,11 +5852,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>54</v>
+        <v>330</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>55</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5856,14 +5868,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>12</v>
+        <v>302</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5873,14 +5885,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>327</v>
+        <v>196</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>166</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5889,14 +5901,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5906,11 +5918,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>327</v>
+        <v>54</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>328</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -5922,14 +5934,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5939,14 +5951,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>193</v>
+        <v>330</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>16</v>
+        <v>169</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5955,14 +5967,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5972,11 +5984,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>193</v>
+        <v>330</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>194</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -5988,14 +6000,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>355</v>
+        <v>109</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6005,14 +6017,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>47</v>
+        <v>196</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>356</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6028,7 +6040,7 @@
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6038,11 +6050,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>358</v>
+        <v>196</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>359</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>16</v>
@@ -6054,14 +6066,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6071,49 +6083,115 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
+        <v>360</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
+        <v>361</v>
+      </c>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>72</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>41</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
+        <v>362</v>
+      </c>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
+        <v>363</v>
+      </c>
+      <c t="s" r="Q139" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c t="s" r="C140" s="8">
+        <v>364</v>
+      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
+        <v>365</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c t="s" r="L140" s="10">
+        <v>41</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c t="s" r="N140" s="8">
+        <v>54</v>
+      </c>
+      <c r="O140" s="8"/>
+      <c t="s" r="P140" s="11">
         <v>55</v>
       </c>
-      <c t="s" r="Q138" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="139" ht="25.5" customHeight="1">
-      <c r="P139" s="13">
-        <v>6885.6949999999997</v>
-      </c>
-      <c r="Q139" s="13"/>
-    </row>
-    <row r="140" ht="16.5" customHeight="1">
-      <c t="s" r="A140" s="14">
-        <v>362</v>
-      </c>
-      <c r="B140" s="14"/>
-      <c r="C140" s="14"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
-      <c t="s" r="G140" s="15">
-        <v>363</v>
-      </c>
-      <c r="H140" s="15"/>
-      <c r="I140" s="15"/>
-      <c r="J140" s="16"/>
-      <c t="s" r="K140" s="17">
-        <v>364</v>
-      </c>
-      <c r="L140" s="17"/>
-      <c r="M140" s="17"/>
-      <c r="N140" s="17"/>
-      <c r="O140" s="17"/>
-      <c r="P140" s="17"/>
-      <c r="Q140" s="17"/>
+      <c t="s" r="Q140" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="P141" s="13">
+        <v>6953.5950000000003</v>
+      </c>
+      <c r="Q141" s="13"/>
+    </row>
+    <row r="142" ht="16.5" customHeight="1">
+      <c t="s" r="A142" s="14">
+        <v>366</v>
+      </c>
+      <c r="B142" s="14"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
+      <c t="s" r="G142" s="15">
+        <v>367</v>
+      </c>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="16"/>
+      <c t="s" r="K142" s="17">
+        <v>368</v>
+      </c>
+      <c r="L142" s="17"/>
+      <c r="M142" s="17"/>
+      <c r="N142" s="17"/>
+      <c r="O142" s="17"/>
+      <c r="P142" s="17"/>
+      <c r="Q142" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="672">
+  <mergeCells count="682">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6782,10 +6860,20 @@
     <mergeCell ref="H138:K138"/>
     <mergeCell ref="L138:M138"/>
     <mergeCell ref="N138:O138"/>
-    <mergeCell ref="P139:Q139"/>
-    <mergeCell ref="A140:F140"/>
-    <mergeCell ref="G140:I140"/>
-    <mergeCell ref="K140:Q140"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="P141:Q141"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="G142:I142"/>
+    <mergeCell ref="K142:Q142"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -1109,7 +1109,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 10:48 PM</t>
+    <t>Thursday, 21 August, 2025 10:52 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -392,6 +392,15 @@
     <t>42.9000</t>
   </si>
   <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -413,6 +422,15 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
     <t>CONVENTIN 300MG 30 CAPS.</t>
   </si>
   <si>
@@ -545,6 +563,15 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>EKMASONID 9 MG 10 E.R.F.C.TABS.</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
@@ -1109,7 +1136,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 10:52 PM</t>
+    <t>Thursday, 21 August, 2025 10:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2905,7 +2932,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2915,11 +2942,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>30</v>
@@ -2931,14 +2958,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2955,7 +2982,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2971,7 +2998,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2988,7 +3015,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3004,7 +3031,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3021,7 +3048,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>140</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3030,7 +3057,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -3043,15 +3070,15 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>30</v>
@@ -3063,14 +3090,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3080,14 +3107,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>146</v>
-      </c>
-      <c t="s" r="Q47" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3103,24 +3130,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3129,14 +3156,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3146,14 +3173,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3162,7 +3189,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3179,14 +3206,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3202,7 +3229,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3212,14 +3239,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>94</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3235,7 +3262,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3245,14 +3272,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3261,14 +3288,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3278,14 +3305,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3294,14 +3321,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3311,14 +3338,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3334,7 +3361,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3344,14 +3371,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3360,14 +3387,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3377,14 +3404,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>174</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3393,14 +3420,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3417,7 +3444,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3433,7 +3460,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3443,14 +3470,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>64</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q58" s="12">
         <v>180</v>
-      </c>
-      <c t="s" r="Q58" s="12">
-        <v>109</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3472,7 +3499,7 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3483,7 +3510,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3499,7 +3526,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3549,7 +3576,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3565,13 +3592,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3598,7 +3625,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>194</v>
+        <v>30</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3608,14 +3635,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>47</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>70</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3624,14 +3651,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3641,14 +3668,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3657,14 +3684,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3674,11 +3701,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>30</v>
@@ -3690,14 +3717,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>30</v>
+        <v>203</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3707,14 +3734,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>202</v>
+        <v>47</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>203</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3730,7 +3757,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3747,7 +3774,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3763,7 +3790,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3796,7 +3823,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3829,7 +3856,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3862,7 +3889,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3879,7 +3906,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3895,7 +3922,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3905,14 +3932,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3921,14 +3948,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3938,11 +3965,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>64</v>
+        <v>223</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>30</v>
@@ -3954,31 +3981,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>55</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3987,14 +4014,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4004,14 +4031,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4020,7 +4047,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4037,14 +4064,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>64</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4053,31 +4080,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4086,14 +4113,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4103,11 +4130,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>176</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4119,14 +4146,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4136,11 +4163,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>161</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4152,14 +4179,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4169,11 +4196,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4185,14 +4212,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4202,14 +4229,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4218,14 +4245,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4235,14 +4262,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>166</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4258,7 +4285,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4268,11 +4295,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>61</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4284,14 +4311,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4301,11 +4328,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>30</v>
@@ -4317,14 +4344,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4334,11 +4361,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>22</v>
+        <v>251</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>77</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>30</v>
@@ -4350,14 +4377,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4367,11 +4394,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>111</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4383,14 +4410,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4400,11 +4427,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>30</v>
@@ -4416,31 +4443,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4449,14 +4476,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4466,11 +4493,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>110</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4482,7 +4509,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4499,11 +4526,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>30</v>
@@ -4515,28 +4542,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>262</v>
+        <v>122</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4555,7 +4582,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4565,11 +4592,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>118</v>
+        <v>265</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>119</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4581,14 +4608,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4598,14 +4625,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4614,7 +4641,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4631,11 +4658,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>47</v>
+        <v>271</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>48</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4647,14 +4674,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4664,14 +4691,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>118</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4680,31 +4707,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4713,14 +4740,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4730,11 +4757,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>47</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4746,14 +4773,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4763,14 +4790,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>279</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4779,31 +4806,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>22</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4812,14 +4839,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4829,11 +4856,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>129</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>206</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4845,14 +4872,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4862,14 +4889,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>129</v>
+        <v>286</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>130</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>30</v>
+        <v>288</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4878,14 +4905,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4895,11 +4922,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4911,31 +4938,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>252</v>
+        <v>132</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4944,14 +4971,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4961,11 +4988,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>132</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>30</v>
@@ -4977,14 +5004,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4994,11 +5021,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -5010,31 +5037,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>169</v>
+        <v>43</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5043,14 +5070,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5060,11 +5087,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>30</v>
@@ -5076,14 +5103,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5093,11 +5120,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5109,14 +5136,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>302</v>
+        <v>175</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5126,11 +5153,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>118</v>
+        <v>303</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>119</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5142,7 +5169,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5159,14 +5186,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>14</v>
+        <v>306</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>15</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5175,14 +5202,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5192,14 +5219,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5208,14 +5235,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5225,11 +5252,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>308</v>
+        <v>118</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5241,14 +5268,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5258,14 +5285,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>310</v>
+        <v>14</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>311</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5274,14 +5301,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5291,14 +5318,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>163</v>
+        <v>314</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>105</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5307,14 +5334,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5324,14 +5351,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>317</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5347,7 +5374,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5380,7 +5407,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5390,14 +5417,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>322</v>
+        <v>169</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5406,14 +5433,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>100</v>
+        <v>324</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5430,7 +5457,7 @@
         <v>326</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5446,7 +5473,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5456,14 +5483,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>102</v>
+        <v>328</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>96</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5472,28 +5499,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>329</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5505,28 +5532,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>333</v>
+        <v>100</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>145</v>
+        <v>334</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>146</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5538,31 +5565,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>335</v>
+        <v>175</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>336</v>
+        <v>102</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>230</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>169</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5578,7 +5605,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>100</v>
+        <v>338</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5588,11 +5615,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>160</v>
+        <v>339</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>161</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5604,14 +5631,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5621,14 +5648,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>339</v>
+        <v>151</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>340</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5637,14 +5664,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>12</v>
+        <v>344</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5654,14 +5681,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>342</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>343</v>
+        <v>175</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5670,14 +5697,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5687,14 +5714,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>345</v>
+        <v>166</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5703,14 +5730,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5720,14 +5747,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>196</v>
+        <v>348</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>197</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5736,14 +5763,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5753,14 +5780,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>217</v>
+        <v>325</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>218</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>352</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5769,14 +5796,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5786,14 +5813,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>237</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>18</v>
+        <v>72</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5802,14 +5829,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>350</v>
+        <v>72</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5819,11 +5846,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>330</v>
+        <v>205</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>331</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5835,14 +5862,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>333</v>
+        <v>175</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5852,11 +5879,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>330</v>
+        <v>226</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>331</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5868,14 +5895,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>302</v>
+        <v>117</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5885,14 +5912,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>196</v>
+        <v>345</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>197</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5901,14 +5928,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>100</v>
+        <v>359</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5918,11 +5945,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>54</v>
+        <v>339</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>55</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -5934,14 +5961,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5951,14 +5978,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>218</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>169</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5967,14 +5994,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>16</v>
+        <v>311</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5984,11 +6011,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>330</v>
+        <v>205</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>331</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -6000,14 +6027,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6017,11 +6044,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>196</v>
+        <v>54</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>197</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>16</v>
@@ -6033,14 +6060,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6050,14 +6077,14 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>196</v>
+        <v>339</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>16</v>
+        <v>175</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6066,14 +6093,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>359</v>
+        <v>16</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6083,14 +6110,14 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>47</v>
+        <v>339</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6099,14 +6126,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6116,11 +6143,11 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>362</v>
+        <v>205</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>363</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>16</v>
@@ -6132,14 +6159,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>365</v>
+        <v>18</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6149,49 +6176,148 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>54</v>
+        <v>205</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="A141" s="7">
+        <v>135</v>
+      </c>
+      <c r="B141" s="7"/>
+      <c t="s" r="C141" s="8">
+        <v>367</v>
+      </c>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c t="s" r="H141" s="9">
+        <v>368</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c t="s" r="L141" s="10">
+        <v>41</v>
+      </c>
+      <c r="M141" s="10"/>
+      <c t="s" r="N141" s="8">
+        <v>47</v>
+      </c>
+      <c r="O141" s="8"/>
+      <c t="s" r="P141" s="11">
+        <v>369</v>
+      </c>
+      <c t="s" r="Q141" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="A142" s="7">
+        <v>136</v>
+      </c>
+      <c r="B142" s="7"/>
+      <c t="s" r="C142" s="8">
+        <v>370</v>
+      </c>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c t="s" r="H142" s="9">
+        <v>72</v>
+      </c>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c t="s" r="L142" s="10">
+        <v>41</v>
+      </c>
+      <c r="M142" s="10"/>
+      <c t="s" r="N142" s="8">
+        <v>371</v>
+      </c>
+      <c r="O142" s="8"/>
+      <c t="s" r="P142" s="11">
+        <v>372</v>
+      </c>
+      <c t="s" r="Q142" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" ht="24.75" customHeight="1">
+      <c r="A143" s="7">
+        <v>137</v>
+      </c>
+      <c r="B143" s="7"/>
+      <c t="s" r="C143" s="8">
+        <v>373</v>
+      </c>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c t="s" r="H143" s="9">
+        <v>374</v>
+      </c>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c t="s" r="L143" s="10">
+        <v>41</v>
+      </c>
+      <c r="M143" s="10"/>
+      <c t="s" r="N143" s="8">
+        <v>54</v>
+      </c>
+      <c r="O143" s="8"/>
+      <c t="s" r="P143" s="11">
         <v>55</v>
       </c>
-      <c t="s" r="Q140" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="141" ht="25.5" customHeight="1">
-      <c r="P141" s="13">
-        <v>6953.5950000000003</v>
-      </c>
-      <c r="Q141" s="13"/>
-    </row>
-    <row r="142" ht="16.5" customHeight="1">
-      <c t="s" r="A142" s="14">
-        <v>366</v>
-      </c>
-      <c r="B142" s="14"/>
-      <c r="C142" s="14"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
-      <c t="s" r="G142" s="15">
-        <v>367</v>
-      </c>
-      <c r="H142" s="15"/>
-      <c r="I142" s="15"/>
-      <c r="J142" s="16"/>
-      <c t="s" r="K142" s="17">
-        <v>368</v>
-      </c>
-      <c r="L142" s="17"/>
-      <c r="M142" s="17"/>
-      <c r="N142" s="17"/>
-      <c r="O142" s="17"/>
-      <c r="P142" s="17"/>
-      <c r="Q142" s="17"/>
+      <c t="s" r="Q143" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" ht="25.5" customHeight="1">
+      <c r="P144" s="13">
+        <v>7269.2449999999999</v>
+      </c>
+      <c r="Q144" s="13"/>
+    </row>
+    <row r="145" ht="16.5" customHeight="1">
+      <c t="s" r="A145" s="14">
+        <v>375</v>
+      </c>
+      <c r="B145" s="14"/>
+      <c r="C145" s="14"/>
+      <c r="D145" s="14"/>
+      <c r="E145" s="14"/>
+      <c r="F145" s="14"/>
+      <c t="s" r="G145" s="15">
+        <v>376</v>
+      </c>
+      <c r="H145" s="15"/>
+      <c r="I145" s="15"/>
+      <c r="J145" s="16"/>
+      <c t="s" r="K145" s="17">
+        <v>377</v>
+      </c>
+      <c r="L145" s="17"/>
+      <c r="M145" s="17"/>
+      <c r="N145" s="17"/>
+      <c r="O145" s="17"/>
+      <c r="P145" s="17"/>
+      <c r="Q145" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="682">
+  <mergeCells count="697">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6870,10 +6996,25 @@
     <mergeCell ref="H140:K140"/>
     <mergeCell ref="L140:M140"/>
     <mergeCell ref="N140:O140"/>
-    <mergeCell ref="P141:Q141"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="G142:I142"/>
-    <mergeCell ref="K142:Q142"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:G142"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="N142:O142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="L143:M143"/>
+    <mergeCell ref="N143:O143"/>
+    <mergeCell ref="P144:Q144"/>
+    <mergeCell ref="A145:F145"/>
+    <mergeCell ref="G145:I145"/>
+    <mergeCell ref="K145:Q145"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -1136,7 +1136,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 10:57 PM</t>
+    <t>Thursday, 21 August, 2025 11:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -1136,7 +1136,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Thursday, 21 August, 2025 11:11 PM</t>
+    <t>Thursday, 21 August, 2025 11:38 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -317,10 +317,16 @@
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
+    <t>10:0</t>
+  </si>
+  <si>
     <t>43.00</t>
   </si>
   <si>
-    <t>86.0000</t>
+    <t>129.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
   </si>
   <si>
     <t>CETAFEN PLUS 30 TAB.</t>
@@ -413,6 +419,15 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>CONGESTAL SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -503,6 +518,15 @@
     <t>47.5200</t>
   </si>
   <si>
+    <t>DENTINOX 2.65% INFANT COLIC DROPS 100 ML</t>
+  </si>
+  <si>
+    <t>103.00</t>
+  </si>
+  <si>
+    <t>103.0000</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -536,9 +560,6 @@
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>65.00</t>
   </si>
   <si>
@@ -578,7 +599,7 @@
     <t>52.00</t>
   </si>
   <si>
-    <t>208.0000</t>
+    <t>260.0000</t>
   </si>
   <si>
     <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
@@ -671,12 +692,6 @@
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
     <t>GAPTIN 400 MG 30 CAPS.</t>
   </si>
   <si>
@@ -686,6 +701,9 @@
     <t>51.4800</t>
   </si>
   <si>
+    <t>GAST-REG 24MG/5ML 125ML SUSP</t>
+  </si>
+  <si>
     <t>GLIMET 2.5/400 MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -743,6 +761,9 @@
     <t>LEVCET 5MG 20 TAB.</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
@@ -878,6 +899,15 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>PROTOFIX 40MG 14 F.C. TAB</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
+    <t>116.0000</t>
+  </si>
+  <si>
     <t>ROSITA HAIR CREAM 100 GM</t>
   </si>
   <si>
@@ -983,13 +1013,13 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8382:0</t>
+    <t>8381:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t>ZADOGLOBIN 20 CAPS</t>
@@ -1113,9 +1143,6 @@
   </si>
   <si>
     <t>محلول ملح</t>
-  </si>
-  <si>
-    <t>10:0</t>
   </si>
   <si>
     <t>48.0000</t>
@@ -2668,7 +2695,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2678,14 +2705,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2694,14 +2721,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2711,11 +2738,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>30</v>
@@ -2727,14 +2754,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2744,11 +2771,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2760,14 +2787,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2777,11 +2804,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2793,14 +2820,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2810,11 +2837,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2826,7 +2853,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2859,7 +2886,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2876,11 +2903,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2892,7 +2919,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2909,11 +2936,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>30</v>
@@ -2925,7 +2952,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2942,11 +2969,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>30</v>
@@ -2958,14 +2985,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2975,11 +3002,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>30</v>
@@ -2991,14 +3018,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3008,11 +3035,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -3024,14 +3051,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3041,11 +3068,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -3057,14 +3084,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3074,14 +3101,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3090,14 +3117,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3107,14 +3134,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>146</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3123,31 +3150,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>30</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3156,31 +3183,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3189,7 +3216,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3206,11 +3233,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3222,14 +3249,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3239,14 +3266,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3255,14 +3282,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3272,14 +3299,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3288,14 +3315,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3305,14 +3332,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>94</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3321,14 +3348,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3338,14 +3365,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3354,7 +3381,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3371,11 +3398,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3387,14 +3414,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3404,14 +3431,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3420,14 +3447,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3437,14 +3464,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3453,14 +3480,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3470,14 +3497,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>180</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3486,14 +3513,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3503,14 +3530,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3519,14 +3546,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3536,14 +3563,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>64</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3552,14 +3579,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3569,14 +3596,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3585,31 +3612,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3618,14 +3645,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3635,14 +3662,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3651,28 +3678,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>30</v>
@@ -3684,7 +3711,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3701,14 +3728,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3717,14 +3744,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3734,14 +3761,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>47</v>
+        <v>204</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>70</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3750,14 +3777,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3767,14 +3794,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3783,14 +3810,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>94</v>
+        <v>210</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3800,14 +3827,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>208</v>
+        <v>47</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>209</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3816,14 +3843,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3833,11 +3860,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3849,14 +3876,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3866,11 +3893,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>30</v>
@@ -3882,14 +3909,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3899,14 +3926,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3915,14 +3942,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3932,14 +3959,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3948,7 +3975,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3965,11 +3992,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>30</v>
@@ -3981,14 +4008,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3998,11 +4025,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>226</v>
+        <v>137</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>227</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -4014,7 +4041,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -4031,14 +4058,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4054,7 +4081,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4064,14 +4091,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>231</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4080,31 +4107,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>55</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4120,7 +4147,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4130,14 +4157,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4163,14 +4190,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>64</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4179,31 +4206,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>239</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4219,7 +4246,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4229,11 +4256,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>241</v>
+        <v>183</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4245,14 +4272,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4262,11 +4289,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>166</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4278,14 +4305,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4295,11 +4322,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4311,14 +4338,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4328,14 +4355,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4344,14 +4371,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4361,14 +4388,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>251</v>
+        <v>174</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>252</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4377,14 +4404,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4394,14 +4421,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4410,14 +4437,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4427,14 +4454,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4443,14 +4470,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4460,11 +4487,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>30</v>
@@ -4476,7 +4503,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4493,14 +4520,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>110</v>
+        <v>258</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>111</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4516,7 +4543,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4526,14 +4553,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>261</v>
+        <v>61</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4542,31 +4569,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>122</v>
+        <v>263</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4575,14 +4602,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4592,14 +4619,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>22</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4608,7 +4635,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4625,14 +4652,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>268</v>
+        <v>112</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>269</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4641,14 +4668,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4658,14 +4685,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4674,28 +4701,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4707,14 +4734,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4724,14 +4751,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4740,14 +4767,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4757,14 +4784,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>47</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>48</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4773,14 +4800,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4790,14 +4817,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4806,7 +4833,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4819,18 +4846,18 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4839,14 +4866,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4856,14 +4883,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4872,14 +4899,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4889,14 +4916,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>286</v>
+        <v>47</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>287</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>288</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4905,7 +4932,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4922,14 +4949,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4938,31 +4965,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4971,14 +4998,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4988,14 +5015,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>132</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>133</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5004,14 +5031,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5021,14 +5048,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>295</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5037,31 +5064,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5070,7 +5097,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -5087,14 +5114,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5103,14 +5130,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5120,11 +5147,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>295</v>
+        <v>134</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>296</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5136,14 +5163,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5153,14 +5180,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>303</v>
+        <v>134</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>304</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5169,14 +5196,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5186,14 +5213,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5202,31 +5229,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>309</v>
+        <v>268</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
         <v>269</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5235,14 +5262,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>311</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5252,14 +5279,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>118</v>
+        <v>309</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>119</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5268,14 +5295,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5285,11 +5312,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>14</v>
+        <v>305</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>15</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5301,14 +5328,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5318,14 +5345,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5334,14 +5361,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>311</v>
+        <v>94</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5351,14 +5378,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>177</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5374,7 +5401,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5388,10 +5415,10 @@
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>320</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5400,14 +5427,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>52</v>
+        <v>321</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5417,14 +5444,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>322</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5433,14 +5460,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>324</v>
+        <v>94</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5450,14 +5477,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>326</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5466,14 +5493,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5483,11 +5510,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>30</v>
@@ -5499,14 +5526,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>12</v>
+        <v>321</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5516,11 +5543,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>332</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5532,14 +5559,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5549,14 +5576,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5565,14 +5592,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>175</v>
+        <v>52</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5582,14 +5609,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>96</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5598,31 +5625,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5631,31 +5658,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>342</v>
+        <v>16</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>151</v>
+        <v>338</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>152</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5664,31 +5691,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>344</v>
+        <v>12</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>239</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>175</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5697,7 +5724,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5710,15 +5737,15 @@
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>166</v>
+        <v>344</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>167</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5730,31 +5757,31 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>348</v>
+        <v>103</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>349</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5763,14 +5790,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>12</v>
+        <v>348</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5780,14 +5807,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>352</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5796,14 +5823,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>12</v>
+        <v>352</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5813,14 +5840,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>354</v>
+        <v>156</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5829,14 +5856,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>72</v>
+        <v>354</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5846,14 +5873,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>205</v>
+        <v>355</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5869,7 +5896,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5879,11 +5906,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>227</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5902,7 +5929,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5912,14 +5939,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>246</v>
+        <v>359</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>18</v>
+        <v>111</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5928,14 +5955,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>359</v>
+        <v>12</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5945,14 +5972,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>16</v>
+        <v>362</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5961,14 +5988,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>342</v>
+        <v>12</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5978,14 +6005,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>340</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5994,14 +6021,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>311</v>
+        <v>72</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6011,11 +6038,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -6027,14 +6054,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6044,11 +6071,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>54</v>
+        <v>232</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>55</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>16</v>
@@ -6060,14 +6087,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6077,14 +6104,14 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>175</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6093,14 +6120,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>16</v>
+        <v>369</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6110,11 +6137,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>16</v>
@@ -6126,14 +6153,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>109</v>
+        <v>352</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6143,11 +6170,11 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>205</v>
+        <v>349</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>206</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>16</v>
@@ -6159,14 +6186,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>18</v>
+        <v>321</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6176,11 +6203,11 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q140" s="12">
         <v>16</v>
@@ -6192,14 +6219,14 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>368</v>
+        <v>100</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6209,14 +6236,14 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>369</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q141" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1">
@@ -6225,14 +6252,14 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
@@ -6242,14 +6269,14 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>372</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q142" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="143" ht="24.75" customHeight="1">
@@ -6258,14 +6285,14 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c t="s" r="H143" s="9">
-        <v>374</v>
+        <v>16</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
@@ -6275,49 +6302,214 @@
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>54</v>
+        <v>349</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
+        <v>350</v>
+      </c>
+      <c t="s" r="Q143" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" ht="25.5" customHeight="1">
+      <c r="A144" s="7">
+        <v>138</v>
+      </c>
+      <c r="B144" s="7"/>
+      <c t="s" r="C144" s="8">
+        <v>375</v>
+      </c>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c t="s" r="H144" s="9">
+        <v>111</v>
+      </c>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c t="s" r="L144" s="10">
+        <v>41</v>
+      </c>
+      <c r="M144" s="10"/>
+      <c t="s" r="N144" s="8">
+        <v>212</v>
+      </c>
+      <c r="O144" s="8"/>
+      <c t="s" r="P144" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q144" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" ht="24.75" customHeight="1">
+      <c r="A145" s="7">
+        <v>139</v>
+      </c>
+      <c r="B145" s="7"/>
+      <c t="s" r="C145" s="8">
+        <v>376</v>
+      </c>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c t="s" r="H145" s="9">
+        <v>18</v>
+      </c>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c t="s" r="L145" s="10">
+        <v>41</v>
+      </c>
+      <c r="M145" s="10"/>
+      <c t="s" r="N145" s="8">
+        <v>212</v>
+      </c>
+      <c r="O145" s="8"/>
+      <c t="s" r="P145" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q145" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" ht="25.5" customHeight="1">
+      <c r="A146" s="7">
+        <v>140</v>
+      </c>
+      <c r="B146" s="7"/>
+      <c t="s" r="C146" s="8">
+        <v>377</v>
+      </c>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c t="s" r="H146" s="9">
+        <v>102</v>
+      </c>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c t="s" r="L146" s="10">
+        <v>41</v>
+      </c>
+      <c r="M146" s="10"/>
+      <c t="s" r="N146" s="8">
+        <v>47</v>
+      </c>
+      <c r="O146" s="8"/>
+      <c t="s" r="P146" s="11">
+        <v>378</v>
+      </c>
+      <c t="s" r="Q146" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147" ht="25.5" customHeight="1">
+      <c r="A147" s="7">
+        <v>141</v>
+      </c>
+      <c r="B147" s="7"/>
+      <c t="s" r="C147" s="8">
+        <v>379</v>
+      </c>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c t="s" r="H147" s="9">
+        <v>72</v>
+      </c>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
+      <c t="s" r="L147" s="10">
+        <v>41</v>
+      </c>
+      <c r="M147" s="10"/>
+      <c t="s" r="N147" s="8">
+        <v>380</v>
+      </c>
+      <c r="O147" s="8"/>
+      <c t="s" r="P147" s="11">
+        <v>381</v>
+      </c>
+      <c t="s" r="Q147" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" ht="24.75" customHeight="1">
+      <c r="A148" s="7">
+        <v>142</v>
+      </c>
+      <c r="B148" s="7"/>
+      <c t="s" r="C148" s="8">
+        <v>382</v>
+      </c>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c t="s" r="H148" s="9">
+        <v>383</v>
+      </c>
+      <c r="I148" s="9"/>
+      <c r="J148" s="9"/>
+      <c r="K148" s="9"/>
+      <c t="s" r="L148" s="10">
+        <v>41</v>
+      </c>
+      <c r="M148" s="10"/>
+      <c t="s" r="N148" s="8">
+        <v>54</v>
+      </c>
+      <c r="O148" s="8"/>
+      <c t="s" r="P148" s="11">
         <v>55</v>
       </c>
-      <c t="s" r="Q143" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="144" ht="25.5" customHeight="1">
-      <c r="P144" s="13">
-        <v>7269.2449999999999</v>
-      </c>
-      <c r="Q144" s="13"/>
-    </row>
-    <row r="145" ht="16.5" customHeight="1">
-      <c t="s" r="A145" s="14">
-        <v>375</v>
-      </c>
-      <c r="B145" s="14"/>
-      <c r="C145" s="14"/>
-      <c r="D145" s="14"/>
-      <c r="E145" s="14"/>
-      <c r="F145" s="14"/>
-      <c t="s" r="G145" s="15">
-        <v>376</v>
-      </c>
-      <c r="H145" s="15"/>
-      <c r="I145" s="15"/>
-      <c r="J145" s="16"/>
-      <c t="s" r="K145" s="17">
-        <v>377</v>
-      </c>
-      <c r="L145" s="17"/>
-      <c r="M145" s="17"/>
-      <c r="N145" s="17"/>
-      <c r="O145" s="17"/>
-      <c r="P145" s="17"/>
-      <c r="Q145" s="17"/>
+      <c t="s" r="Q148" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" ht="25.5" customHeight="1">
+      <c r="P149" s="13">
+        <v>7678.085</v>
+      </c>
+      <c r="Q149" s="13"/>
+    </row>
+    <row r="150" ht="16.5" customHeight="1">
+      <c t="s" r="A150" s="14">
+        <v>384</v>
+      </c>
+      <c r="B150" s="14"/>
+      <c r="C150" s="14"/>
+      <c r="D150" s="14"/>
+      <c r="E150" s="14"/>
+      <c r="F150" s="14"/>
+      <c t="s" r="G150" s="15">
+        <v>385</v>
+      </c>
+      <c r="H150" s="15"/>
+      <c r="I150" s="15"/>
+      <c r="J150" s="16"/>
+      <c t="s" r="K150" s="17">
+        <v>386</v>
+      </c>
+      <c r="L150" s="17"/>
+      <c r="M150" s="17"/>
+      <c r="N150" s="17"/>
+      <c r="O150" s="17"/>
+      <c r="P150" s="17"/>
+      <c r="Q150" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="697">
+  <mergeCells count="722">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7011,10 +7203,35 @@
     <mergeCell ref="H143:K143"/>
     <mergeCell ref="L143:M143"/>
     <mergeCell ref="N143:O143"/>
-    <mergeCell ref="P144:Q144"/>
-    <mergeCell ref="A145:F145"/>
-    <mergeCell ref="G145:I145"/>
-    <mergeCell ref="K145:Q145"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:G144"/>
+    <mergeCell ref="H144:K144"/>
+    <mergeCell ref="L144:M144"/>
+    <mergeCell ref="N144:O144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:G145"/>
+    <mergeCell ref="H145:K145"/>
+    <mergeCell ref="L145:M145"/>
+    <mergeCell ref="N145:O145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="C146:G146"/>
+    <mergeCell ref="H146:K146"/>
+    <mergeCell ref="L146:M146"/>
+    <mergeCell ref="N146:O146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="C147:G147"/>
+    <mergeCell ref="H147:K147"/>
+    <mergeCell ref="L147:M147"/>
+    <mergeCell ref="N147:O147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="C148:G148"/>
+    <mergeCell ref="H148:K148"/>
+    <mergeCell ref="L148:M148"/>
+    <mergeCell ref="N148:O148"/>
+    <mergeCell ref="P149:Q149"/>
+    <mergeCell ref="A150:F150"/>
+    <mergeCell ref="G150:I150"/>
+    <mergeCell ref="K150:Q150"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-21_00-00.xlsx
+++ b/DaySale_2025-08-21_00-00.xlsx
@@ -620,6 +620,9 @@
     <t>28.5000</t>
   </si>
   <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
     <t>ESMOPROTON 40 MG 14 CAPS</t>
   </si>
   <si>
@@ -719,12 +722,24 @@
     <t>43.5600</t>
   </si>
   <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
     <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
   </si>
   <si>
     <t>15.8400</t>
   </si>
   <si>
+    <t>GOUTIFADE 80 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
     <t>ISIS ينسون</t>
   </si>
   <si>
@@ -957,12 +972,6 @@
   </si>
   <si>
     <t>TORSERETIC 20MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>40.5900</t>
   </si>
   <si>
     <t>TRITACE 5MG 14 TAB</t>
@@ -3751,7 +3760,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3761,11 +3770,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>30</v>
@@ -3777,14 +3786,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3794,11 +3803,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>30</v>
@@ -3810,14 +3819,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3827,14 +3836,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>47</v>
+        <v>208</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3843,14 +3852,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>105</v>
+        <v>211</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3860,14 +3869,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>212</v>
+        <v>47</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>213</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3876,14 +3885,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3893,14 +3902,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3909,14 +3918,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3926,14 +3935,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3942,14 +3951,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3959,14 +3968,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3975,14 +3984,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3992,11 +4001,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>30</v>
@@ -4008,14 +4017,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -4025,14 +4034,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>137</v>
+        <v>225</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>138</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -4048,7 +4057,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4058,14 +4067,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>228</v>
+        <v>137</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4074,14 +4083,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4091,14 +4100,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>140</v>
+        <v>229</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>141</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4114,7 +4123,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4124,11 +4133,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>232</v>
+        <v>140</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>233</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4140,14 +4149,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4157,14 +4166,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4173,14 +4182,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4190,14 +4199,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>64</v>
+        <v>208</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4206,31 +4215,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4239,7 +4248,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4256,14 +4265,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>183</v>
+        <v>64</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4272,14 +4281,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4289,14 +4298,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4312,13 +4321,13 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -4326,10 +4335,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4338,14 +4347,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4355,11 +4364,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>247</v>
+        <v>183</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4371,14 +4380,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4388,11 +4397,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4404,14 +4413,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4421,14 +4430,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>64</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4444,7 +4453,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4477,7 +4486,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4487,14 +4496,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>174</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4503,14 +4512,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4520,11 +4529,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>258</v>
+        <v>64</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>30</v>
@@ -4536,14 +4545,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4553,11 +4562,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>61</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4569,14 +4578,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4586,11 +4595,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>30</v>
@@ -4602,14 +4611,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4619,11 +4628,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>22</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>30</v>
@@ -4635,14 +4644,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4652,11 +4661,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>113</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4675,7 +4684,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4708,24 +4717,24 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4741,7 +4750,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4751,11 +4760,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>112</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4767,7 +4776,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4784,11 +4793,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>30</v>
@@ -4800,28 +4809,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>124</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4833,14 +4842,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4850,11 +4859,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>120</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>121</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4866,14 +4875,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4883,14 +4892,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4899,7 +4908,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4916,11 +4925,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>47</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>48</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4939,7 +4948,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4949,14 +4958,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>286</v>
+        <v>120</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4965,31 +4974,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>22</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -5005,7 +5014,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -5015,11 +5024,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>47</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -5031,14 +5040,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5048,14 +5057,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>295</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5064,31 +5073,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>297</v>
+        <v>22</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>298</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5097,7 +5106,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -5114,11 +5123,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5130,14 +5139,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5147,14 +5156,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>134</v>
+        <v>298</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>222</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5163,14 +5172,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5180,14 +5189,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>134</v>
+        <v>302</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>135</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5203,7 +5212,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5236,24 +5245,24 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>268</v>
+        <v>134</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5269,7 +5278,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5279,11 +5288,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>309</v>
+        <v>134</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>310</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>30</v>
@@ -5295,14 +5304,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5312,11 +5321,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5335,24 +5344,24 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>314</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5361,14 +5370,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5378,11 +5387,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>30</v>
@@ -5394,14 +5403,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5411,11 +5420,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5427,14 +5436,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>321</v>
+        <v>105</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5444,11 +5453,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>120</v>
+        <v>318</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>121</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5460,7 +5469,7 @@
       </c>
       <c r="B118" 